--- a/textToOps/data/processed/prediction_vs_actual.xlsx
+++ b/textToOps/data/processed/prediction_vs_actual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,328 +462,328 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>125</v>
+        <v>476</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
+          <t>which areas are within 20 minutes driving time from flower stores in oleander?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tell me the median household income for each census block in tarrant county in texas</t>
+          <t>which area be within unitN unitT drive time from flower store in oleander ?</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>142</v>
+        <v>521</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
+          <t>what areas in spain have a temperature greater than 0 degrees in celsius?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>what be the number of luxury hotel in happy valley ski resort</t>
+          <t>what area in spain have a temperature great than unitN degree in celsius ?</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>124</v>
+        <v>540</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
+          <t>which schools are not accessible within 3 minutes of driving time from a fire station in fort worth?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>what be the mean center of the fire call unitN by the priority in fort worth</t>
+          <t>which school be not accessible within unitN unitT of drive time from a fire station in fort worth ?</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+          <t>what areas are within a mile of main roads in loudoun county in the united states?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>which school be not accessible within unitN unitT by a car from a fire station in fort worth</t>
+          <t>what area be within a mile of main road in loudoun county in the united state ?</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>What areas are not conatined as green belt areas in Houston</t>
+          <t>what houses are for sale in the flood zone in utrecht</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>what area be not conatined a green belt area in houston</t>
+          <t>what house be for sale in the flood unitN in utrecht</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>which suggested wind farm are nearest to the high way in scotland</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL of the road in spain</t>
+          <t>which suggest wind farm be near to the high way in scotland</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What are the two fire stations closest to each school in Utrecht</t>
+          <t>tell me the weighted average coordinates of the bank branches in oleander</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>what be the unitN fire station closest to each school in utrecht</t>
+          <t>tell me the unitN average coordinate of the bank branch in oleander</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
+          <t>is there a number of elderly people for each neighborhood in amsterdam?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>what house be greather than unitN square unitL in urban area in utrecht</t>
+          <t>be there a number of elderly people for each neighborhood in amsterdam ?</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>where are the accidents on the pistes in happy valley?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>which visitor facility be in the happy valley</t>
+          <t>where be the accident on the piste in happy valley ?</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>112</v>
+        <v>308</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>which wind farm proposals are closest to the high road in scotland?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>what be the land use in netherlands</t>
+          <t>which wind farm proposal be closest to the high road in scotland ?</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>What are the land use inside the flood zones in Oleander</t>
+          <t>what is the point density of trees in parks in oleander</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>what be the land use inside the flood unitN in oleander</t>
+          <t>what be the point density of tree in park in oleander</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>104</v>
+        <v>393</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>what areas are accessible within two miles of urban land use in loudoun county in the us?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to the river in crook deschutes and jefferson county</t>
+          <t>what area be accessible within unitN mile of urban land use in loudoun county in the u ?</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
+          <t>what is the central feature of fire station in fort worth</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>what be the number of hispanic for each census block in tarrant county in texas</t>
+          <t>what be the central feature of fire station in fort worth</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a store in Gresham</t>
+          <t>which areas are within a mile of main roads in loudoun county in the united states?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of a store in gresham</t>
+          <t>which area be within a mile of main road in loudoun county in the united state ?</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -798,112 +798,112 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>What areas are inside 1000 foot of schools in El Cajon</t>
+          <t>tell me the central feature of the bank branches in oleander</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>what area be inside unitN unitL of school in el cajon</t>
+          <t>tell me the central feature of the bank branch in oleander</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>What areas do have population density less than 300 per square kilometer in UK</t>
+          <t>what is the euclidean distance to the subway stations in amsterdam?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>what area do have population density less than unitN per square unitL in uk</t>
+          <t>what be the euclidean distance to the subway station in amsterdam ?</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>99</v>
+        <v>407</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>what liquor stores are within 1000 feet of el cajon parks</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to green area in amsterdam</t>
+          <t>what liquor store be within unitN unitL of el cajon park</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of roads in Assam in India</t>
+          <t>what areas in houston are not classified as flood plains?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of road in assam in india</t>
+          <t>what area in houston be not classify a flood plain ?</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>127</v>
+        <v>453</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>What is the median population for each census block in Tarrant County in Texas</t>
+          <t>what is the median household income for each census block in tarrant county in texas?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>what be the median population for each census block in tarrant county in texas</t>
+          <t>what be the median household income for each census block in tarrant county in texas ?</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -918,184 +918,184 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>98</v>
+        <v>531</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>which regions of cape peninsula have an annual rainfall of more than 1000 millimeters</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>what be the density surface of temperature measurement in oleander city</t>
+          <t>which region of cape peninsula have an annual rainfall of more than unitN unitL</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>What is the hot spots and cold spots for average loan interest rates in the US</t>
+          <t>which houses are available for sale in utrecht?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>what be the hot spot and cold spot for average loan interest rate in the u</t>
+          <t>which house be available for sale in utrecht ?</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+          <t>list the number of electoral votes for each precinct in dallas?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>which suggest wind farm be near to the high way in scotland</t>
+          <t>list the number of electoral vote for each precinct in dallas ?</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>What is the number of buildings within 3 minutes of driving time from fire stations in Oleander</t>
+          <t>what areas are at least 3000 meters from the rivers in spain</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>what be the number of building within unitN unitT of drive time from fire station in oleander</t>
+          <t>what area be at least unitN unitL from the river in spain</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>show me the median age for each census tract in tarrant county texas</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the near school from my current location in utrecht</t>
+          <t>show me the median age for each census tract in tarrant county texas</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>168</v>
+        <v>518</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>what areas have a monthly rainfall of more than 1000 millimeters in the cape peninsula</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>where be the rocky area in spain</t>
+          <t>what area have a monthly rainfall of more than unitN unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Where are the auto accidents in Tarrant County in Texas</t>
+          <t>what areas are within 1000 meters of roads in assam in india</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>where be the auto accident in tarrant county in texas</t>
+          <t>what area be within unitN unitL of road in assam in india</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>158</v>
+        <v>386</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>where the uk has no conservation areas?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>where be not conservation area in uk</t>
+          <t>where the uk have no conservation area ?</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1110,143 +1110,143 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
+          <t>where are the auto accidents in texas tarrant county?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>what area be within unitN mile of urban landuse in loudoun county in u</t>
+          <t>where be the auto accident in texas tarrant county ?</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>What areas are within 15 minutes walking distance of a metro rail station in Kochi in India</t>
+          <t>which houses are to be sold in utrecht?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>what area be within unitN unitT walk distance of a metro rail station in kochi in india</t>
+          <t>which house be to be sell in utrecht ?</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Where are not protected region in Assam in India</t>
+          <t>what is the total population for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>where be not protect region in assam in india</t>
+          <t>what be the total population for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>what is the number of election votes for each precinct in dallas</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>which house have construction year between unitN and unitN in utrecht</t>
+          <t>what be the number of election vote for each precinct in dallas</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F32" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of the hospitals in Oleander</t>
+          <t>where are the commercial areas in amsterdam</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the hospital in oleander</t>
+          <t>where be the commercial area in amsterdam</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>what is the average rating of street pavement for each borough in new york city</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN</t>
+          <t>what be the average rating of street pavement for each borough in new york city</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
@@ -1254,664 +1254,664 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>How many streetlights for each district in San Diego</t>
+          <t>what areas in spain have a temperature below 0 degrees celsius?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>how many streetlight for each district in san diego</t>
+          <t>what area in spain have a temperature below unitN degree celsius ?</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E35" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>179</v>
+        <v>501</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>which areas have an annual snowfall more than 1000 millimeters in the cape peninsula?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>which school be not within unitN unitT of drive time from a fire station in fort worth</t>
+          <t>which area have an annual snowfall more than unitN unitL in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E36" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
+          <t>what is the hot spot of house vacancy rate in usa in 2019</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the major transport route in amsterdam</t>
+          <t>what be the hot spot of house vacancy rate in usa in unitN</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>87</v>
+        <v>434</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>what's the number of hispanics for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>what be the area of currently mixed use unitN in gresham</t>
+          <t>what 's the number of hispanic for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
+          <t>what houses are for sale and within 1km from the nearest school (from my current location) in utrecht</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>what be the kernel density of traffic accident in pasadena california</t>
+          <t>what house be for sale and within unitL from the near school from my current location in utrecht</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F39" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>58</v>
+        <v>532</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>What areas are accessible within reach two miles of urban landuse in Loudoun County in US</t>
+          <t>which areas in the cape peninsula have an annual rainfall of more than 1000 millimeters?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>what area be accessible within reach unitN mile of urban landuse in loudoun county in u</t>
+          <t>which area in the cape peninsula have an annual rainfall of more than unitN unitL ?</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E40" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F40" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>what is the mean center of customers weighted by the number of transactions in oleander city</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>which house be within unitN unitT drive time from the near fire station from my current location in oleander</t>
+          <t>what be the mean center of customer unitN by the number of transaction in oleander city</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
+          <t>which houses are within 3 minutes driving time from the nearest fire station (from my current location) in oleander</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>what area do have temperature in celsius large than unitN degree in spain</t>
+          <t>which house be within unitN unitT drive time from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E42" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F42" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>11</v>
+        <v>451</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>What areas are at least 3000 meters from the rivers in Spain</t>
+          <t>what's the median household income for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>what area be at least unitN unitL from the river in spain</t>
+          <t>what 's the median household income for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>148</v>
+        <v>359</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>What is the proportion of people over 65 for each PC4 area in Amsterdam</t>
+          <t>calculate the weighted average of library patrons for each district in oleander</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>what be the proportion of people over unitN for each pc4 area in amsterdam</t>
+          <t>calculate the unitN average of library patron for each district in oleander</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F44" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>15</v>
+        <v>461</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>What areas are green belt areas in Houston</t>
+          <t>what areas in the uk have a population density less than 300 per square kilometer?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>what area be green belt area in houston</t>
+          <t>what area in the uk have a population density less than unitN per square unitL ?</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What is the mean center of accidents weighted by priority for each alarm territories in Fort Worth</t>
+          <t>what areas in houston are not green belt areas?</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>what be the mean center of accident unitN by priority for each alarm territory in fort worth</t>
+          <t>what area in houston be not green belt area ?</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>What areas are outside 5 km of water bodies in Assam in India</t>
+          <t>where are hispanic food stores in tarrant county in texas?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL of water body in assam in india</t>
+          <t>where be hispanic food store in tarrant county in texas ?</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F47" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
+          <t>what's the number of cases of arson in fort worth in february 2004?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>what area have an aspect large than unitN degree and small than unitN degree in the cape peninsula</t>
+          <t>what 's the number of case of arson in fort worth in montInYe unitN ?</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>What is the hot spot of house vacancy rate in USA in 2019</t>
+          <t>what areas are not classified as flood plains in houston?</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>what be the hot spot of house vacancy rate in usa in unitN</t>
+          <t>what area be not classify a flood plain in houston ?</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What is the mean center of library patrons for each district in Oleander</t>
+          <t>how many streetlights for each district in san diego</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>what be the mean center of library patron for each district in oleander</t>
+          <t>how many streetlight for each district in san diego</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E50" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>33</v>
+        <v>541</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of cameras in Salford</t>
+          <t>tell me the number of buildings within 3 minutes of driving time from the fire stations in oleander?</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of camera in salford</t>
+          <t>tell me the number of building within unitN unitT of drive time from the fire station in oleander ?</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F51" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>what areas have an aspect larger than 45 degree and smaller than 135 degrees in the cape peninsula</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>what liquor store be within unitN unitL of park in el cajon</t>
+          <t>what area have an aspect large than unitN degree and small than unitN degree in the cape peninsula</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E52" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F52" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>What is the central feature of bank branches in Oleander</t>
+          <t>what areas are not wetlands in houston</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>what be the central feature of bank branch in oleander</t>
+          <t>what area be not wetland in houston</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>69</v>
+        <v>287</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>which areas are within a mile of main roads in loudoun county in the us?</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>what area have an annual snowfall more than unitN unitL in the cape peninsula</t>
+          <t>which area be within a mile of main road in loudoun county in the u ?</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
+          <t>calculate the weighted coordinate average of library patrons for each district in oleander</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>what house be large than unitN square unitL in urban area in utrecht</t>
+          <t>calculate the unitN coordinate average of library patron for each district in oleander</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F55" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>What is the number of election votes for each precinct in Dallas</t>
+          <t>what houses are for sale and within 1km from the nearest supermarket (from my current location) in utrecht</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>what be the number of election vote for each precinct in dallas</t>
+          <t>what house be for sale and within unitL from the near supermarket from my current location in utrecht</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E56" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>43</v>
+        <v>415</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>what liquor stores are within 1000 feet of schools in el cajon?</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>what area be accessible within unitN unitT of by car from the near fire station from my current location in oleander</t>
+          <t>what liquor store be within unitN unitL of school in el cajon ?</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E57" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F57" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
+          <t>which areas are within 500 meters of universities in karbala in iraq?</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>what be the median people age for each census tract in tarrant county in texas</t>
+          <t>which area be within unitN unitL of university in karbala in iraq ?</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
+          <t>what areas are within two miles of urban landuse in loudoun county in us</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>tell me unitN average coordinate of bank branch in oleander</t>
+          <t>what area be within unitN mile of urban landuse in loudoun county in u</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E59" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F59" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>105</v>
+        <v>481</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>what areas have a slope greater than 15 percent and smaller than 60 percent in the cape peninsula?</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to tram station in amsterdam</t>
+          <t>what area have a slope great than unitN percent and small than unitN percent in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>what areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in oleander</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort</t>
+          <t>what area be outside unitN unitT of drive time from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E61" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>which areas are within 100 meters of hospitals in oleander?</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL from major highway in houston</t>
+          <t>which area be within unitN unitL of hospital in oleander ?</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1926,50 +1926,4370 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>where are not conservation areas in uk</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the main road in utrecht</t>
+          <t>where be not conservation area in uk</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E63" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F63" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
+          <t>what is the mean center of accidents weighted by priority for each alarm territories in fort worth</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the near supermarket from my current location in utrecht</t>
+          <t>what be the mean center of accident unitN by priority for each alarm territory in fort worth</t>
         </is>
       </c>
       <c r="D64" t="n">
+        <v>32</v>
+      </c>
+      <c r="E64" t="n">
+        <v>32</v>
+      </c>
+      <c r="F64" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>what area are within 50 km from family physician services in saskatchewan in canada</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitL from family physician service in saskatchewan in canada</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>show me the median age for each census tract in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>show me the median age for each census tract in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>28</v>
+      </c>
+      <c r="E66" t="n">
+        <v>28</v>
+      </c>
+      <c r="F66" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>tell me the population density in california? why?</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>tell me the population density in california ? why ?</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>33</v>
+      </c>
+      <c r="E67" t="n">
+        <v>33</v>
+      </c>
+      <c r="F67" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>where are the hispanic food stores in tarrant county texas?</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>where be the hispanic food store in tarrant county texas ?</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>18</v>
+      </c>
+      <c r="E68" t="n">
+        <v>18</v>
+      </c>
+      <c r="F68" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>what areas are within 1000 meters of the schools in oleander</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitL of the school in oleander</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" t="n">
+        <v>8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>what density of fire calls in oleander?</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>what density of fire call in oleander ?</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>32</v>
+      </c>
+      <c r="E70" t="n">
+        <v>32</v>
+      </c>
+      <c r="F70" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>what liquor stores are within 1000 feet of libraries in el cajon?</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>what liquor store be within unitN unitL of library in el cajon ?</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>21</v>
+      </c>
+      <c r="E71" t="n">
+        <v>21</v>
+      </c>
+      <c r="F71" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>which wind farm proposals in scotland are closest to the high way?</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>which wind farm proposal in scotland be closest to the high way ?</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>13</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13</v>
+      </c>
+      <c r="F72" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>what areas are within 100 meters of cameras in salford</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitL of camera in salford</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>8</v>
+      </c>
+      <c r="E73" t="n">
+        <v>8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>what areas have an annual amount of more than 1000 millimeters of snowfall in the cape peninsula?</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>what area have an annual amount of more than unitN unitL of snowfall in the cape peninsula ?</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>46</v>
+      </c>
+      <c r="E74" t="n">
+        <v>46</v>
+      </c>
+      <c r="F74" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>list the weighted average of library patrons for each district in oleander?</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>list the unitN average of library patron for each district in oleander ?</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>16</v>
+      </c>
+      <c r="E75" t="n">
+        <v>16</v>
+      </c>
+      <c r="F75" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>where are the hispanic food stores in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>where be the hispanic food store in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>18</v>
+      </c>
+      <c r="E76" t="n">
+        <v>18</v>
+      </c>
+      <c r="F76" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>what houses are for sale and within 0.5km from the main roads in utrecht</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>what house be for sale and within unitL from the main road in utrecht</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>21</v>
+      </c>
+      <c r="E77" t="n">
+        <v>21</v>
+      </c>
+      <c r="F77" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>which areas are not green belt areas in houston?</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>which area be not green belt area in houston ?</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>6</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>tell me the median household income for each census block in tarrant county texas?</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>tell me the median household income for each census block in tarrant county texas ?</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>28</v>
+      </c>
+      <c r="E79" t="n">
+        <v>28</v>
+      </c>
+      <c r="F79" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>what areas in spain have a temperature in celsius greater than 0 degrees</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>what area in spain have a temperature in celsius great than unitN degree</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>46</v>
+      </c>
+      <c r="E80" t="n">
+        <v>46</v>
+      </c>
+      <c r="F80" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>what areas are within 20 minutes driving time from flower stores in oleander</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitT drive time from flower store in oleander</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>42</v>
+      </c>
+      <c r="E81" t="n">
+        <v>42</v>
+      </c>
+      <c r="F81" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>what are the vote totals of an election for each precinct in dallas?</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>what be the vote total of an election for each precinct in dallas ?</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>what are the two fire stations closest to each school in utrecht</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>what be the unitN fire station closest to each school in utrecht</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>13</v>
+      </c>
+      <c r="E83" t="n">
+        <v>13</v>
+      </c>
+      <c r="F83" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E64" t="n">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>what areas are green belt areas in houston</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>what area be green belt area in houston</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>6</v>
+      </c>
+      <c r="F84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>which park is the largest in utrecht?</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>which park be the large in utrecht ?</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>18</v>
+      </c>
+      <c r="E85" t="n">
+        <v>18</v>
+      </c>
+      <c r="F85" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>what houses are available for sale outside the flood zone in utrecht?</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>what house be available for sale outside the flood unitN in utrecht ?</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>14</v>
+      </c>
+      <c r="E86" t="n">
+        <v>14</v>
+      </c>
+      <c r="F86" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>what areas do have population density less than 300 per square kilometer in uk</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>what area do have population density less than unitN per square unitL in uk</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>33</v>
+      </c>
+      <c r="E87" t="n">
+        <v>33</v>
+      </c>
+      <c r="F87" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>what areas are within 500 meters from religious places in karbala in iraq</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitL from religious place in karbala in iraq</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>8</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>what is the median household income for each census block in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>what be the median household income for each census block in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>28</v>
+      </c>
+      <c r="E89" t="n">
+        <v>28</v>
+      </c>
+      <c r="F89" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>what is the land use in netherlands</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>what be the land use in netherlands</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>what areas have an annual snowfall of more than 1000 millimeters in the cape peninsula?</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>what area have an annual snowfall of more than unitN unitL in the cape peninsula ?</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>46</v>
+      </c>
+      <c r="E91" t="n">
+        <v>46</v>
+      </c>
+      <c r="F91" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort?</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort ?</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>18</v>
+      </c>
+      <c r="E92" t="n">
+        <v>18</v>
+      </c>
+      <c r="F92" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>what is the number of dwelling units inside the flood zones in oleander?</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>what be the number of dwell unit inside the flood unitN in oleander ?</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>14</v>
+      </c>
+      <c r="E93" t="n">
+        <v>14</v>
+      </c>
+      <c r="F93" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>what areas are accessible by car from the nearest fire station from my current location in oleander?</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>what area be accessible by car from the near fire station from my current location in oleander ?</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>53</v>
+      </c>
+      <c r="E94" t="n">
+        <v>53</v>
+      </c>
+      <c r="F94" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>what is the number of households for each precinct in dallas county</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>what be the number of household for each precinct in dallas county</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>27</v>
+      </c>
+      <c r="E95" t="n">
+        <v>27</v>
+      </c>
+      <c r="F95" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>what is the tornado path in oleander in april 2011</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>what be the tornado path in oleander in montInYe unitN</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>which wind farm proposals are nearest to the high way in scotland</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>which wind farm proposal be near to the high way in scotland</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>13</v>
+      </c>
+      <c r="E97" t="n">
+        <v>13</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>what areas are more than 5000 meters from the roads in spain</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>what area be more than unitN unitL from the road in spain</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>which visitor facilities are in happy valley?</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>which visitor facility be in happy valley ?</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>what is the mean center of the fire calls weighted by the priority in fort worth</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>what be the mean center of the fire call unitN by the priority in fort worth</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>16</v>
+      </c>
+      <c r="E100" t="n">
+        <v>16</v>
+      </c>
+      <c r="F100" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>what is the median people age for each census tract in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>what be the median people age for each census tract in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>28</v>
+      </c>
+      <c r="E101" t="n">
+        <v>28</v>
+      </c>
+      <c r="F101" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>how many buildings are within 3 minutes of driving time from fire stations in oleander</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>how many building be within unitN unitT of drive time from fire station in oleander</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>50</v>
+      </c>
+      <c r="E102" t="n">
+        <v>50</v>
+      </c>
+      <c r="F102" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>what areas are not designated as green belt areas in houston?</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>what area be not designate a green belt area in houston ?</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>which liquor stores are within 1000 feet of parks in el cajon?</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>which liquor store be within unitN unitL of park in el cajon ?</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>21</v>
+      </c>
+      <c r="E104" t="n">
+        <v>21</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>which houses are within 3 minutes of the nearest fire station from my current location in oleander?</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>which house be within unitN unitT of the near fire station from my current location in oleander ?</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>53</v>
+      </c>
+      <c r="E105" t="n">
+        <v>53</v>
+      </c>
+      <c r="F105" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>what was the number of arson cases in fort worth in february 2004?</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>what be the number of arson case in fort worth in montInYe unitN ?</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>what areas are within a mile of main roads in loudoun county in the united states</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>what area be within a mile of main road in loudoun county in the united state</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>8</v>
+      </c>
+      <c r="E107" t="n">
+        <v>8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>tell me not to flood the plains in houston</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>tell me not to flood the plain in houston</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>what reachable areas are within a quarter mile of planned commercial district in gresham</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>what reachable area be within a quarter mile of plan commercial district in gresham</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>19</v>
+      </c>
+      <c r="E109" t="n">
+        <v>19</v>
+      </c>
+      <c r="F109" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>what is the kernel density of crime in surrey in the uk?</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>what be the kernel density of crime in surrey in the uk ?</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>which houses are for sale in utrecht flood zone?</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>which house be for sale in utrecht flood unitN ?</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>14</v>
+      </c>
+      <c r="E111" t="n">
+        <v>14</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>what is the proportion of people over 65 for each pc4 area in amsterdam?</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>what be the proportion of people over unitN for each pc4 area in amsterdam ?</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>is there a percentage of people over 65 for each pc4 area in amsterdam?</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>be there a percentage of people over unitN for each pc4 area in amsterdam ?</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>which shops are open at 6 pm in happy valley ski resort?</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>which shop be open at unitN unitTR in happy valley ski resort ?</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>which houses are to be sold in utrecht</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>which house be to be sell in utrecht</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>which areas have an annual amount of snowfall more than 1000 millimeters in the cape peninsula?</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>which area have an annual amount of snowfall more than unitN unitL in the cape peninsula ?</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>46</v>
+      </c>
+      <c r="E116" t="n">
+        <v>46</v>
+      </c>
+      <c r="F116" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>where are the fire stations in utrecht?</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>where be the fire station in utrecht ?</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>18</v>
+      </c>
+      <c r="E117" t="n">
+        <v>18</v>
+      </c>
+      <c r="F117" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>what liquor stores are within 1000 feet of the parks in el cajon</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>what liquor store be within unitN unitL of the park in el cajon</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>21</v>
+      </c>
+      <c r="E118" t="n">
+        <v>21</v>
+      </c>
+      <c r="F118" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>which areas are within 2000 meters of the playgrounds in oleander?</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>which area be within unitN unitL of the playground in oleander ?</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>8</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>what areas are within 800 meter from major highways in houston</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitL from major highway in houston</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>show me the central feature of bank branches in oleander</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>show me the central feature of bank branch in oleander</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>15</v>
+      </c>
+      <c r="E121" t="n">
+        <v>15</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>which shops are open at 6 pm in happy valley ski resort</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>which shop be open at unitN unitTR in happy valley ski resort</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>which areas are within 100 meters of the hospitals in oleander?</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>which area be within unitN unitL of the hospital in oleander ?</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>where are the luxury hotels with more than 20 rooms in the happy valley ski resort</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>where be the luxury hotel with more than unitN room in the happy valley ski resort</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>18</v>
+      </c>
+      <c r="E124" t="n">
+        <v>18</v>
+      </c>
+      <c r="F124" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>what is the interpolation surface of no2 concentration in vancouver</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>what be the interpolation surface of no2 concentration in vancouver</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>11</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11</v>
+      </c>
+      <c r="F125" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>what regions of cape peninsula have a monthly rainfall of more than 1000 millimeters</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>what region of cape peninsula have a monthly rainfall of more than unitN unitL</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>46</v>
+      </c>
+      <c r="E126" t="n">
+        <v>46</v>
+      </c>
+      <c r="F126" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>which areas have an annual rainfall of more than 1000 millimeters in the cape peninsula?</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>which area have an annual rainfall of more than unitN unitL in the cape peninsula ?</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>46</v>
+      </c>
+      <c r="E127" t="n">
+        <v>46</v>
+      </c>
+      <c r="F127" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>what areas in spain have temperatures greater than 0 degrees?</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>what area in spain have temperature great than unitN degree ?</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>46</v>
+      </c>
+      <c r="E128" t="n">
+        <v>46</v>
+      </c>
+      <c r="F128" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>tell me the weighted average coordinates of bank branches in oleander</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>tell me the unitN average coordinate of bank branch in oleander</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>15</v>
+      </c>
+      <c r="E129" t="n">
+        <v>15</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>where are the fire stations in utrecht</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>where be the fire station in utrecht</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>18</v>
+      </c>
+      <c r="E130" t="n">
+        <v>18</v>
+      </c>
+      <c r="F130" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>what is the lung cancer mortality rate of white males for each city in the western usa from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>what areas are reachable within 3 minutes by car from the nearest fire station from my current location in oleander?</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>what area be reachable within unitN unitT by car from the near fire station from my current location in oleander ?</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>53</v>
+      </c>
+      <c r="E132" t="n">
+        <v>53</v>
+      </c>
+      <c r="F132" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>tell me the median household income for each census block in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>tell me the median household income for each census block in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>28</v>
+      </c>
+      <c r="E133" t="n">
+        <v>28</v>
+      </c>
+      <c r="F133" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>what is the lung cancer mortality rate of white males for each city in the western usa from 1970 to 1994?</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN ?</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>which houses are within 2 minutes of the fire stations from my current location in oleander?</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>which house be within unitN unitT of the fire station from my current location in oleander ?</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>42</v>
+      </c>
+      <c r="E135" t="n">
+        <v>42</v>
+      </c>
+      <c r="F135" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>what areas are within a quarter mile of the planned commercial district in gresham?</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>what area be within a quarter mile of the plan commercial district in gresham ?</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>19</v>
+      </c>
+      <c r="E136" t="n">
+        <v>19</v>
+      </c>
+      <c r="F136" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>what areas in the uk have a population density of less than 300 per square kilometer?</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>what area in the uk have a population density of less than unitN per square unitL ?</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>33</v>
+      </c>
+      <c r="E137" t="n">
+        <v>33</v>
+      </c>
+      <c r="F137" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>what is the population for each city in aichi prefecture in japan?</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>what be the population for each city in aichi prefecture in japan ?</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>which vacant lots in hillsboro are within 1 mile of a freeway?</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>which vacant lot in hillsboro be within unitN mile of a freeway ?</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>21</v>
+      </c>
+      <c r="E139" t="n">
+        <v>21</v>
+      </c>
+      <c r="F139" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>tell me the number of buildings within 3 minutes of driving time from fire stations in oleander?</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>tell me the number of building within unitN unitT of drive time from fire station in oleander ?</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>50</v>
+      </c>
+      <c r="E140" t="n">
+        <v>50</v>
+      </c>
+      <c r="F140" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>what areas are within 2000 meters of the playgrounds in oleander</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitL of the playground in oleander</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>what areas are within 15 minutes walking distance of a metro station in kochi in india?</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitT walk distance of a metro station in kochi in india ?</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>42</v>
+      </c>
+      <c r="E142" t="n">
+        <v>42</v>
+      </c>
+      <c r="F142" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>where are the accidents on the pistes in the happy valley</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>where be the accident on the piste in the happy valley</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>14</v>
+      </c>
+      <c r="E143" t="n">
+        <v>14</v>
+      </c>
+      <c r="F143" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>what is weighted average coordinates of bank branches in oleander?</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>what be unitN average coordinate of bank branch in oleander ?</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>15</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>what areas are within two miles of urban land use in loudoun county in the us?</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>what area be within unitN mile of urban land use in loudoun county in the u ?</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>19</v>
+      </c>
+      <c r="E145" t="n">
+        <v>19</v>
+      </c>
+      <c r="F145" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>what is the number of buildings within 3 minutes of driving time from fire stations in oleander</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>what be the number of building within unitN unitT of drive time from fire station in oleander</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>50</v>
+      </c>
+      <c r="E146" t="n">
+        <v>50</v>
+      </c>
+      <c r="F146" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>which schools are not within 3 minutes of driving time from a fire station in fort worth</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>which school be not within unitN unitT of drive time from a fire station in fort worth</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>50</v>
+      </c>
+      <c r="E147" t="n">
+        <v>50</v>
+      </c>
+      <c r="F147" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>what is the euclidean distance to recreational sites in utrecht</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>what be the euclidean distance to recreational site in utrecht</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>which wind farm is closest to the high way in scotland?</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>which wind farm be closest to the high way in scotland ?</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>13</v>
+      </c>
+      <c r="E149" t="n">
+        <v>13</v>
+      </c>
+      <c r="F149" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>which house is within 3 minutes driving time from the nearest fire station from my current location in oleander?</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>which house be within unitN unitT drive time from the near fire station from my current location in oleander ?</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>53</v>
+      </c>
+      <c r="E150" t="n">
+        <v>53</v>
+      </c>
+      <c r="F150" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>what is the number of dwelling units in the flood zones in oleander?</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>what be the number of dwell unit in the flood unitN in oleander ?</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>14</v>
+      </c>
+      <c r="E151" t="n">
+        <v>14</v>
+      </c>
+      <c r="F151" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>what areas are not wetlands in houston?</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>what area be not wetland in houston ?</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>what is the number of luxury hotels in happy valley ski resort</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>what be the number of luxury hotel in happy valley ski resort</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>what's the median population for each census block in tarrant county texas?</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>what 's the median population for each census block in tarrant county texas ?</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>28</v>
+      </c>
+      <c r="E154" t="n">
+        <v>28</v>
+      </c>
+      <c r="F154" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>tell me the area within 1000 meters of the arcades in oleander?</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>tell me the area within unitN unitL of the arcade in oleander ?</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>8</v>
+      </c>
+      <c r="E155" t="n">
+        <v>8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>what is the euclidean distance to the rivers in crook, deschutes, and jefferson county</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>what be the euclidean distance to the river in crook deschutes and jefferson county</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>what areas are accessible within two miles of urban landuse in loudoun county in us</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>what area be accessible within unitN mile of urban landuse in loudoun county in u</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>19</v>
+      </c>
+      <c r="E157" t="n">
+        <v>19</v>
+      </c>
+      <c r="F157" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>what are the four fire stations within 3 minutes of travel time from a fire in san francisco</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>what be the unitN fire station within unitN unitT of travel time from a fire in san francisco</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>50</v>
+      </c>
+      <c r="E158" t="n">
+        <v>50</v>
+      </c>
+      <c r="F158" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>what is the number of elderly people for each neighborhood in amsterdam</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>what be the number of elderly people for each neighborhood in amsterdam</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>27</v>
+      </c>
+      <c r="E159" t="n">
+        <v>27</v>
+      </c>
+      <c r="F159" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>what areas in spain have a temperature in celsius greater than 0 degrees?</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>what area in spain have a temperature in celsius great than unitN degree ?</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>46</v>
+      </c>
+      <c r="E160" t="n">
+        <v>46</v>
+      </c>
+      <c r="F160" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>what areas in the cape peninsula have an annual snowfall of more than 1000 millimeters</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>what area in the cape peninsula have an annual snowfall of more than unitN unitL</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>46</v>
+      </c>
+      <c r="E161" t="n">
+        <v>46</v>
+      </c>
+      <c r="F161" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>which houses are available in utrecht?</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>which house be available in utrecht ?</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>what areas are within 1000 feet of schools in el cajon?</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitL of school in el cajon ?</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>what areas in spain have temperatures in celsius less than 0 degrees?</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>what area in spain have temperature in celsius less than unitN degree ?</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>46</v>
+      </c>
+      <c r="E164" t="n">
+        <v>46</v>
+      </c>
+      <c r="F164" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>what is the euclidean distance to green areas in amsterdam</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>what be the euclidean distance to green area in amsterdam</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>5</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>18</v>
+      </c>
+      <c r="E166" t="n">
+        <v>18</v>
+      </c>
+      <c r="F166" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>what areas have an annual rainfall of more than 1000 millimeters in the cape peninsula?</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>what area have an annual rainfall of more than unitN unitL in the cape peninsula ?</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>46</v>
+      </c>
+      <c r="E167" t="n">
+        <v>46</v>
+      </c>
+      <c r="F167" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>what weighted average coordinates of bank branches in oleander</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>what unitN average coordinate of bank branch in oleander</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>15</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15</v>
+      </c>
+      <c r="F168" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>what areas are within a mile of main roads in loudoun county in the us?</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>what area be within a mile of main road in loudoun county in the u ?</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>tell me the number of dwelling units inside the flood zones in oleander?</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>tell me the number of dwell unit inside the flood unitN in oleander ?</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>14</v>
+      </c>
+      <c r="E170" t="n">
+        <v>14</v>
+      </c>
+      <c r="F170" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>tell me the number of dwelling units in the flood zones in oleander?</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>tell me the number of dwell unit in the flood unitN in oleander ?</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>14</v>
+      </c>
+      <c r="E171" t="n">
+        <v>14</v>
+      </c>
+      <c r="F171" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>what areas are outside 150 meters from hospitals in houston</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>what area be outside unitN unitL from hospital in houston</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>which regions of cape peninsula have a monthly rainfall of more than 1000 millimeters</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>which region of cape peninsula have a monthly rainfall of more than unitN unitL</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>46</v>
+      </c>
+      <c r="E173" t="n">
+        <v>46</v>
+      </c>
+      <c r="F173" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>what areas are accessible within reach of two miles of urban land use in loudoun county in the united states?</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>what area be accessible within reach of unitN mile of urban land use in loudoun county in the united state ?</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>19</v>
+      </c>
+      <c r="E174" t="n">
+        <v>19</v>
+      </c>
+      <c r="F174" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>which proposed wind farm is the closest to the high way in scotland?</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>which propose wind farm be the closest to the high way in scotland ?</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>13</v>
+      </c>
+      <c r="E175" t="n">
+        <v>13</v>
+      </c>
+      <c r="F175" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>what houses are for sale and within 1km from the nearest subway station (from my current location) in utrecht</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>what house be for sale and within unitL from the near subway station from my current location in utrecht</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
         <v>39</v>
       </c>
-      <c r="F64" t="n">
+      <c r="E176" t="n">
         <v>39</v>
+      </c>
+      <c r="F176" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>what areas are within two miles of urban land use in loudoun county in the united states</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>what area be within unitN mile of urban land use in loudoun county in the united state</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>19</v>
+      </c>
+      <c r="E177" t="n">
+        <v>19</v>
+      </c>
+      <c r="F177" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>what areas are within a mile of main roads in loudoun county in the united states of america</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>what area be within a mile of main road in loudoun county in the united state of america</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>what areas are within 1000 meters of the major transport routes in amsterdam</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitL of the major transport route in amsterdam</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>8</v>
+      </c>
+      <c r="E179" t="n">
+        <v>8</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>tell me the euclidean distance to the rivers in crook deschutes and jefferson county</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>tell me the euclidean distance to the river in crook deschutes and jefferson county</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>what areas in spain have a slope of more than 10 percent?</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>what area in spain have a slope of more than unitN percent ?</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>44</v>
+      </c>
+      <c r="E181" t="n">
+        <v>44</v>
+      </c>
+      <c r="F181" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>what areas are not green belts in houston?</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>what area be not green belt in houston ?</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>6</v>
+      </c>
+      <c r="F182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>what is the median age for each census tract in tarrant county in texas?</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>what be the median age for each census tract in tarrant county in texas ?</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>28</v>
+      </c>
+      <c r="E183" t="n">
+        <v>28</v>
+      </c>
+      <c r="F183" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>what areas in spain have altitudes between 700 and 2000 meters?</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>what area in spain have altitude between unitN and unitN unitL ?</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>44</v>
+      </c>
+      <c r="E184" t="n">
+        <v>44</v>
+      </c>
+      <c r="F184" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>what areas are within a quarter mile of light rail stop in gresham</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>what area be within a quarter mile of light rail stop in gresham</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>8</v>
+      </c>
+      <c r="E185" t="n">
+        <v>8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>where are the rocky areas of spain</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>where be the rocky area of spain</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>18</v>
+      </c>
+      <c r="E186" t="n">
+        <v>18</v>
+      </c>
+      <c r="F186" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>what areas have an altitude between 700 and 2000 meters in spain?</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>what area have an altitude between unitN and unitN unitL in spain ?</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>44</v>
+      </c>
+      <c r="E187" t="n">
+        <v>44</v>
+      </c>
+      <c r="F187" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>what areas have an annual amount of snowfall more than 1000 millimeters in the cape peninsula</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>what area have an annual amount of snowfall more than unitN unitL in the cape peninsula</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>46</v>
+      </c>
+      <c r="E188" t="n">
+        <v>46</v>
+      </c>
+      <c r="F188" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>what is the number of hispanics for each census block in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>what be the number of hispanic for each census block in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>27</v>
+      </c>
+      <c r="E189" t="n">
+        <v>27</v>
+      </c>
+      <c r="F189" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>in texas where are auto accidents occurring in tarrant county</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>in texas where be auto accident occur in tarrant county</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>what are the land use inside the flood zones in oleander</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>what be the land use inside the flood unitN in oleander</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>14</v>
+      </c>
+      <c r="E191" t="n">
+        <v>14</v>
+      </c>
+      <c r="F191" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>which proposed wind farm is closest to the high way in scotland?</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>which propose wind farm be closest to the high way in scotland ?</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>13</v>
+      </c>
+      <c r="E192" t="n">
+        <v>13</v>
+      </c>
+      <c r="F192" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>what areas are not green belt areas in houston</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>what area be not green belt area in houston</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>6</v>
+      </c>
+      <c r="E193" t="n">
+        <v>6</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>what houses are for sale in utrecht's urban areas</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>what house be for sale in utrecht 's urban area</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>14</v>
+      </c>
+      <c r="E194" t="n">
+        <v>14</v>
+      </c>
+      <c r="F194" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>what weighted average coordinates of bank branches in oleander?</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>what unitN average coordinate of bank branch in oleander ?</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>15</v>
+      </c>
+      <c r="E195" t="n">
+        <v>15</v>
+      </c>
+      <c r="F195" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>where are not protected region in assam in india</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>where be not protect region in assam in india</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>18</v>
+      </c>
+      <c r="E196" t="n">
+        <v>18</v>
+      </c>
+      <c r="F196" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>which schools are not within 3 minutes of driving time of a fire station in fort worth?</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>which school be not within unitN unitT of drive time of a fire station in fort worth ?</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>50</v>
+      </c>
+      <c r="E197" t="n">
+        <v>50</v>
+      </c>
+      <c r="F197" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>how many luxury hotels are in happy valley ski resort</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>how many luxury hotel be in happy valley ski resort</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>tell me the euclidean distance from hospitals in oleander?</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>tell me the euclidean distance from hospital in oleander ?</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>which schools are not accessible in 3 minutes by car from a fire station in fort worth?</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>which school be not accessible in unitN unitT by car from a fire station in fort worth ?</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>50</v>
+      </c>
+      <c r="E200" t="n">
+        <v>50</v>
+      </c>
+      <c r="F200" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>what areas are outside 250 meters of human settlement in the cape peninsula</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>what area be outside unitN unitL of human settlement in the cape peninsula</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>8</v>
+      </c>
+      <c r="E201" t="n">
+        <v>8</v>
+      </c>
+      <c r="F201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>what houses are less than 30 square meters in urban areas in utrecht</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>what house be less than unitN square unitL in urban area in utrecht</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>14</v>
+      </c>
+      <c r="E202" t="n">
+        <v>14</v>
+      </c>
+      <c r="F202" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>what areas in the cape peninsula have an annual snowfall of more than 1000 millimeters?</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>what area in the cape peninsula have an annual snowfall of more than unitN unitL ?</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>46</v>
+      </c>
+      <c r="E203" t="n">
+        <v>46</v>
+      </c>
+      <c r="F203" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>what is the number of high school students for each senior high school district in oleander?</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>what be the number of high school student for each senior high school district in oleander ?</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>27</v>
+      </c>
+      <c r="E204" t="n">
+        <v>27</v>
+      </c>
+      <c r="F204" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>what areas are within a quarter mile of a restaurant in gresham</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>what area be within a quarter mile of a restaurant in gresham</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>8</v>
+      </c>
+      <c r="E205" t="n">
+        <v>8</v>
+      </c>
+      <c r="F205" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>tell me the euclidean distance from recreational sites in utrecht?</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>tell me the euclidean distance from recreational site in utrecht ?</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>5</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5</v>
+      </c>
+      <c r="F206" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>tell me the euclidean distance to the rivers in crook deschutes and jefferson counties?</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>tell me the euclidean distance to the river in crook deschutes and jefferson county ?</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>5</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5</v>
+      </c>
+      <c r="F207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>what is the total population for each census block in tarrant county, texas</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>what be the total population for each census block in tarrant county texas</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>2</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>what houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in utrecht</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>what house be large than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>39</v>
+      </c>
+      <c r="E209" t="n">
+        <v>39</v>
+      </c>
+      <c r="F209" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>what are weighted average coordinates of bank branches in oleander?</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>what be unitN average coordinate of bank branch in oleander ?</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>15</v>
+      </c>
+      <c r="E210" t="n">
+        <v>15</v>
+      </c>
+      <c r="F210" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>which schools are not reachable within 3 minutes of driving time from a fire station in fort worth</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>which school be not reachable within unitN unitT of drive time from a fire station in fort worth</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>50</v>
+      </c>
+      <c r="E211" t="n">
+        <v>50</v>
+      </c>
+      <c r="F211" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>what areas in houston are not wetlands?</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>what area in houston be not wetland ?</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>what areas are accessible within two miles of urban land use in loudoun county in the united states?</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>what area be accessible within unitN mile of urban land use in loudoun county in the united state ?</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>19</v>
+      </c>
+      <c r="E213" t="n">
+        <v>19</v>
+      </c>
+      <c r="F213" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>where are fire stations in utrecht?</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>where be fire station in utrecht ?</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>18</v>
+      </c>
+      <c r="E214" t="n">
+        <v>18</v>
+      </c>
+      <c r="F214" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>which houses are for sale in urban areas in utrecht</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>which house be for sale in urban area in utrecht</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>14</v>
+      </c>
+      <c r="E215" t="n">
+        <v>14</v>
+      </c>
+      <c r="F215" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>which liquor stores are within 1000 feet of libraries in el cajon</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>which liquor store be within unitN unitL of library in el cajon</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>21</v>
+      </c>
+      <c r="E216" t="n">
+        <v>21</v>
+      </c>
+      <c r="F216" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>what is california's population density?</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>what be california 's population density ?</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>33</v>
+      </c>
+      <c r="E217" t="n">
+        <v>33</v>
+      </c>
+      <c r="F217" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>what is the median household income for each census block in tarrant county texas?</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>what be the median household income for each census block in tarrant county texas ?</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>28</v>
+      </c>
+      <c r="E218" t="n">
+        <v>28</v>
+      </c>
+      <c r="F218" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>what's the number of households for each precinct in dallas county?</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>what 's the number of household for each precinct in dallas county ?</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>27</v>
+      </c>
+      <c r="E219" t="n">
+        <v>27</v>
+      </c>
+      <c r="F219" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>what areas are outside 60 meters from residence in houston</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>what area be outside unitN unitL from residence in houston</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>8</v>
+      </c>
+      <c r="E220" t="n">
+        <v>8</v>
+      </c>
+      <c r="F220" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>which vacant lot is within 1 mile of a freeway in hillsboro?</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>which vacant lot be within unitN mile of a freeway in hillsboro ?</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>21</v>
+      </c>
+      <c r="E221" t="n">
+        <v>21</v>
+      </c>
+      <c r="F221" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>where are auto accidents in tarrant county in texas?</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>where be auto accident in tarrant county in texas ?</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>what areas have a slope larger than 15 percent and smaller than 60 percent in the cape peninsula?</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>what area have a slope large than unitN percent and small than unitN percent in the cape peninsula ?</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>44</v>
+      </c>
+      <c r="E223" t="n">
+        <v>44</v>
+      </c>
+      <c r="F223" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>which areas have a monthly rainfall of more than 1000 millimeters in the cape peninsula?</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>which area have a monthly rainfall of more than unitN unitL in the cape peninsula ?</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>46</v>
+      </c>
+      <c r="E224" t="n">
+        <v>46</v>
+      </c>
+      <c r="F224" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>what areas are within 2000 meters of the playgrounds in oleander?</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitL of the playground in oleander ?</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>8</v>
+      </c>
+      <c r="E225" t="n">
+        <v>8</v>
+      </c>
+      <c r="F225" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>tell me the density of kernels in traffic accidents in pasadena california</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>tell me the density of kernel in traffic accident in pasadena california</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>5</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5</v>
+      </c>
+      <c r="F226" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>where are the accidents on the slopes in the happy valley?</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>where be the accident on the slope in the happy valley ?</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>14</v>
+      </c>
+      <c r="E227" t="n">
+        <v>14</v>
+      </c>
+      <c r="F227" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>what areas do have slope larger than 10 percent in spain</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>what area do have slope large than unitN percent in spain</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>44</v>
+      </c>
+      <c r="E228" t="n">
+        <v>44</v>
+      </c>
+      <c r="F228" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>which proposed wind farm is closest to the high road in scotland?</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>which propose wind farm be closest to the high road in scotland ?</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>13</v>
+      </c>
+      <c r="E229" t="n">
+        <v>13</v>
+      </c>
+      <c r="F229" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>what areas are within 3 minutes of driving time from the nearest fire station (from my current location) in oleander</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitT of drive time from the near fire station from my current location in oleander</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>53</v>
+      </c>
+      <c r="E230" t="n">
+        <v>53</v>
+      </c>
+      <c r="F230" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>what houses are larger than 30 square meters in urban areas in utrecht</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>what house be large than unitN square unitL in urban area in utrecht</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>14</v>
+      </c>
+      <c r="E231" t="n">
+        <v>14</v>
+      </c>
+      <c r="F231" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>where are the accidents on the ski pistes in the happy valley</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>where be the accident on the ski piste in the happy valley</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>14</v>
+      </c>
+      <c r="E232" t="n">
+        <v>14</v>
+      </c>
+      <c r="F232" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>what is the weighted coordinate average of library patrons for each district in oleander?</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>what be the unitN coordinate average of library patron for each district in oleander ?</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>16</v>
+      </c>
+      <c r="E233" t="n">
+        <v>16</v>
+      </c>
+      <c r="F233" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>how much distance is there between schools in utrecht</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>how much distance be there between school in utrecht</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>5</v>
+      </c>
+      <c r="E234" t="n">
+        <v>5</v>
+      </c>
+      <c r="F234" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>what regions of cape peninsula have a monthly rainfall of more than 1000 millimeters?</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>what region of cape peninsula have a monthly rainfall of more than unitN unitL ?</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>46</v>
+      </c>
+      <c r="E235" t="n">
+        <v>46</v>
+      </c>
+      <c r="F235" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>what areas have a population density less than 300 per square kilometer in the uk?</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>what area have a population density less than unitN per square unitL in the uk ?</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>33</v>
+      </c>
+      <c r="E236" t="n">
+        <v>33</v>
+      </c>
+      <c r="F236" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>what's the number of dwelling units in the flood zones in oleander?</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>what 's the number of dwell unit in the flood unitN in oleander ?</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>14</v>
+      </c>
+      <c r="E237" t="n">
+        <v>14</v>
+      </c>
+      <c r="F237" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>what's the number of high school students for each senior high school district in oleander?</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>what 's the number of high school student for each senior high school district in oleander ?</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>27</v>
+      </c>
+      <c r="E238" t="n">
+        <v>27</v>
+      </c>
+      <c r="F238" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>which areas are reachable within 3 minutes by car from the nearest fire station from my current location in oleander?</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>which area be reachable within unitN unitT by car from the near fire station from my current location in oleander ?</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>53</v>
+      </c>
+      <c r="E239" t="n">
+        <v>53</v>
+      </c>
+      <c r="F239" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>tell me the euclidean distance to subway stations in amsterdam</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>tell me the euclidean distance to subway station in amsterdam</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>5</v>
+      </c>
+      <c r="E240" t="n">
+        <v>5</v>
+      </c>
+      <c r="F240" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>what areas in spain have temperatures below 0 degrees?</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>what area in spain have temperature below unitN degree ?</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>46</v>
+      </c>
+      <c r="E241" t="n">
+        <v>46</v>
+      </c>
+      <c r="F241" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>is there a percentage of people over 65 in each pc4 area in amsterdam?</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>be there a percentage of people over unitN in each pc4 area in amsterdam ?</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>2</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>which vacant lots are within 1 mile of a freeway in hillsboro</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>which vacant lot be within unitN mile of a freeway in hillsboro</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>21</v>
+      </c>
+      <c r="E243" t="n">
+        <v>21</v>
+      </c>
+      <c r="F243" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>what is the number of hispanics for each census block in tarrant county texas?</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>what be the number of hispanic for each census block in tarrant county texas ?</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>27</v>
+      </c>
+      <c r="E244" t="n">
+        <v>27</v>
+      </c>
+      <c r="F244" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/textToOps/data/processed/prediction_vs_actual.xlsx
+++ b/textToOps/data/processed/prediction_vs_actual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,88 +462,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>which areas are within 20 minutes driving time from flower stores in oleander?</t>
+          <t>what areas in the cape peninsula have an annual snowfall of more than 1000 millimeters</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>which area be within unitN unitT drive time from flower store in oleander ?</t>
+          <t>what area in the cape peninsula have an annual snowfall of more than unitN unitL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>521</v>
+        <v>418</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>what areas in spain have a temperature greater than 0 degrees in celsius?</t>
+          <t>which vacant lot is within 1 mile of a freeway in hillsboro?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>what area in spain have a temperature great than unitN degree in celsius ?</t>
+          <t>which vacant lot be within unitN mile of a freeway in hillsboro ?</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>540</v>
+        <v>65</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>which schools are not accessible within 3 minutes of driving time from a fire station in fort worth?</t>
+          <t>what areas are outside 3000 meters of the rivers in spain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>which school be not accessible within unitN unitT of drive time from a fire station in fort worth ?</t>
+          <t>what area be outside unitN unitL of the river in spain</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>285</v>
+        <v>59</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>what areas are within a mile of main roads in loudoun county in the united states?</t>
+          <t>what areas are within 2000 meters of the playgrounds in oleander</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>what area be within a mile of main road in loudoun county in the united state ?</t>
+          <t>what area be within unitN unitL of the playground in oleander</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -558,112 +558,112 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>316</v>
+        <v>415</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>what houses are for sale in the flood zone in utrecht</t>
+          <t>what liquor stores are within 1000 feet of schools in el cajon?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>what house be for sale in the flood unitN in utrecht</t>
+          <t>what liquor store be within unitN unitL of school in el cajon ?</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>which suggested wind farm are nearest to the high way in scotland</t>
+          <t>where are the accidents within ski pistes in the happy valley</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>which suggest wind farm be near to the high way in scotland</t>
+          <t>where be the accident within ski piste in the happy valley</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>346</v>
+        <v>499</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tell me the weighted average coordinates of the bank branches in oleander</t>
+          <t>which areas have an annual snowfall of more than 1000 millimeters in the cape peninsula?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>tell me the unitN average coordinate of the bank branch in oleander</t>
+          <t>which area have an annual snowfall of more than unitN unitL in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>432</v>
+        <v>280</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>is there a number of elderly people for each neighborhood in amsterdam?</t>
+          <t>which areas are within 2000 meters of the playgrounds in oleander?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>be there a number of elderly people for each neighborhood in amsterdam ?</t>
+          <t>which area be within unitN unitL of the playground in oleander ?</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>where are the accidents on the pistes in happy valley?</t>
+          <t>what's the number of dwelling units in the flood zones in oleander?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>where be the accident on the piste in happy valley ?</t>
+          <t>what 's the number of dwell unit in the flood unitN in oleander ?</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -678,112 +678,112 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>which wind farm proposals are closest to the high road in scotland?</t>
+          <t>what weighted average coordinates of bank branches in oleander</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>which wind farm proposal be closest to the high road in scotland ?</t>
+          <t>what unitN average coordinate of bank branch in oleander</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>149</v>
+        <v>512</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>what is the point density of trees in parks in oleander</t>
+          <t>what regions of cape peninsula have a monthly rainfall of more than 1000 millimeters</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>what be the point density of tree in park in oleander</t>
+          <t>what region of cape peninsula have a monthly rainfall of more than unitN unitL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>393</v>
+        <v>29</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>what areas are accessible within two miles of urban land use in loudoun county in the us?</t>
+          <t>what is the euclidean distance to recreational sites in utrecht</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>what area be accessible within unitN mile of urban land use in loudoun county in the u ?</t>
+          <t>what be the euclidean distance to recreational site in utrecht</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>95</v>
+        <v>416</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>what is the central feature of fire station in fort worth</t>
+          <t>which vacant lots in hillsboro are within 1 mile of a freeway?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>what be the central feature of fire station in fort worth</t>
+          <t>which vacant lot in hillsboro be within unitN mile of a freeway ?</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>which areas are within a mile of main roads in loudoun county in the united states?</t>
+          <t>which areas are within 1000 meters of the major transport routes in amsterdam?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>which area be within a mile of main road in loudoun county in the united state ?</t>
+          <t>which area be within unitN unitL of the major transport route in amsterdam ?</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -798,136 +798,136 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>358</v>
+        <v>129</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tell me the central feature of the bank branches in oleander</t>
+          <t>what is the number of crime cases for each police district in texas in 2018</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>tell me the central feature of the bank branch in oleander</t>
+          <t>what be the number of crime case for each police district in texas in unitN</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to the subway stations in amsterdam?</t>
+          <t>what is the proportion of people over 65 for each pc4 area in amsterdam?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to the subway station in amsterdam ?</t>
+          <t>what be the proportion of people over unitN for each pc4 area in amsterdam ?</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 feet of el cajon parks</t>
+          <t>what is the weighted coordinate average of library patrons for each district in oleander?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>what liquor store be within unitN unitL of el cajon park</t>
+          <t>what be the unitN coordinate average of library patron for each district in oleander ?</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>254</v>
+        <v>405</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>what areas in houston are not classified as flood plains?</t>
+          <t>which liquor stores are within 1000 feet of libraries in el cajon</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>what area in houston be not classify a flood plain ?</t>
+          <t>which liquor store be within unitN unitL of library in el cajon</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>453</v>
+        <v>554</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>what is the median household income for each census block in tarrant county in texas?</t>
+          <t>which houses are within 3 minutes of the nearest fire station from my current location in oleander?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>what be the median household income for each census block in tarrant county in texas ?</t>
+          <t>which house be within unitN unitT of the near fire station from my current location in oleander ?</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F20" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>which regions of cape peninsula have an annual rainfall of more than 1000 millimeters</t>
+          <t>what regions of cape peninsula have an annual rainfall of more than 1000 millimeters</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>which region of cape peninsula have an annual rainfall of more than unitN unitL</t>
+          <t>what region of cape peninsula have an annual rainfall of more than unitN unitL</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -942,88 +942,88 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>which houses are available for sale in utrecht?</t>
+          <t>which visitor facilities are in happy valley?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>which house be available for sale in utrecht ?</t>
+          <t>which visitor facility be in happy valley ?</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>423</v>
+        <v>100</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>list the number of electoral votes for each precinct in dallas?</t>
+          <t>calculate the weighted coordinate average of library patrons for each district in oleander</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>list the number of electoral vote for each precinct in dallas ?</t>
+          <t>calculate the unitN coordinate average of library patron for each district in oleander</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>51</v>
+        <v>449</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>what areas are at least 3000 meters from the rivers in spain</t>
+          <t>tell me the median household income for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>what area be at least unitN unitL from the river in spain</t>
+          <t>tell me the median household income for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>444</v>
+        <v>138</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>show me the median age for each census tract in tarrant county texas</t>
+          <t>what is the average rating of street pavement for each borough in new york city</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>show me the median age for each census tract in tarrant county texas</t>
+          <t>what be the average rating of street pavement for each borough in new york city</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1033,93 +1033,93 @@
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>518</v>
+        <v>178</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>what areas have a monthly rainfall of more than 1000 millimeters in the cape peninsula</t>
+          <t>which schools are not within 3 minutes of driving time from a fire station in fort worth</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>what area have a monthly rainfall of more than unitN unitL in the cape peninsula</t>
+          <t>which school be not within unitN unitT of drive time from a fire station in fort worth</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>68</v>
+        <v>432</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>what areas are within 1000 meters of roads in assam in india</t>
+          <t>is there a number of elderly people for each neighborhood in amsterdam?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of road in assam in india</t>
+          <t>be there a number of elderly people for each neighborhood in amsterdam ?</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>386</v>
+        <v>543</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>where the uk has no conservation areas?</t>
+          <t>list the number of buildings within 3 minutes of driving time from fire stations in oleander?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>where the uk have no conservation area ?</t>
+          <t>list the number of building within unitN unitT of drive time from fire station in oleander ?</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>where are the auto accidents in texas tarrant county?</t>
+          <t>where are auto accidents in tarrant county in texas?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>where be the auto accident in texas tarrant county ?</t>
+          <t>where be auto accident in tarrant county in texas ?</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1134,16 +1134,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>which houses are to be sold in utrecht?</t>
+          <t>what's the number of cases of arson in fort worth in february 2004?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>which house be to be sell in utrecht ?</t>
+          <t>what 's the number of case of arson in fort worth in montInYe unitN ?</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1153,117 +1153,117 @@
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>208</v>
+        <v>493</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>what is the total population for each census block in tarrant county texas?</t>
+          <t>what areas in spain have temperatures in celsius less than 0 degrees?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>what be the total population for each census block in tarrant county texas ?</t>
+          <t>what area in spain have temperature in celsius less than unitN degree ?</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>what is the number of election votes for each precinct in dallas</t>
+          <t>what areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in oleander</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>what be the number of election vote for each precinct in dallas</t>
+          <t>what area be outside unitN unitT of drive time from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E32" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F32" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>where are the commercial areas in amsterdam</t>
+          <t>which areas are within a mile of main roads in loudoun county in the us?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>where be the commercial area in amsterdam</t>
+          <t>which area be within a mile of main road in loudoun county in the u ?</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>what is the average rating of street pavement for each borough in new york city</t>
+          <t>what areas are not green belt areas in houston</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>what be the average rating of street pavement for each borough in new york city</t>
+          <t>what area be not green belt area in houston</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>what areas in spain have a temperature below 0 degrees celsius?</t>
+          <t>what areas have a monthly rainfall of more than 1000 millimeters in the cape peninsula</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>what area in spain have a temperature below unitN degree celsius ?</t>
+          <t>what area have a monthly rainfall of more than unitN unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1278,136 +1278,136 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>501</v>
+        <v>343</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>which areas have an annual snowfall more than 1000 millimeters in the cape peninsula?</t>
+          <t>which houses are for sale in urban areas in utrecht</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>which area have an annual snowfall more than unitN unitL in the cape peninsula ?</t>
+          <t>which house be for sale in urban area in utrecht</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F36" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>74</v>
+        <v>366</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>what is the hot spot of house vacancy rate in usa in 2019</t>
+          <t>where are the rocky areas of spain</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>what be the hot spot of house vacancy rate in usa in unitN</t>
+          <t>where be the rocky area of spain</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>what's the number of hispanics for each census block in tarrant county texas?</t>
+          <t>show me the median age for each census tract in tarrant county in texas</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>what 's the number of hispanic for each census block in tarrant county texas ?</t>
+          <t>show me the median age for each census tract in tarrant county in texas</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>157</v>
+        <v>319</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>what houses are for sale and within 1km from the nearest school (from my current location) in utrecht</t>
+          <t>where are the accidents on the slopes in the happy valley?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the near school from my current location in utrecht</t>
+          <t>where be the accident on the slope in the happy valley ?</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E39" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>532</v>
+        <v>395</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>which areas in the cape peninsula have an annual rainfall of more than 1000 millimeters?</t>
+          <t>what areas are accessible within reach of two miles of urban land use in loudoun county in the united states?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>which area in the cape peninsula have an annual rainfall of more than unitN unitL ?</t>
+          <t>what area be accessible within reach of unitN mile of urban land use in loudoun county in the united state ?</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E40" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>what is the mean center of customers weighted by the number of transactions in oleander city</t>
+          <t>tell me the euclidean distance to subway stations in amsterdam</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>what be the mean center of customer unitN by the number of transaction in oleander city</t>
+          <t>tell me the euclidean distance to subway station in amsterdam</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1422,160 +1422,160 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>183</v>
+        <v>476</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>which houses are within 3 minutes driving time from the nearest fire station (from my current location) in oleander</t>
+          <t>which areas are within 20 minutes driving time from flower stores in oleander?</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>which house be within unitN unitT drive time from the near fire station from my current location in oleander</t>
+          <t>which area be within unitN unitT drive time from flower store in oleander ?</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E42" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F42" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>451</v>
+        <v>46</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>what's the median household income for each census block in tarrant county texas?</t>
+          <t>what areas are outside 150 meters from hospitals in houston</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>what 's the median household income for each census block in tarrant county texas ?</t>
+          <t>what area be outside unitN unitL from hospital in houston</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>calculate the weighted average of library patrons for each district in oleander</t>
+          <t>where are the accidents on the ski pistes in the happy valley</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>calculate the unitN average of library patron for each district in oleander</t>
+          <t>where be the accident on the ski piste in the happy valley</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>461</v>
+        <v>326</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>what areas in the uk have a population density less than 300 per square kilometer?</t>
+          <t>tell me the number of dwelling units in the flood zones in oleander?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>what area in the uk have a population density less than unitN per square unitL ?</t>
+          <t>tell me the number of dwell unit in the flood unitN in oleander ?</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E45" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F45" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>what areas in houston are not green belt areas?</t>
+          <t>what is the euclidean distance to green areas in amsterdam</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>what area in houston be not green belt area ?</t>
+          <t>what be the euclidean distance to green area in amsterdam</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>377</v>
+        <v>511</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>where are hispanic food stores in tarrant county in texas?</t>
+          <t>what regions of cape peninsula have a monthly rainfall of more than 1000 millimeters?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>where be hispanic food store in tarrant county in texas ?</t>
+          <t>what region of cape peninsula have a monthly rainfall of more than unitN unitL ?</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F47" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>what's the number of cases of arson in fort worth in february 2004?</t>
+          <t>what is the cervix cancer mortality rate of white females for each city in the western usa from 1970 to 1994</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>what 's the number of case of arson in fort worth in montInYe unitN ?</t>
+          <t>what be the cervix cancer mortality rate of white female for each city in the western usa from unitN to unitN</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1590,136 +1590,136 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>256</v>
+        <v>390</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>what areas are not classified as flood plains in houston?</t>
+          <t>which areas are accessible within two miles of urban land use in loudoun county in the united states?</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>what area be not classify a flood plain in houston ?</t>
+          <t>which area be accessible within unitN mile of urban land use in loudoun county in the united state ?</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F49" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>89</v>
+        <v>488</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>how many streetlights for each district in san diego</t>
+          <t>what areas in spain have altitudes between 700 and 2000 meters?</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>how many streetlight for each district in san diego</t>
+          <t>what area in spain have altitude between unitN and unitN unitL ?</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F50" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>541</v>
+        <v>146</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tell me the number of buildings within 3 minutes of driving time from the fire stations in oleander?</t>
+          <t>what is the mean center of accidents weighted by priority for each alarm territories in fort worth</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>tell me the number of building within unitN unitT of drive time from the fire station in oleander ?</t>
+          <t>what be the mean center of accident unitN by priority for each alarm territory in fort worth</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E51" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>what areas have an aspect larger than 45 degree and smaller than 135 degrees in the cape peninsula</t>
+          <t>what areas are not park in houston</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>what area have an aspect large than unitN degree and small than unitN degree in the cape peninsula</t>
+          <t>what area be not park in houston</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>what areas are not wetlands in houston</t>
+          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>what area be not wetland in houston</t>
+          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>287</v>
+        <v>54</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>which areas are within a mile of main roads in loudoun county in the us?</t>
+          <t>what areas are within 500 meters from religious places in karbala in iraq</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>which area be within a mile of main road in loudoun county in the u ?</t>
+          <t>what area be within unitN unitL from religious place in karbala in iraq</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1734,256 +1734,256 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>100</v>
+        <v>407</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>calculate the weighted coordinate average of library patrons for each district in oleander</t>
+          <t>what liquor stores are within 1000 feet of el cajon parks</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>calculate the unitN coordinate average of library patron for each district in oleander</t>
+          <t>what liquor store be within unitN unitL of el cajon park</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E55" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F55" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>153</v>
+        <v>358</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>what houses are for sale and within 1km from the nearest supermarket (from my current location) in utrecht</t>
+          <t>tell me the central feature of the bank branches in oleander</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the near supermarket from my current location in utrecht</t>
+          <t>tell me the central feature of the bank branch in oleander</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 feet of schools in el cajon?</t>
+          <t>tell me the population density in california? why?</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>what liquor store be within unitN unitL of school in el cajon ?</t>
+          <t>tell me the population density in california ? why ?</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E57" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F57" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>282</v>
+        <v>458</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>which areas are within 500 meters of universities in karbala in iraq?</t>
+          <t>what is the point density of cycling destinations in the metro vancouver region of canada?</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>which area be within unitN unitL of university in karbala in iraq ?</t>
+          <t>what be the point density of cycling destination in the metro vancouver region of canada ?</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>121</v>
+        <v>485</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>what areas are within two miles of urban landuse in loudoun county in us</t>
+          <t>what areas in spain have a slope of more than 10 percent?</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>what area be within unitN mile of urban landuse in loudoun county in u</t>
+          <t>what area in spain have a slope of more than unitN percent ?</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E59" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F59" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>481</v>
+        <v>142</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>what areas have a slope greater than 15 percent and smaller than 60 percent in the cape peninsula?</t>
+          <t>what is the median household income for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>what area have a slope great than unitN percent and small than unitN percent in the cape peninsula ?</t>
+          <t>what be the median household income for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E60" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F60" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>185</v>
+        <v>465</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>what areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in oleander</t>
+          <t>what is california's population density?</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitT of drive time from the near fire station from my current location in oleander</t>
+          <t>what be california 's population density ?</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E61" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F61" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>276</v>
+        <v>114</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>which areas are within 100 meters of hospitals in oleander?</t>
+          <t>where are not protected region in assam in india</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>which area be within unitN unitL of hospital in oleander ?</t>
+          <t>where be not protect region in assam in india</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F62" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>116</v>
+        <v>438</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>where are not conservation areas in uk</t>
+          <t>what's the median population for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>where be not conservation area in uk</t>
+          <t>what 's the median population for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E63" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F63" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>146</v>
+        <v>542</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>what is the mean center of accidents weighted by priority for each alarm territories in fort worth</t>
+          <t>tell me the number of buildings within 3 minutes of driving time from fire stations in oleander?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>what be the mean center of accident unitN by priority for each alarm territory in fort worth</t>
+          <t>tell me the number of building within unitN unitT of drive time from fire station in oleander ?</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E64" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F64" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>what area are within 50 km from family physician services in saskatchewan in canada</t>
+          <t>what areas are within 1000 meters of the schools in oleander</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL from family physician service in saskatchewan in canada</t>
+          <t>what area be within unitN unitL of the school in oleander</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1998,122 +1998,122 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>445</v>
+        <v>540</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>show me the median age for each census tract in tarrant county in texas</t>
+          <t>which schools are not accessible within 3 minutes of driving time from a fire station in fort worth?</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>show me the median age for each census tract in tarrant county in texas</t>
+          <t>which school be not accessible within unitN unitT of drive time from a fire station in fort worth ?</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E66" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F66" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>466</v>
+        <v>391</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>tell me the population density in california? why?</t>
+          <t>what areas are accessible within two miles of urban land use in loudoun county in the united states?</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>tell me the population density in california ? why ?</t>
+          <t>what area be accessible within unitN mile of urban land use in loudoun county in the united state ?</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E67" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F67" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>where are the hispanic food stores in tarrant county texas?</t>
+          <t>what is the number of dwelling units inside the flood zones in oleander?</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>where be the hispanic food store in tarrant county texas ?</t>
+          <t>what be the number of dwell unit inside the flood unitN in oleander ?</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E68" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F68" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>63</v>
+        <v>403</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>what areas are within 1000 meters of the schools in oleander</t>
+          <t>what areas are within two miles of urban land use in loudoun county in the us?</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the school in oleander</t>
+          <t>what area be within unitN mile of urban land use in loudoun county in the u ?</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F69" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>457</v>
+        <v>363</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>what density of fire calls in oleander?</t>
+          <t>list the weighted average of library patrons for each district in oleander?</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>what density of fire call in oleander ?</t>
+          <t>list the unitN average of library patron for each district in oleander ?</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E70" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F70" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
@@ -2142,64 +2142,64 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>307</v>
+        <v>489</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>which wind farm proposals in scotland are closest to the high way?</t>
+          <t>what areas have an altitude between 700 and 2000 meters in spain?</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>which wind farm proposal in scotland be closest to the high way ?</t>
+          <t>what area have an altitude between unitN and unitN unitL in spain ?</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E72" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F72" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>55</v>
+        <v>346</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>what areas are within 100 meters of cameras in salford</t>
+          <t>tell me the weighted average coordinates of the bank branches in oleander</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of camera in salford</t>
+          <t>tell me the unitN average coordinate of the bank branch in oleander</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F73" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>what areas have an annual amount of more than 1000 millimeters of snowfall in the cape peninsula?</t>
+          <t>what areas in spain have a temperature below 0 degrees celsius?</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>what area have an annual amount of more than unitN unitL of snowfall in the cape peninsula ?</t>
+          <t>what area in spain have a temperature below unitN degree celsius ?</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2214,40 +2214,40 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>list the weighted average of library patrons for each district in oleander?</t>
+          <t>what houses are for sale in the flood zone in utrecht</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>list the unitN average of library patron for each district in oleander ?</t>
+          <t>what house be for sale in the flood unitN in utrecht</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F75" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>where are the hispanic food stores in tarrant county in texas</t>
+          <t>what are the vegetation areas larger than 6000 square meters in the cape peninsula</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>where be the hispanic food store in tarrant county in texas</t>
+          <t>what be the vegetation area large than unitN square unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2262,935 +2262,935 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>what houses are for sale and within 0.5km from the main roads in utrecht</t>
+          <t>tell me the euclidean distance from hospitals in oleander?</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the main road in utrecht</t>
+          <t>tell me the euclidean distance from hospital in oleander ?</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>which areas are not green belt areas in houston?</t>
+          <t>how many buildings are within 3 minutes of driving time from fire stations in oleander</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>which area be not green belt area in houston ?</t>
+          <t>how many building be within unitN unitT of drive time from fire station in oleander</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F78" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>449</v>
+        <v>118</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>tell me the median household income for each census block in tarrant county texas?</t>
+          <t>what areas are accessible within two miles of urban landuse in loudoun county in us</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>tell me the median household income for each census block in tarrant county texas ?</t>
+          <t>what area be accessible within unitN mile of urban landuse in loudoun county in u</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E79" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F79" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>522</v>
+        <v>381</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>what areas in spain have a temperature in celsius greater than 0 degrees</t>
+          <t>where are the fire stations in utrecht?</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>what area in spain have a temperature in celsius great than unitN degree</t>
+          <t>where be the fire station in utrecht ?</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E80" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F80" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>what areas are within 20 minutes driving time from flower stores in oleander</t>
+          <t>which houses are available for sale in utrecht?</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>what area be within unitN unitT drive time from flower store in oleander</t>
+          <t>which house be available for sale in utrecht ?</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>what are the vote totals of an election for each precinct in dallas?</t>
+          <t>what areas are within a mile of main roads in loudoun county in the united states</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>what be the vote total of an election for each precinct in dallas ?</t>
+          <t>what area be within a mile of main road in loudoun county in the united state</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>what are the two fire stations closest to each school in utrecht</t>
+          <t>what is the kernel density of crime in surrey in the uk?</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>what be the unitN fire station closest to each school in utrecht</t>
+          <t>what be the kernel density of crime in surrey in the uk ?</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>what areas are green belt areas in houston</t>
+          <t>which houses are for sale in utrecht flood zone?</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>what area be green belt area in houston</t>
+          <t>which house be for sale in utrecht flood unitN ?</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F84" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>373</v>
+        <v>522</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>which park is the largest in utrecht?</t>
+          <t>what areas in spain have a temperature in celsius greater than 0 degrees</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>which park be the large in utrecht ?</t>
+          <t>what area in spain have a temperature in celsius great than unitN degree</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E85" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F85" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>334</v>
+        <v>156</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>what houses are available for sale outside the flood zone in utrecht?</t>
+          <t>what houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in utrecht</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>what house be available for sale outside the flood unitN in utrecht ?</t>
+          <t>what house be large than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E86" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F86" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>what areas do have population density less than 300 per square kilometer in uk</t>
+          <t>what areas are not conatined as green belt areas in houston</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>what area do have population density less than unitN per square unitL in uk</t>
+          <t>what area be not conatined a green belt area in houston</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>54</v>
+        <v>462</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>what areas are within 500 meters from religious places in karbala in iraq</t>
+          <t>which areas have a population density less than 300 per square kilometer in the uk?</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL from religious place in karbala in iraq</t>
+          <t>which area have a population density less than unitN per square unitL in the uk ?</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F88" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>what is the median household income for each census block in tarrant county in texas</t>
+          <t>what areas are not wetlands in houston</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>what be the median household income for each census block in tarrant county in texas</t>
+          <t>what area be not wetland in houston</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>what is the land use in netherlands</t>
+          <t>which areas are within 20 minutes driving time from flower shops in oleander?</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>what be the land use in netherlands</t>
+          <t>which area be within unitN unitT drive time from flower shop in oleander ?</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F90" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>500</v>
+        <v>317</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>what areas have an annual snowfall of more than 1000 millimeters in the cape peninsula?</t>
+          <t>where are the accidents on the pistes in happy valley?</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>what area have an annual snowfall of more than unitN unitL in the cape peninsula ?</t>
+          <t>where be the accident on the piste in happy valley ?</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E91" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F91" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>370</v>
+        <v>86</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort?</t>
+          <t>what houses are greather than 30 square meters in urban areas in utrecht</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort ?</t>
+          <t>what house be greather than unitN square unitL in urban area in utrecht</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E92" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F92" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>what is the number of dwelling units inside the flood zones in oleander?</t>
+          <t>what areas are within a mile of main roads in loudoun county in the us?</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>what be the number of dwell unit inside the flood unitN in oleander ?</t>
+          <t>what area be within a mile of main road in loudoun county in the u ?</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>559</v>
+        <v>116</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>what areas are accessible by car from the nearest fire station from my current location in oleander?</t>
+          <t>where are not conservation areas in uk</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>what area be accessible by car from the near fire station from my current location in oleander ?</t>
+          <t>where be not conservation area in uk</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E94" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F94" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>what is the number of households for each precinct in dallas county</t>
+          <t>what are the vote totals of an election for each precinct in dallas?</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>what be the number of household for each precinct in dallas county</t>
+          <t>what be the vote total of an election for each precinct in dallas ?</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>what is the tornado path in oleander in april 2011</t>
+          <t>what area are within 50 km from family physician services in saskatchewan in canada</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>what be the tornado path in oleander in montInYe unitN</t>
+          <t>what area be within unitN unitL from family physician service in saskatchewan in canada</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>which wind farm proposals are nearest to the high way in scotland</t>
+          <t>what areas in houston are not flood plains?</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>which wind farm proposal be near to the high way in scotland</t>
+          <t>what area in houston be not flood plain ?</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>what areas are more than 5000 meters from the roads in spain</t>
+          <t>how many luxury hotels are in happy valley ski resort</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>what area be more than unitN unitL from the road in spain</t>
+          <t>how many luxury hotel be in happy valley ski resort</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>194</v>
+        <v>509</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>which visitor facilities are in happy valley?</t>
+          <t>which regions of cape peninsula have a monthly rainfall of more than 1000 millimeters</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>which visitor facility be in happy valley ?</t>
+          <t>which region of cape peninsula have a monthly rainfall of more than unitN unitL</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>104</v>
+        <v>306</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>what is the mean center of the fire calls weighted by the priority in fort worth</t>
+          <t>which proposed wind farm is nearest to the high way in scotland?</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>what be the mean center of the fire call unitN by the priority in fort worth</t>
+          <t>which propose wind farm be near to the high way in scotland ?</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E100" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F100" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>143</v>
+        <v>535</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>what is the median people age for each census tract in tarrant county in texas</t>
+          <t>which areas have an annual rainfall of more than 1000 millimeters in the cape peninsula?</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>what be the median people age for each census tract in tarrant county in texas</t>
+          <t>which area have an annual rainfall of more than unitN unitL in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E101" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F101" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>177</v>
+        <v>359</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>how many buildings are within 3 minutes of driving time from fire stations in oleander</t>
+          <t>calculate the weighted average of library patrons for each district in oleander</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>how many building be within unitN unitT of drive time from fire station in oleander</t>
+          <t>calculate the unitN average of library patron for each district in oleander</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E102" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F102" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>what areas are not designated as green belt areas in houston?</t>
+          <t>what houses are for sale and within 1km from the nearest school (from my current location) in utrecht</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>what area be not designate a green belt area in houston ?</t>
+          <t>what house be for sale and within unitL from the near school from my current location in utrecht</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F103" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>411</v>
+        <v>544</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>which liquor stores are within 1000 feet of parks in el cajon?</t>
+          <t>what is the number of buildings within 3 minutes of driving time from the fire stations in oleander?</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>which liquor store be within unitN unitL of park in el cajon ?</t>
+          <t>what be the number of building within unitN unitT of drive time from the fire station in oleander ?</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E104" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F104" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>554</v>
+        <v>290</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>which houses are within 3 minutes of the nearest fire station from my current location in oleander?</t>
+          <t>which areas are within 300 meters of runways in schiphol airport?</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>which house be within unitN unitT of the near fire station from my current location in oleander ?</t>
+          <t>which area be within unitN unitL of runway in schiphol airport ?</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E105" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F105" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>218</v>
+        <v>521</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>what was the number of arson cases in fort worth in february 2004?</t>
+          <t>what areas in spain have a temperature greater than 0 degrees in celsius?</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>what be the number of arson case in fort worth in montInYe unitN ?</t>
+          <t>what area in spain have a temperature great than unitN degree in celsius ?</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>what areas are within a mile of main roads in loudoun county in the united states</t>
+          <t>tell me the weighted average coordinates of bank branches in oleander</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>what area be within a mile of main road in loudoun county in the united state</t>
+          <t>tell me the unitN average coordinate of bank branch in oleander</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E107" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F107" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>tell me not to flood the plains in houston</t>
+          <t>what is the euclidean distance to schools in utrecht</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>tell me not to flood the plain in houston</t>
+          <t>what be the euclidean distance to school in utrecht</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>what reachable areas are within a quarter mile of planned commercial district in gresham</t>
+          <t>what is the interpolation surface of no2 concentration in vancouver</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>what reachable area be within a quarter mile of plan commercial district in gresham</t>
+          <t>what be the interpolation surface of no2 concentration in vancouver</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E109" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F109" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>what is the kernel density of crime in surrey in the uk?</t>
+          <t>what is the lung cancer mortality rate of white males for each city in the western usa from 1970 to 1994?</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>what be the kernel density of crime in surrey in the uk ?</t>
+          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN ?</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E110" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>315</v>
+        <v>1</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>which houses are for sale in utrecht flood zone?</t>
+          <t>which shops are open at 6 pm in happy valley ski resort</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>which house be for sale in utrecht flood unitN ?</t>
+          <t>which shop be open at unitN unitTR in happy valley ski resort</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>215</v>
+        <v>502</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>what is the proportion of people over 65 for each pc4 area in amsterdam?</t>
+          <t>what areas have an annual snowfall of more than 1000 millimeters in the cape peninsula</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>what be the proportion of people over unitN for each pc4 area in amsterdam ?</t>
+          <t>what area have an annual snowfall of more than unitN unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>210</v>
+        <v>563</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>is there a percentage of people over 65 for each pc4 area in amsterdam?</t>
+          <t>which areas are within 3 minutes of driving time from the nearest fire station from my current location in oleander?</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>be there a percentage of people over unitN for each pc4 area in amsterdam ?</t>
+          <t>which area be within unitN unitT of drive time from the near fire station from my current location in oleander ?</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>which shops are open at 6 pm in happy valley ski resort?</t>
+          <t>where are the hispanic food stores in tarrant county texas?</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>which shop be open at unitN unitTR in happy valley ski resort ?</t>
+          <t>where be the hispanic food store in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>which houses are to be sold in utrecht</t>
+          <t>tell me the number of dwelling units inside the flood zones in oleander?</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>which house be to be sell in utrecht</t>
+          <t>tell me the number of dwell unit inside the flood unitN in oleander ?</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F115" t="n">
         <v>14</v>
@@ -3198,184 +3198,184 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>528</v>
+        <v>393</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>which areas have an annual amount of snowfall more than 1000 millimeters in the cape peninsula?</t>
+          <t>what areas are accessible within two miles of urban land use in loudoun county in the us?</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>which area have an annual amount of snowfall more than unitN unitL in the cape peninsula ?</t>
+          <t>what area be accessible within unitN mile of urban land use in loudoun county in the u ?</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E116" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F116" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>381</v>
+        <v>259</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>where are the fire stations in utrecht?</t>
+          <t>tell me not to flood the plains in houston</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>where be the fire station in utrecht ?</t>
+          <t>tell me not to flood the plain in houston</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E117" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F117" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>410</v>
+        <v>69</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 feet of the parks in el cajon</t>
+          <t>what areas are within a quarter mile of light rail stop in gresham</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>what liquor store be within unitN unitL of the park in el cajon</t>
+          <t>what area be within a quarter mile of light rail stop in gresham</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E118" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F118" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>280</v>
+        <v>339</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>which areas are within 2000 meters of the playgrounds in oleander?</t>
+          <t>what houses are for sale outside the flood zone in utrecht</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>which area be within unitN unitL of the playground in oleander ?</t>
+          <t>what house be for sale outside the flood unitN in utrecht</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E119" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F119" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>what areas are within 800 meter from major highways in houston</t>
+          <t>what areas are not wetlands in houston?</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL from major highway in houston</t>
+          <t>what area be not wetland in houston ?</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>94</v>
+        <v>478</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>show me the central feature of bank branches in oleander</t>
+          <t>what areas are within 15 minutes walking distance of a metro station in kochi in india?</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>show me the central feature of bank branch in oleander</t>
+          <t>what area be within unitN unitT walk distance of a metro station in kochi in india ?</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E121" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F121" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>which shops are open at 6 pm in happy valley ski resort</t>
+          <t>which houses are within 3 minutes driving time from the nearest fire station (from my current location) in oleander</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>which shop be open at unitN unitTR in happy valley ski resort</t>
+          <t>which house be within unitN unitT drive time from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>which areas are within 100 meters of the hospitals in oleander?</t>
+          <t>what areas are within a mile of main roads in loudoun county in the united states?</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>which area be within unitN unitL of the hospital in oleander ?</t>
+          <t>what area be within a mile of main road in loudoun county in the united state ?</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3390,287 +3390,287 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>367</v>
+        <v>131</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>where are the luxury hotels with more than 20 rooms in the happy valley ski resort</t>
+          <t>what is the number of election votes for each precinct in dallas</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>where be the luxury hotel with more than unitN room in the happy valley ski resort</t>
+          <t>what be the number of election vote for each precinct in dallas</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E124" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F124" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>75</v>
+        <v>517</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>what is the interpolation surface of no2 concentration in vancouver</t>
+          <t>what areas have a monthly rainfall of more than 1000 millimeters in the cape peninsula?</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>what be the interpolation surface of no2 concentration in vancouver</t>
+          <t>what area have a monthly rainfall of more than unitN unitL in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E125" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F125" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>what regions of cape peninsula have a monthly rainfall of more than 1000 millimeters</t>
+          <t>what areas have a slope larger than 15 percent and smaller than 60 percent in the cape peninsula?</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>what region of cape peninsula have a monthly rainfall of more than unitN unitL</t>
+          <t>what area have a slope large than unitN percent and small than unitN percent in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E126" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F126" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>535</v>
+        <v>308</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>which areas have an annual rainfall of more than 1000 millimeters in the cape peninsula?</t>
+          <t>which wind farm proposals are closest to the high road in scotland?</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>which area have an annual rainfall of more than unitN unitL in the cape peninsula ?</t>
+          <t>which wind farm proposal be closest to the high road in scotland ?</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E127" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F127" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>520</v>
+        <v>93</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>what areas in spain have temperatures greater than 0 degrees?</t>
+          <t>what are the land use inside the flood zones in oleander</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>what area in spain have temperature great than unitN degree ?</t>
+          <t>what be the land use inside the flood unitN in oleander</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E128" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F128" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>tell me the weighted average coordinates of bank branches in oleander</t>
+          <t>what areas do have slope larger than 10 percent in spain</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>tell me the unitN average coordinate of bank branch in oleander</t>
+          <t>what area do have slope large than unitN percent in spain</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E129" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F129" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>where are the fire stations in utrecht</t>
+          <t>where are the auto accidents in texas tarrant county?</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>where be the fire station in utrecht</t>
+          <t>where be the auto accident in texas tarrant county ?</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E130" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F130" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>16</v>
+        <v>541</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>what is the lung cancer mortality rate of white males for each city in the western usa from 1970 to 1994</t>
+          <t>tell me the number of buildings within 3 minutes of driving time from the fire stations in oleander?</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN</t>
+          <t>tell me the number of building within unitN unitT of drive time from the fire station in oleander ?</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>553</v>
+        <v>117</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>what areas are reachable within 3 minutes by car from the nearest fire station from my current location in oleander?</t>
+          <t>what reachable areas are within a quarter mile of planned commercial district in gresham</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>what area be reachable within unitN unitT by car from the near fire station from my current location in oleander ?</t>
+          <t>what reachable area be within a quarter mile of plan commercial district in gresham</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E132" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F132" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>tell me the median household income for each census block in tarrant county in texas</t>
+          <t>what is the total population for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>tell me the median household income for each census block in tarrant county in texas</t>
+          <t>what be the total population for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E133" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F133" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>what is the lung cancer mortality rate of white males for each city in the western usa from 1970 to 1994?</t>
+          <t>what liquor stores are within 1000 feet of the parks in el cajon</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN ?</t>
+          <t>what liquor store be within unitN unitL of the park in el cajon</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>474</v>
+        <v>187</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>which houses are within 2 minutes of the fire stations from my current location in oleander?</t>
+          <t>what areas are within 3 minutes of driving time from the nearest fire station (from my current location) in oleander</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>which house be within unitN unitT of the fire station from my current location in oleander ?</t>
+          <t>what area be within unitN unitT of drive time from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E135" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F135" t="n">
         <v>53</v>
@@ -3678,352 +3678,352 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>399</v>
+        <v>4</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of the planned commercial district in gresham?</t>
+          <t>what is the number of luxury hotels in happy valley ski resort</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of the plan commercial district in gresham ?</t>
+          <t>what be the number of luxury hotel in happy valley ski resort</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>460</v>
+        <v>101</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>what areas in the uk have a population density of less than 300 per square kilometer?</t>
+          <t>what is the mean center of the fire calls for each alarm territory in fort worth in 2017</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>what area in the uk have a population density of less than unitN per square unitL ?</t>
+          <t>what be the mean center of the fire call for each alarm territory in fort worth in unitN</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E137" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F137" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>192</v>
+        <v>500</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>what is the population for each city in aichi prefecture in japan?</t>
+          <t>what areas have an annual snowfall of more than 1000 millimeters in the cape peninsula?</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>what be the population for each city in aichi prefecture in japan ?</t>
+          <t>what area have an annual snowfall of more than unitN unitL in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>416</v>
+        <v>256</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>which vacant lots in hillsboro are within 1 mile of a freeway?</t>
+          <t>what areas are not classified as flood plains in houston?</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>which vacant lot in hillsboro be within unitN mile of a freeway ?</t>
+          <t>what area be not classify a flood plain in houston ?</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E139" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F139" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>542</v>
+        <v>122</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>tell me the number of buildings within 3 minutes of driving time from fire stations in oleander?</t>
+          <t>what houses are for sale and within 0.5km from the main roads in utrecht</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>tell me the number of building within unitN unitT of drive time from fire station in oleander ?</t>
+          <t>what house be for sale and within unitL from the main road in utrecht</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E140" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F140" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>59</v>
+        <v>311</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>what areas are within 2000 meters of the playgrounds in oleander</t>
+          <t>which wind farm proposals are closest to roads in scotland?</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the playground in oleander</t>
+          <t>which wind farm proposal be closest to road in scotland ?</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E141" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F141" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>478</v>
+        <v>320</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>what areas are within 15 minutes walking distance of a metro station in kochi in india?</t>
+          <t>where are the accidents on the slopes in the happy valley</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>what area be within unitN unitT walk distance of a metro station in kochi in india ?</t>
+          <t>where be the accident on the slope in the happy valley</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E142" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F142" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>where are the accidents on the pistes in the happy valley</t>
+          <t>what weighted average coordinates of bank branches in oleander?</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>where be the accident on the piste in the happy valley</t>
+          <t>what unitN average coordinate of bank branch in oleander ?</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E143" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F143" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>353</v>
+        <v>464</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>what is weighted average coordinates of bank branches in oleander?</t>
+          <t>what areas have a population density less than 300 per square kilometer in the uk?</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>what be unitN average coordinate of bank branch in oleander ?</t>
+          <t>what area have a population density less than unitN per square unitL in the uk ?</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E144" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F144" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>what areas are within two miles of urban land use in loudoun county in the us?</t>
+          <t>where the uk has no conservation areas?</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>what area be within unitN mile of urban land use in loudoun county in the u ?</t>
+          <t>where the uk have no conservation area ?</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E145" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F145" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>what is the number of buildings within 3 minutes of driving time from fire stations in oleander</t>
+          <t>what is the euclidean distance to the subway stations in amsterdam?</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>what be the number of building within unitN unitT of drive time from fire station in oleander</t>
+          <t>what be the euclidean distance to the subway station in amsterdam ?</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E146" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F146" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>which schools are not within 3 minutes of driving time from a fire station in fort worth</t>
+          <t>what areas are within 2000 meters of the playgrounds in oleander?</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>which school be not within unitN unitT of drive time from a fire station in fort worth</t>
+          <t>what area be within unitN unitL of the playground in oleander ?</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E147" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F147" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>29</v>
+        <v>474</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to recreational sites in utrecht</t>
+          <t>which houses are within 2 minutes of the fire stations from my current location in oleander?</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to recreational site in utrecht</t>
+          <t>which house be within unitN unitT of the fire station from my current location in oleander ?</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E148" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F148" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>which wind farm is closest to the high way in scotland?</t>
+          <t>which areas are within 100 meters of hospitals in oleander?</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>which wind farm be closest to the high way in scotland ?</t>
+          <t>which area be within unitN unitL of hospital in oleander ?</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E149" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F149" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>which house is within 3 minutes driving time from the nearest fire station from my current location in oleander?</t>
+          <t>what areas are accessible by car from the nearest fire station from my current location in oleander?</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>which house be within unitN unitT drive time from the near fire station from my current location in oleander ?</t>
+          <t>what area be accessible by car from the near fire station from my current location in oleander ?</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -4038,712 +4038,712 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>329</v>
+        <v>555</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>what is the number of dwelling units in the flood zones in oleander?</t>
+          <t>which house is within 3 minutes driving time from the nearest fire station from my current location in oleander?</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>what be the number of dwell unit in the flood unitN in oleander ?</t>
+          <t>which house be within unitN unitT drive time from the near fire station from my current location in oleander ?</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E151" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F151" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>what areas are not wetlands in houston?</t>
+          <t>what areas are within two miles of urban landuse in loudoun county in us</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>what area be not wetland in houston ?</t>
+          <t>what area be within unitN mile of urban landuse in loudoun county in u</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>what is the number of luxury hotels in happy valley ski resort</t>
+          <t>what areas are within 100 meters of the hospitals in oleander</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>what be the number of luxury hotel in happy valley ski resort</t>
+          <t>what area be within unitN unitL of the hospital in oleander</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F153" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>438</v>
+        <v>239</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>what's the median population for each census block in tarrant county texas?</t>
+          <t>tell me the density of kernels in traffic accidents in pasadena california</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>what 's the median population for each census block in tarrant county texas ?</t>
+          <t>tell me the density of kernel in traffic accident in pasadena california</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E154" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F154" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>tell me the area within 1000 meters of the arcades in oleander?</t>
+          <t>what are weighted average coordinates of bank branches in oleander?</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>tell me the area within unitN unitL of the arcade in oleander ?</t>
+          <t>what be unitN average coordinate of bank branch in oleander ?</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E155" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F155" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>32</v>
+        <v>460</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to the rivers in crook, deschutes, and jefferson county</t>
+          <t>what areas in the uk have a population density of less than 300 per square kilometer?</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to the river in crook deschutes and jefferson county</t>
+          <t>what area in the uk have a population density of less than unitN per square unitL ?</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E156" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F156" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>what areas are accessible within two miles of urban landuse in loudoun county in us</t>
+          <t>what is the number of households for each precinct in dallas county</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>what area be accessible within unitN mile of urban landuse in loudoun county in u</t>
+          <t>what be the number of household for each precinct in dallas county</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E157" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F157" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>what are the four fire stations within 3 minutes of travel time from a fire in san francisco</t>
+          <t>what houses are for sale and within 1km from the nearest subway station (from my current location) in utrecht</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>what be the unitN fire station within unitN unitT of travel time from a fire in san francisco</t>
+          <t>what house be for sale and within unitL from the near subway station from my current location in utrecht</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E158" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F158" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>133</v>
+        <v>453</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>what is the number of elderly people for each neighborhood in amsterdam</t>
+          <t>what is the median household income for each census block in tarrant county in texas?</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>what be the number of elderly people for each neighborhood in amsterdam</t>
+          <t>what be the median household income for each census block in tarrant county in texas ?</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E159" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F159" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>523</v>
+        <v>229</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>what areas in spain have a temperature in celsius greater than 0 degrees?</t>
+          <t>which houses are to be sold in utrecht</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>what area in spain have a temperature in celsius great than unitN degree ?</t>
+          <t>which house be to be sell in utrecht</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E160" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>496</v>
+        <v>52</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>what areas in the cape peninsula have an annual snowfall of more than 1000 millimeters</t>
+          <t>what areas are outside 60 meters from residence in houston</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>what area in the cape peninsula have an annual snowfall of more than unitN unitL</t>
+          <t>what area be outside unitN unitL from residence in houston</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E161" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F161" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>227</v>
+        <v>456</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>which houses are available in utrecht?</t>
+          <t>what is the median age for each census tract in tarrant county in texas?</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>which house be available in utrecht ?</t>
+          <t>what be the median age for each census tract in tarrant county in texas ?</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F162" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>296</v>
+        <v>201</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>what areas are within 1000 feet of schools in el cajon?</t>
+          <t>in texas where are auto accidents occurring in tarrant county</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of school in el cajon ?</t>
+          <t>in texas where be auto accident occur in tarrant county</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E163" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F163" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>493</v>
+        <v>87</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>what areas in spain have temperatures in celsius less than 0 degrees?</t>
+          <t>what houses are larger than 30 square meters in urban areas in utrecht</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>what area in spain have temperature in celsius less than unitN degree ?</t>
+          <t>what house be large than unitN square unitL in urban area in utrecht</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E164" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F164" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>31</v>
+        <v>451</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to green areas in amsterdam</t>
+          <t>what's the median household income for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to green area in amsterdam</t>
+          <t>what 's the median household income for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E165" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F165" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>106</v>
+        <v>303</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort</t>
+          <t>which proposed wind farm is the closest to the high way in scotland?</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort</t>
+          <t>which propose wind farm be the closest to the high way in scotland ?</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E166" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F166" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>536</v>
+        <v>55</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>what areas have an annual rainfall of more than 1000 millimeters in the cape peninsula?</t>
+          <t>what areas are within 100 meters of cameras in salford</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>what area have an annual rainfall of more than unitN unitL in the cape peninsula ?</t>
+          <t>what area be within unitN unitL of camera in salford</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E167" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F167" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>what weighted average coordinates of bank branches in oleander</t>
+          <t>which wind farm proposals in scotland are closest to the high way?</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>what unitN average coordinate of bank branch in oleander</t>
+          <t>which wind farm proposal in scotland be closest to the high way ?</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E168" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F168" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>288</v>
+        <v>71</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>what areas are within a mile of main roads in loudoun county in the us?</t>
+          <t>what is the density surface of crape myrtles in oleander</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>what area be within a mile of main road in loudoun county in the u ?</t>
+          <t>what be the density surface of crape myrtle in oleander</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E169" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F169" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>328</v>
+        <v>523</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>tell me the number of dwelling units inside the flood zones in oleander?</t>
+          <t>what areas in spain have a temperature in celsius greater than 0 degrees?</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>tell me the number of dwell unit inside the flood unitN in oleander ?</t>
+          <t>what area in spain have a temperature in celsius great than unitN degree ?</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E170" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F170" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>326</v>
+        <v>457</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>tell me the number of dwelling units in the flood zones in oleander?</t>
+          <t>what density of fire calls in oleander?</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>tell me the number of dwell unit in the flood unitN in oleander ?</t>
+          <t>what density of fire call in oleander ?</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E171" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F171" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>what areas are outside 150 meters from hospitals in houston</t>
+          <t>what is weighted average coordinates of bank branches in oleander?</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL from hospital in houston</t>
+          <t>what be unitN average coordinate of bank branch in oleander ?</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E172" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F172" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>509</v>
+        <v>283</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>which regions of cape peninsula have a monthly rainfall of more than 1000 millimeters</t>
+          <t>what areas are within a mile of main roads in loudoun county in the united states of america</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>which region of cape peninsula have a monthly rainfall of more than unitN unitL</t>
+          <t>what area be within a mile of main road in loudoun county in the united state of america</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E173" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F173" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>what areas are accessible within reach of two miles of urban land use in loudoun county in the united states?</t>
+          <t>what is the number of hispanics for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>what area be accessible within reach of unitN mile of urban land use in loudoun county in the united state ?</t>
+          <t>what be the number of hispanic for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E174" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F174" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>303</v>
+        <v>531</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>which proposed wind farm is the closest to the high way in scotland?</t>
+          <t>which regions of cape peninsula have an annual rainfall of more than 1000 millimeters</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>which propose wind farm be the closest to the high way in scotland ?</t>
+          <t>which region of cape peninsula have an annual rainfall of more than unitN unitL</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E175" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F175" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>154</v>
+        <v>480</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>what houses are for sale and within 1km from the nearest subway station (from my current location) in utrecht</t>
+          <t>what areas have a slope greater than 15 percent and less than 60 percent in the cape peninsula?</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the near subway station from my current location in utrecht</t>
+          <t>what area have a slope great than unitN percent and less than unitN percent in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E176" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F176" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>what areas are within two miles of urban land use in loudoun county in the united states</t>
+          <t>what areas are within 1000 meters of roads in assam in india</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>what area be within unitN mile of urban land use in loudoun county in the united state</t>
+          <t>what area be within unitN unitL of road in assam in india</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E177" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F177" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>283</v>
+        <v>33</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>what areas are within a mile of main roads in loudoun county in the united states of america</t>
+          <t>what is the density surface of temperature measurements in oleander city</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>what area be within a mile of main road in loudoun county in the united state of america</t>
+          <t>what be the density surface of temperature measurement in oleander city</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F178" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>56</v>
+        <v>423</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>what areas are within 1000 meters of the major transport routes in amsterdam</t>
+          <t>list the number of electoral votes for each precinct in dallas?</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the major transport route in amsterdam</t>
+          <t>list the number of electoral vote for each precinct in dallas ?</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E179" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F179" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>246</v>
+        <v>34</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance to the rivers in crook deschutes and jefferson county</t>
+          <t>what is the mean center of customers weighted by the number of transactions in oleander city</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance to the river in crook deschutes and jefferson county</t>
+          <t>what be the mean center of customer unitN by the number of transaction in oleander city</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -4753,484 +4753,484 @@
         <v>5</v>
       </c>
       <c r="F180" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>485</v>
+        <v>392</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>what areas in spain have a slope of more than 10 percent?</t>
+          <t>which areas are accessible within two miles of urban land use in loudoun county in the us?</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>what area in spain have a slope of more than unitN percent ?</t>
+          <t>which area be accessible within unitN mile of urban land use in loudoun county in the u ?</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E181" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F181" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>what areas are not green belts in houston?</t>
+          <t>how many households are there for each precinct in dallas county?</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>what area be not green belt in houston ?</t>
+          <t>how many household be there for each precinct in dallas county ?</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E182" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F182" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>456</v>
+        <v>532</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>what is the median age for each census tract in tarrant county in texas?</t>
+          <t>which areas in the cape peninsula have an annual rainfall of more than 1000 millimeters?</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>what be the median age for each census tract in tarrant county in texas ?</t>
+          <t>which area in the cape peninsula have an annual rainfall of more than unitN unitL ?</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E183" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F183" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>488</v>
+        <v>345</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>what areas in spain have altitudes between 700 and 2000 meters?</t>
+          <t>tell me the weighted average coordinates of the branches of the oleander bank</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>what area in spain have altitude between unitN and unitN unitL ?</t>
+          <t>tell me the unitN average coordinate of the branch of the oleander bank</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E184" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F184" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>69</v>
+        <v>421</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of light rail stop in gresham</t>
+          <t>what's the number of households for each precinct in dallas county?</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of light rail stop in gresham</t>
+          <t>what 's the number of household for each precinct in dallas county ?</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E185" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F185" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>366</v>
+        <v>179</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>where are the rocky areas of spain</t>
+          <t>what are the four fire stations within 3 minutes of travel time from a fire in san francisco</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>where be the rocky area of spain</t>
+          <t>what be the unitN fire station within unitN unitT of travel time from a fire in san francisco</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E186" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F186" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>489</v>
+        <v>537</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>what areas have an altitude between 700 and 2000 meters in spain?</t>
+          <t>which schools are not accessible in 3 minutes by car from a fire station in fort worth?</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>what area have an altitude between unitN and unitN unitL in spain ?</t>
+          <t>which school be not accessible in unitN unitT by car from a fire station in fort worth ?</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E187" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F187" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>what areas have an annual amount of snowfall more than 1000 millimeters in the cape peninsula</t>
+          <t>which houses are to be sold in utrecht?</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>what area have an annual amount of snowfall more than unitN unitL in the cape peninsula</t>
+          <t>which house be to be sell in utrecht ?</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E188" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F188" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>what is the number of hispanics for each census block in tarrant county in texas</t>
+          <t>which proposed wind farm is closest to the high way in scotland?</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>what be the number of hispanic for each census block in tarrant county in texas</t>
+          <t>which propose wind farm be closest to the high way in scotland ?</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E189" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F189" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>in texas where are auto accidents occurring in tarrant county</t>
+          <t>which areas are within a mile of main roads in loudoun county in the united states?</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>in texas where be auto accident occur in tarrant county</t>
+          <t>which area be within a mile of main road in loudoun county in the united state ?</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E190" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F190" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>what are the land use inside the flood zones in oleander</t>
+          <t>tell me the euclidean distance to the rivers in crook deschutes and jefferson counties?</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>what be the land use inside the flood unitN in oleander</t>
+          <t>tell me the euclidean distance to the river in crook deschutes and jefferson county ?</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F191" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>305</v>
+        <v>74</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>which proposed wind farm is closest to the high way in scotland?</t>
+          <t>what is the hot spot of house vacancy rate in usa in 2019</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>which propose wind farm be closest to the high way in scotland ?</t>
+          <t>what be the hot spot of house vacancy rate in usa in unitN</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E192" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F192" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>what areas are not green belt areas in houston</t>
+          <t>which wind farm is closest to the high way in scotland?</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>what area be not green belt area in houston</t>
+          <t>which wind farm be closest to the high way in scotland ?</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E193" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F193" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>what houses are for sale in utrecht's urban areas</t>
+          <t>tell me the central feature of the banks branches in oleander?</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>what house be for sale in utrecht 's urban area</t>
+          <t>tell me the central feature of the bank branch in oleander ?</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E194" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F194" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>what weighted average coordinates of bank branches in oleander?</t>
+          <t>what areas do have population density less than 300 per square kilometer in uk</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>what unitN average coordinate of bank branch in oleander ?</t>
+          <t>what area do have population density less than unitN per square unitL in uk</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E195" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F195" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>where are not protected region in assam in india</t>
+          <t>what is the population for each city in aichi prefecture in japan?</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>where be not protect region in assam in india</t>
+          <t>what be the population for each city in aichi prefecture in japan ?</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>550</v>
+        <v>27</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>which schools are not within 3 minutes of driving time of a fire station in fort worth?</t>
+          <t>what is the euclidean distance to subway stations in amsterdam</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>which school be not within unitN unitT of drive time of a fire station in fort worth ?</t>
+          <t>what be the euclidean distance to subway station in amsterdam</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E197" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F197" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>how many luxury hotels are in happy valley ski resort</t>
+          <t>what is the point density of trees in parks in oleander</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>how many luxury hotel be in happy valley ski resort</t>
+          <t>what be the point density of tree in park in oleander</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F198" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance from hospitals in oleander?</t>
+          <t>what areas are within a quarter mile of a restaurant in gresham?</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance from hospital in oleander ?</t>
+          <t>what area be within a quarter mile of a restaurant in gresham ?</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E199" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F199" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>537</v>
+        <v>80</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>which schools are not accessible in 3 minutes by car from a fire station in fort worth?</t>
+          <t>what are the two fire stations closest to each school in utrecht</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>which school be not accessible in unitN unitT by car from a fire station in fort worth ?</t>
+          <t>what be the unitN fire station closest to each school in utrecht</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E200" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F200" t="n">
         <v>50</v>
@@ -5238,208 +5238,208 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>what areas are outside 250 meters of human settlement in the cape peninsula</t>
+          <t>what is the median number of family member for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL of human settlement in the cape peninsula</t>
+          <t>what be the median number of family member for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E201" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F201" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>88</v>
+        <v>481</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>what houses are less than 30 square meters in urban areas in utrecht</t>
+          <t>what areas have a slope greater than 15 percent and smaller than 60 percent in the cape peninsula?</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>what house be less than unitN square unitL in urban area in utrecht</t>
+          <t>what area have a slope great than unitN percent and small than unitN percent in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E202" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F202" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>495</v>
+        <v>39</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>what areas in the cape peninsula have an annual snowfall of more than 1000 millimeters?</t>
+          <t>what areas are green belt areas in houston</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>what area in the cape peninsula have an annual snowfall of more than unitN unitL ?</t>
+          <t>what area be green belt area in houston</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E203" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F203" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>429</v>
+        <v>218</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>what is the number of high school students for each senior high school district in oleander?</t>
+          <t>what was the number of arson cases in fort worth in february 2004?</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>what be the number of high school student for each senior high school district in oleander ?</t>
+          <t>what be the number of arson case in fort worth in montInYe unitN ?</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E204" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F204" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of a restaurant in gresham</t>
+          <t>tell me the euclidean distance from recreational sites in utrecht?</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of a restaurant in gresham</t>
+          <t>tell me the euclidean distance from recreational site in utrecht ?</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E205" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F205" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance from recreational sites in utrecht?</t>
+          <t>is there a percentage of people over 65 in each pc4 area in amsterdam?</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance from recreational site in utrecht ?</t>
+          <t>be there a percentage of people over unitN in each pc4 area in amsterdam ?</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E206" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F206" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance to the rivers in crook deschutes and jefferson counties?</t>
+          <t>which vacant lots are within 1 mile of a freeway in hillsboro</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance to the river in crook deschutes and jefferson county ?</t>
+          <t>which vacant lot be within unitN mile of a freeway in hillsboro</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E207" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F207" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>which proposed wind farm is closest to the high road in scotland?</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>which propose wind farm be closest to the high road in scotland ?</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
         <v>13</v>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>what is the total population for each census block in tarrant county, texas</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>what be the total population for each census block in tarrant county texas</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>2</v>
-      </c>
       <c r="E208" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F208" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>156</v>
+        <v>471</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>what houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in utrecht</t>
+          <t>which houses are larger than 30 square meters and within 1km of the nearest school from my current location in utrecht?</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>what house be large than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
+          <t>which house be large than unitN square unitL and within unitL of the near school from my current location in utrecht ?</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -5454,112 +5454,112 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>what are weighted average coordinates of bank branches in oleander?</t>
+          <t>what is the land use in netherlands</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>what be unitN average coordinate of bank branch in oleander ?</t>
+          <t>what be the land use in netherlands</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>which schools are not reachable within 3 minutes of driving time from a fire station in fort worth</t>
+          <t>show me the central feature of bank branches in oleander</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>which school be not reachable within unitN unitT of drive time from a fire station in fort worth</t>
+          <t>show me the central feature of bank branch in oleander</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E211" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F211" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>what areas in houston are not wetlands?</t>
+          <t>what houses are available for sale outside the flood zone in utrecht?</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>what area in houston be not wetland ?</t>
+          <t>what house be available for sale outside the flood unitN in utrecht ?</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>391</v>
+        <v>51</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>what areas are accessible within two miles of urban land use in loudoun county in the united states?</t>
+          <t>what areas are at least 3000 meters from the rivers in spain</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>what area be accessible within unitN mile of urban land use in loudoun county in the united state ?</t>
+          <t>what area be at least unitN unitL from the river in spain</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E213" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F213" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>380</v>
+        <v>111</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>where are fire stations in utrecht?</t>
+          <t>where are the ski pistes in happy valley ski resort</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>where be fire station in utrecht ?</t>
+          <t>where be the ski piste in happy valley ski resort</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -5574,352 +5574,352 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>which houses are for sale in urban areas in utrecht</t>
+          <t>which vacant lots are located within 1 mile of a freeway in hillsboro?</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>which house be for sale in urban area in utrecht</t>
+          <t>which vacant lot be locate within unitN mile of a freeway in hillsboro ?</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E215" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F215" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>which liquor stores are within 1000 feet of libraries in el cajon</t>
+          <t>what areas are within a quarter mile of the planned commercial district in gresham?</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>which liquor store be within unitN unitL of library in el cajon</t>
+          <t>what area be within a quarter mile of the plan commercial district in gresham ?</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E216" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F216" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>what is california's population density?</t>
+          <t>which areas have a monthly rainfall of more than 1000 millimeters in the cape peninsula?</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>what be california 's population density ?</t>
+          <t>which area have a monthly rainfall of more than unitN unitL in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E217" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F217" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>452</v>
+        <v>251</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>what is the median household income for each census block in tarrant county texas?</t>
+          <t>which areas are not green belt areas in houston?</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>what be the median household income for each census block in tarrant county texas ?</t>
+          <t>which area be not green belt area in houston ?</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E218" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F218" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>what's the number of households for each precinct in dallas county?</t>
+          <t>where are the luxury hotels with more than 20 bedrooms in the happy valley ski resort</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>what 's the number of household for each precinct in dallas county ?</t>
+          <t>where be the luxury hotel with more than unitN bedroom in the happy valley ski resort</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E219" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F219" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>what areas are outside 60 meters from residence in houston</t>
+          <t>list the total number of votes in a dallas election?</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL from residence in houston</t>
+          <t>list the total number of vote in a dallas election ?</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E220" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F220" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>which vacant lot is within 1 mile of a freeway in hillsboro?</t>
+          <t>what's the number of hispanics for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>which vacant lot be within unitN mile of a freeway in hillsboro ?</t>
+          <t>what 's the number of hispanic for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E221" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F221" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>where are auto accidents in tarrant county in texas?</t>
+          <t>what is the median people age for each census tract in tarrant county in texas</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>where be auto accident in tarrant county in texas ?</t>
+          <t>what be the median people age for each census tract in tarrant county in texas</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E222" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F222" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>482</v>
+        <v>294</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>what areas have a slope larger than 15 percent and smaller than 60 percent in the cape peninsula?</t>
+          <t>which areas are within 1000 feet of schools in el cajon?</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>what area have a slope large than unitN percent and small than unitN percent in the cape peninsula ?</t>
+          <t>which area be within unitN unitL of school in el cajon ?</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E223" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F223" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>515</v>
+        <v>20</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>which areas have a monthly rainfall of more than 1000 millimeters in the cape peninsula?</t>
+          <t>what is the tornado path in oleander in april 2011</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>which area have a monthly rainfall of more than unitN unitL in the cape peninsula ?</t>
+          <t>what be the tornado path in oleander in montInYe unitN</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E224" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F224" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>what areas are within 2000 meters of the playgrounds in oleander?</t>
+          <t>which wind farm proposals are closest to the roads in scotland?</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the playground in oleander ?</t>
+          <t>which wind farm proposal be closest to the road in scotland ?</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E225" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F225" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>239</v>
+        <v>429</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>tell me the density of kernels in traffic accidents in pasadena california</t>
+          <t>what is the number of high school students for each senior high school district in oleander?</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>tell me the density of kernel in traffic accident in pasadena california</t>
+          <t>what be the number of high school student for each senior high school district in oleander ?</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E226" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F226" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>where are the accidents on the slopes in the happy valley?</t>
+          <t>which areas are within 500 meters of universities in karbala in iraq?</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>where be the accident on the slope in the happy valley ?</t>
+          <t>which area be within unitN unitL of university in karbala in iraq ?</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E227" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F227" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>what areas do have slope larger than 10 percent in spain</t>
+          <t>what areas are within 20 minutes driving time from flower stores in oleander</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>what area do have slope large than unitN percent in spain</t>
+          <t>what area be within unitN unitT drive time from flower store in oleander</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E228" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F228" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>which proposed wind farm is closest to the high road in scotland?</t>
+          <t>which wind farm proposals are nearest to the high way in scotland</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>which propose wind farm be closest to the high road in scotland ?</t>
+          <t>which wind farm proposal be near to the high way in scotland</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -5934,40 +5934,40 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>what areas are within 3 minutes of driving time from the nearest fire station (from my current location) in oleander</t>
+          <t>what areas are within 800 meter from major highways in houston</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>what area be within unitN unitT of drive time from the near fire station from my current location in oleander</t>
+          <t>what area be within unitN unitL from major highway in houston</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E230" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F230" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>what houses are larger than 30 square meters in urban areas in utrecht</t>
+          <t>how many streetlights for each district in san diego</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>what house be large than unitN square unitL in urban area in utrecht</t>
+          <t>how many streetlight for each district in san diego</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -5982,143 +5982,143 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>where are the accidents on the ski pistes in the happy valley</t>
+          <t>what is the lung cancer mortality rate of white males for each city in the western usa from 1970 to 1994</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>where be the accident on the ski piste in the happy valley</t>
+          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E232" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F232" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>364</v>
+        <v>134</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>what is the weighted coordinate average of library patrons for each district in oleander?</t>
+          <t>what is the number of hispanics for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>what be the unitN coordinate average of library patron for each district in oleander ?</t>
+          <t>what be the number of hispanic for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E233" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F233" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>how much distance is there between schools in utrecht</t>
+          <t>what liquor stores are within 1000 foot of schools in el cajon</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>how much distance be there between school in utrecht</t>
+          <t>what liquor store be within unitN unitL of school in el cajon</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E234" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F234" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>511</v>
+        <v>296</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>what regions of cape peninsula have a monthly rainfall of more than 1000 millimeters?</t>
+          <t>what areas are within 1000 feet of schools in el cajon?</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>what region of cape peninsula have a monthly rainfall of more than unitN unitL ?</t>
+          <t>what area be within unitN unitL of school in el cajon ?</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E235" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F235" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>464</v>
+        <v>367</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>what areas have a population density less than 300 per square kilometer in the uk?</t>
+          <t>where are the luxury hotels with more than 20 rooms in the happy valley ski resort</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>what area have a population density less than unitN per square unitL in the uk ?</t>
+          <t>where be the luxury hotel with more than unitN room in the happy valley ski resort</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E236" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F236" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>what's the number of dwelling units in the flood zones in oleander?</t>
+          <t>which houses are available in utrecht?</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>what 's the number of dwell unit in the flood unitN in oleander ?</t>
+          <t>which house be available in utrecht ?</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E237" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F237" t="n">
         <v>14</v>
@@ -6126,170 +6126,1514 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>what's the number of high school students for each senior high school district in oleander?</t>
+          <t>what is the median household income for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>what 's the number of high school student for each senior high school district in oleander ?</t>
+          <t>what be the median household income for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E238" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F238" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>552</v>
+        <v>219</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>which areas are reachable within 3 minutes by car from the nearest fire station from my current location in oleander?</t>
+          <t>what was the number of arson cases in fort worth on february 2004?</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>which area be reachable within unitN unitT by car from the near fire station from my current location in oleander ?</t>
+          <t>what be the number of arson case in fort worth on montInYe unitN ?</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E239" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F239" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance to subway stations in amsterdam</t>
+          <t>what is the mean center of the fire calls weighted by the priority in fort worth</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance to subway station in amsterdam</t>
+          <t>what be the mean center of the fire call unitN by the priority in fort worth</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E240" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F240" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>492</v>
+        <v>112</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>what areas in spain have temperatures below 0 degrees?</t>
+          <t>where are the fire stations in utrecht</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>what area in spain have temperature below unitN degree ?</t>
+          <t>where be the fire station in utrecht</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E241" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F241" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>is there a percentage of people over 65 in each pc4 area in amsterdam?</t>
+          <t>what areas are within a quarter mile of a restaurant in gresham</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>be there a percentage of people over unitN in each pc4 area in amsterdam ?</t>
+          <t>what area be within a quarter mile of a restaurant in gresham</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E242" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F242" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>128</v>
+        <v>492</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>which vacant lots are within 1 mile of a freeway in hillsboro</t>
+          <t>what areas in spain have temperatures below 0 degrees?</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>which vacant lot be within unitN mile of a freeway in hillsboro</t>
+          <t>what area in spain have temperature below unitN degree ?</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E243" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F243" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>what is the number of hispanics for each census block in tarrant county texas?</t>
+          <t>where are hispanic food stores in tarrant county in texas?</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>what be the number of hispanic for each census block in tarrant county texas ?</t>
+          <t>where be hispanic food store in tarrant county in texas ?</t>
         </is>
       </c>
       <c r="D244" t="n">
+        <v>18</v>
+      </c>
+      <c r="E244" t="n">
+        <v>18</v>
+      </c>
+      <c r="F244" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>which areas have an annual snowfall more than 1000 millimeters in the cape peninsula?</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>which area have an annual snowfall more than unitN unitL in the cape peninsula ?</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>46</v>
+      </c>
+      <c r="E245" t="n">
+        <v>46</v>
+      </c>
+      <c r="F245" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>what areas are not classified as floodplains in houston?</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>what area be not classify a floodplain in houston ?</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>6</v>
+      </c>
+      <c r="E246" t="n">
+        <v>6</v>
+      </c>
+      <c r="F246" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>what areas in houston are not green belt areas?</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>what area in houston be not green belt area ?</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>6</v>
+      </c>
+      <c r="E247" t="n">
+        <v>6</v>
+      </c>
+      <c r="F247" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort?</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort ?</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>18</v>
+      </c>
+      <c r="E248" t="n">
+        <v>18</v>
+      </c>
+      <c r="F248" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>what is the number of elderly people for each neighborhood in amsterdam</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>what be the number of elderly people for each neighborhood in amsterdam</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
         <v>27</v>
       </c>
-      <c r="E244" t="n">
+      <c r="E249" t="n">
         <v>27</v>
       </c>
-      <c r="F244" t="n">
+      <c r="F249" t="n">
         <v>27</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>what areas have an aspect larger than 45 degree and smaller than 135 degrees in the cape peninsula</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>what area have an aspect large than unitN degree and small than unitN degree in the cape peninsula</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>44</v>
+      </c>
+      <c r="E250" t="n">
+        <v>44</v>
+      </c>
+      <c r="F250" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>what's the number of high school students for each senior high school district in oleander?</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>what 's the number of high school student for each senior high school district in oleander ?</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>27</v>
+      </c>
+      <c r="E251" t="n">
+        <v>27</v>
+      </c>
+      <c r="F251" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>what is the number of injured pedestrians for each census tract in georgia from 2000 to 2007?</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>what be the number of injured pedestrian for each census tract in georgia from unitN to unitN ?</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>28</v>
+      </c>
+      <c r="E252" t="n">
+        <v>28</v>
+      </c>
+      <c r="F252" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>what areas are not designated as green belt areas in houston?</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>what area be not designate a green belt area in houston ?</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>6</v>
+      </c>
+      <c r="E253" t="n">
+        <v>6</v>
+      </c>
+      <c r="F253" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>what is the land use in the happy valley resort</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>what be the land use in the happy valley resort</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>which schools are not within 3 minutes of driving time of a fire station in fort worth?</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>which school be not within unitN unitT of drive time of a fire station in fort worth ?</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>50</v>
+      </c>
+      <c r="E255" t="n">
+        <v>50</v>
+      </c>
+      <c r="F255" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>where are the hispanic food stores in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>where be the hispanic food store in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>18</v>
+      </c>
+      <c r="E256" t="n">
+        <v>18</v>
+      </c>
+      <c r="F256" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>which areas are reachable within 3 minutes by car from the nearest fire station from my current location in oleander?</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>which area be reachable within unitN unitT by car from the near fire station from my current location in oleander ?</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>53</v>
+      </c>
+      <c r="E257" t="n">
+        <v>53</v>
+      </c>
+      <c r="F257" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>what is the number of dwelling units in the flood zones in oleander?</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>what be the number of dwell unit in the flood unitN in oleander ?</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>14</v>
+      </c>
+      <c r="E258" t="n">
+        <v>14</v>
+      </c>
+      <c r="F258" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>what houses are less than 30 square meters in urban areas in utrecht</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>what house be less than unitN square unitL in urban area in utrecht</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>14</v>
+      </c>
+      <c r="E259" t="n">
+        <v>14</v>
+      </c>
+      <c r="F259" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>what areas are not green belts in houston?</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>what area be not green belt in houston ?</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>6</v>
+      </c>
+      <c r="E260" t="n">
+        <v>6</v>
+      </c>
+      <c r="F260" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>what areas are within 1000 meters of the schools in oleander?</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitL of the school in oleander ?</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>8</v>
+      </c>
+      <c r="E261" t="n">
+        <v>8</v>
+      </c>
+      <c r="F261" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>how much distance is there between schools in utrecht</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>how much distance be there between school in utrecht</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>5</v>
+      </c>
+      <c r="E262" t="n">
+        <v>5</v>
+      </c>
+      <c r="F262" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>what is the central feature of fire station in fort worth</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>what be the central feature of fire station in fort worth</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>15</v>
+      </c>
+      <c r="E263" t="n">
+        <v>15</v>
+      </c>
+      <c r="F263" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>which areas are within 100 meters of the hospitals in oleander?</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>which area be within unitN unitL of the hospital in oleander ?</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>8</v>
+      </c>
+      <c r="E264" t="n">
+        <v>8</v>
+      </c>
+      <c r="F264" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>tell me the euclidean distance to the rivers in crook deschutes and jefferson county</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>tell me the euclidean distance to the river in crook deschutes and jefferson county</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" t="n">
+        <v>5</v>
+      </c>
+      <c r="F265" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>what areas in the uk have a population density less than 300 per square kilometer?</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>what area in the uk have a population density less than unitN per square unitL ?</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>33</v>
+      </c>
+      <c r="E266" t="n">
+        <v>33</v>
+      </c>
+      <c r="F266" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>which areas have an annual amount of snowfall more than 1000 millimeters in the cape peninsula?</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>which area have an annual amount of snowfall more than unitN unitL in the cape peninsula ?</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>46</v>
+      </c>
+      <c r="E267" t="n">
+        <v>46</v>
+      </c>
+      <c r="F267" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>what are the total votes of an election for each precinct in dallas?</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>what be the total vote of an election for each precinct in dallas ?</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>2</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>where do cape peninsula areas have an annual amount of snowfall more than 1000 millimeters</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>where do cape peninsula area have an annual amount of snowfall more than unitN unitL</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>46</v>
+      </c>
+      <c r="E269" t="n">
+        <v>46</v>
+      </c>
+      <c r="F269" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>what areas have an annual amount of snowfall more than 1000 millimeters in the cape peninsula</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>what area have an annual amount of snowfall more than unitN unitL in the cape peninsula</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>46</v>
+      </c>
+      <c r="E270" t="n">
+        <v>46</v>
+      </c>
+      <c r="F270" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>where are fire stations in utrecht?</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>where be fire station in utrecht ?</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>18</v>
+      </c>
+      <c r="E271" t="n">
+        <v>18</v>
+      </c>
+      <c r="F271" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>what areas are more than 5000 meters from the roads in spain</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>what area be more than unitN unitL from the road in spain</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>8</v>
+      </c>
+      <c r="E272" t="n">
+        <v>8</v>
+      </c>
+      <c r="F272" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>what is the euclidean distance to the rivers in crook, deschutes, and jefferson county</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>what be the euclidean distance to the river in crook deschutes and jefferson county</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>5</v>
+      </c>
+      <c r="E273" t="n">
+        <v>5</v>
+      </c>
+      <c r="F273" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>tell me the median household income for each census block in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>tell me the median household income for each census block in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>28</v>
+      </c>
+      <c r="E274" t="n">
+        <v>28</v>
+      </c>
+      <c r="F274" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>what areas in houston are not wetlands?</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>what area in houston be not wetland ?</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>what houses are for sale in utrecht's urban areas</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>what house be for sale in utrecht 's urban area</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>14</v>
+      </c>
+      <c r="E276" t="n">
+        <v>14</v>
+      </c>
+      <c r="F276" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>tell me the area within 1000 meters of the arcades in oleander?</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>tell me the area within unitN unitL of the arcade in oleander ?</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>8</v>
+      </c>
+      <c r="E277" t="n">
+        <v>8</v>
+      </c>
+      <c r="F277" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>which suggested wind farm are nearest to the high way in scotland</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>which suggest wind farm be near to the high way in scotland</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>13</v>
+      </c>
+      <c r="E278" t="n">
+        <v>13</v>
+      </c>
+      <c r="F278" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>where are the commercial areas in amsterdam</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>where be the commercial area in amsterdam</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>18</v>
+      </c>
+      <c r="E279" t="n">
+        <v>18</v>
+      </c>
+      <c r="F279" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>what areas are reachable within 3 minutes by car from the nearest fire station from my current location in oleander?</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>what area be reachable within unitN unitT by car from the near fire station from my current location in oleander ?</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>53</v>
+      </c>
+      <c r="E280" t="n">
+        <v>53</v>
+      </c>
+      <c r="F280" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>which schools are not reachable within 3 minutes of driving time from a fire station in fort worth</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>which school be not reachable within unitN unitT of drive time from a fire station in fort worth</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>50</v>
+      </c>
+      <c r="E281" t="n">
+        <v>50</v>
+      </c>
+      <c r="F281" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>what areas in houston are not classified as flood plains?</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>what area in houston be not classify a flood plain ?</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>6</v>
+      </c>
+      <c r="E282" t="n">
+        <v>6</v>
+      </c>
+      <c r="F282" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>what areas are within 1000 meters of the major transport routes in amsterdam</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>what area be within unitN unitL of the major transport route in amsterdam</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>8</v>
+      </c>
+      <c r="E283" t="n">
+        <v>8</v>
+      </c>
+      <c r="F283" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>what areas in the cape peninsula have an annual snowfall of more than 1000 millimeters?</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>what area in the cape peninsula have an annual snowfall of more than unitN unitL ?</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>46</v>
+      </c>
+      <c r="E284" t="n">
+        <v>46</v>
+      </c>
+      <c r="F284" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>what areas have an annual rainfall of more than 1000 millimeters in the cape peninsula?</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>what area have an annual rainfall of more than unitN unitL in the cape peninsula ?</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>46</v>
+      </c>
+      <c r="E285" t="n">
+        <v>46</v>
+      </c>
+      <c r="F285" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>what areas are accessible by car within 3 minutes of the nearest fire station from my current location in oleander?</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>what area be accessible by car within unitN unitT of the near fire station from my current location in oleander ?</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>53</v>
+      </c>
+      <c r="E286" t="n">
+        <v>53</v>
+      </c>
+      <c r="F286" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>what houses are for sale and within 1km from the nearest supermarket (from my current location) in utrecht</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>what house be for sale and within unitL from the near supermarket from my current location in utrecht</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>39</v>
+      </c>
+      <c r="E287" t="n">
+        <v>39</v>
+      </c>
+      <c r="F287" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>show me the median age for each census tract in tarrant county texas</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>show me the median age for each census tract in tarrant county texas</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>28</v>
+      </c>
+      <c r="E288" t="n">
+        <v>28</v>
+      </c>
+      <c r="F288" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>which areas are accessible within reach of two miles of urban land use in loudoun county in the us?</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>which area be accessible within reach of unitN mile of urban land use in loudoun county in the u ?</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>19</v>
+      </c>
+      <c r="E289" t="n">
+        <v>19</v>
+      </c>
+      <c r="F289" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>what areas are within two miles of urban land use in loudoun county in the united states</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>what area be within unitN mile of urban land use in loudoun county in the united state</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>19</v>
+      </c>
+      <c r="E290" t="n">
+        <v>19</v>
+      </c>
+      <c r="F290" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>is there a percentage of people over 65 for each pc4 area in amsterdam?</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>be there a percentage of people over unitN for each pc4 area in amsterdam ?</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>2</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2</v>
+      </c>
+      <c r="F291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>what areas in spain have temperatures greater than 0 degrees?</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>what area in spain have temperature great than unitN degree ?</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>46</v>
+      </c>
+      <c r="E292" t="n">
+        <v>46</v>
+      </c>
+      <c r="F292" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>what is the total population for each census block in tarrant county, texas</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>what be the total population for each census block in tarrant county texas</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>2</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2</v>
+      </c>
+      <c r="F293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>what areas are outside 250 meters of human settlement in the cape peninsula</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>what area be outside unitN unitL of human settlement in the cape peninsula</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>8</v>
+      </c>
+      <c r="E294" t="n">
+        <v>8</v>
+      </c>
+      <c r="F294" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>which shops are open at 6 pm in happy valley ski resort?</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>which shop be open at unitN unitTR in happy valley ski resort ?</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>what is the number of buildings within 3 minutes of driving time from fire stations in oleander</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>what be the number of building within unitN unitT of drive time from fire station in oleander</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>50</v>
+      </c>
+      <c r="E296" t="n">
+        <v>50</v>
+      </c>
+      <c r="F296" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>which park is the largest in utrecht?</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>which park be the large in utrecht ?</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>18</v>
+      </c>
+      <c r="E297" t="n">
+        <v>18</v>
+      </c>
+      <c r="F297" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>where are the accidents on the pistes in the happy valley</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>where be the accident on the piste in the happy valley</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>14</v>
+      </c>
+      <c r="E298" t="n">
+        <v>14</v>
+      </c>
+      <c r="F298" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>what areas have an annual amount of more than 1000 millimeters of snowfall in the cape peninsula?</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>what area have an annual amount of more than unitN unitL of snowfall in the cape peninsula ?</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>46</v>
+      </c>
+      <c r="E299" t="n">
+        <v>46</v>
+      </c>
+      <c r="F299" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>which liquor stores are within 1000 feet of parks in el cajon?</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>which liquor store be within unitN unitL of park in el cajon ?</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>21</v>
+      </c>
+      <c r="E300" t="n">
+        <v>21</v>
+      </c>
+      <c r="F300" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/textToOps/data/processed/prediction_vs_actual.xlsx
+++ b/textToOps/data/processed/prediction_vs_actual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,88 +462,88 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>496</v>
+        <v>233</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>what areas in the cape peninsula have an annual snowfall of more than 1000 millimeters</t>
+          <t>what areas are within 1000 meters of the arcades in oleander?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>what area in the cape peninsula have an annual snowfall of more than unitN unitL</t>
+          <t>what area be within unitN unitL of the arcade in oleander ?</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>which vacant lot is within 1 mile of a freeway in hillsboro?</t>
+          <t>list the areas within four minutes of each fire station at 2 am on tuesday in utrecht?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>which vacant lot be within unitN mile of a freeway in hillsboro ?</t>
+          <t>list the area within unitN unitT of each fire station at unitN be on dayofaw in utrecht ?</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>65</v>
+        <v>298</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>what areas are outside 3000 meters of the rivers in spain</t>
+          <t>show the vegetation areas larger than 6000 square meters in the cape peninsula?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL of the river in spain</t>
+          <t>show the vegetation area large than unitN square unitL in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>what areas are within 2000 meters of the playgrounds in oleander</t>
+          <t>what areas are within a quarter mile of a store in gresham?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the playground in oleander</t>
+          <t>what area be within a quarter mile of a store in gresham ?</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -558,88 +558,88 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>415</v>
+        <v>66</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 feet of schools in el cajon?</t>
+          <t>what areas are within 500 meters from religious places in karbala in iraq</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>what liquor store be within unitN unitL of school in el cajon ?</t>
+          <t>what area be within unitN unitL from religious place in karbala in iraq</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>where are the accidents within ski pistes in the happy valley</t>
+          <t>tell me not flood plain area in houston</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>where be the accident within ski piste in the happy valley</t>
+          <t>tell me not flood plain area in houston</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>499</v>
+        <v>215</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>which areas have an annual snowfall of more than 1000 millimeters in the cape peninsula?</t>
+          <t>how many people are in each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>which area have an annual snowfall of more than unitN unitL in the cape peninsula ?</t>
+          <t>how many people be in each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>which areas are within 2000 meters of the playgrounds in oleander?</t>
+          <t>what areas are within a quarter mile of a restaurant in gresham?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>which area be within unitN unitL of the playground in oleander ?</t>
+          <t>what area be within a quarter mile of a restaurant in gresham ?</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -654,304 +654,304 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>327</v>
+        <v>185</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>what's the number of dwelling units in the flood zones in oleander?</t>
+          <t>what areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in oleander</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>what 's the number of dwell unit in the flood unitN in oleander ?</t>
+          <t>what area be accessible within unitN unitT of by car from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>what weighted average coordinates of bank branches in oleander</t>
+          <t>which vacant lots are within 1 mile of a freeway in hillsboro?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>what unitN average coordinate of bank branch in oleander</t>
+          <t>which vacant lot be within unitN mile of a freeway in hillsboro ?</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>512</v>
+        <v>62</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>what regions of cape peninsula have a monthly rainfall of more than 1000 millimeters</t>
+          <t>what areas are within a quarter mile of light rail stop in gresham</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>what region of cape peninsula have a monthly rainfall of more than unitN unitL</t>
+          <t>what area be within a quarter mile of light rail stop in gresham</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>29</v>
+        <v>375</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to recreational sites in utrecht</t>
+          <t>what areas in spain have temperatures in celsius greater than 0 degrees</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to recreational site in utrecht</t>
+          <t>what area in spain have temperature in celsius great than unitN degree</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>416</v>
+        <v>292</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>which vacant lots in hillsboro are within 1 mile of a freeway?</t>
+          <t>what are weighted average coordinates of bank branches in oleander?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>which vacant lot in hillsboro be within unitN mile of a freeway ?</t>
+          <t>what be unitN average coordinate of bank branch in oleander ?</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>274</v>
+        <v>380</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>which areas are within 1000 meters of the major transport routes in amsterdam?</t>
+          <t>which areas in the cape peninsula have an annual rainfall of less than 1000 millimeters</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>which area be within unitN unitL of the major transport route in amsterdam ?</t>
+          <t>which area in the cape peninsula have an annual rainfall of less than unitN unitL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>what is the number of crime cases for each police district in texas in 2018</t>
+          <t>what is the euclidean distance to green areas in amsterdam</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>what be the number of crime case for each police district in texas in unitN</t>
+          <t>what be the euclidean distance to green area in amsterdam</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>what is the proportion of people over 65 for each pc4 area in amsterdam?</t>
+          <t>what is the point density of fire calls in oleander</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>what be the proportion of people over unitN for each pc4 area in amsterdam ?</t>
+          <t>what be the point density of fire call in oleander</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>what is the weighted coordinate average of library patrons for each district in oleander?</t>
+          <t>which areas are within 3 minutes of the nearest fire station from my current location in oleander?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>what be the unitN coordinate average of library patron for each district in oleander ?</t>
+          <t>which area be within unitN unitT of the near fire station from my current location in oleander ?</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>which liquor stores are within 1000 feet of libraries in el cajon</t>
+          <t>what is the tornado path in oleander in april 2011</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>which liquor store be within unitN unitL of library in el cajon</t>
+          <t>what be the tornado path in oleander in montInYe unitN</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>554</v>
+        <v>318</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>which houses are within 3 minutes of the nearest fire station from my current location in oleander?</t>
+          <t>what liquor stores are within 1000 feet of libraries in el cajon?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>which house be within unitN unitT of the near fire station from my current location in oleander ?</t>
+          <t>what liquor store be within unitN unitL of library in el cajon ?</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F20" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>534</v>
+        <v>179</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>what regions of cape peninsula have an annual rainfall of more than 1000 millimeters</t>
+          <t>what are the four fire stations within 3 minutes of travel time from a fire in san francisco</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>what region of cape peninsula have an annual rainfall of more than unitN unitL</t>
+          <t>what be the unitN fire station within unitN unitT of travel time from a fire in san francisco</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>which visitor facilities are in happy valley?</t>
+          <t>what is the land use in the happy valley resort</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>which visitor facility be in happy valley ?</t>
+          <t>what be the land use in the happy valley resort</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -966,904 +966,904 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>calculate the weighted coordinate average of library patrons for each district in oleander</t>
+          <t>which houses are for sale in utrecht</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>calculate the unitN coordinate average of library patron for each district in oleander</t>
+          <t>which house be for sale in utrecht</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>449</v>
+        <v>210</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tell me the median household income for each census block in tarrant county texas?</t>
+          <t>tell me the percentage of people over 65 in each pc4 area in amsterdam</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>tell me the median household income for each census block in tarrant county texas ?</t>
+          <t>tell me the percentage of people over unitN in each pc4 area in amsterdam</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>what is the average rating of street pavement for each borough in new york city</t>
+          <t>what areas are within 1000 meters of the arcades in oleander</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>what be the average rating of street pavement for each borough in new york city</t>
+          <t>what area be within unitN unitL of the arcade in oleander</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>which schools are not within 3 minutes of driving time from a fire station in fort worth</t>
+          <t>what liquor stores are within 1000 foot of parks in el cajon</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>which school be not within unitN unitT of drive time from a fire station in fort worth</t>
+          <t>what liquor store be within unitN unitL of park in el cajon</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>432</v>
+        <v>196</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>is there a number of elderly people for each neighborhood in amsterdam?</t>
+          <t>what is the cervix cancer mortality rate of white women in each city in the western usa from 1970 to 1994?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>be there a number of elderly people for each neighborhood in amsterdam ?</t>
+          <t>what be the cervix cancer mortality rate of white woman in each city in the western usa from unitN to unitN ?</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>543</v>
+        <v>38</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>list the number of buildings within 3 minutes of driving time from fire stations in oleander?</t>
+          <t>what areas are green belt areas in houston</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>list the number of building within unitN unitT of drive time from fire station in oleander ?</t>
+          <t>what area be green belt area in houston</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>where are auto accidents in tarrant county in texas?</t>
+          <t>tell me the main attraction of fort worth's fire station?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>where be auto accident in tarrant county in texas ?</t>
+          <t>tell me the main attraction of fort worth 's fire station ?</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>what's the number of cases of arson in fort worth in february 2004?</t>
+          <t>what houses are greather than 30 square meters in urban areas in utrecht</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>what 's the number of case of arson in fort worth in montInYe unitN ?</t>
+          <t>what house be greather than unitN square unitL in urban area in utrecht</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>what areas in spain have temperatures in celsius less than 0 degrees?</t>
+          <t>what areas are not wetlands in houston</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>what area in spain have temperature in celsius less than unitN degree ?</t>
+          <t>what area be not wetland in houston</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>185</v>
+        <v>374</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>what areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in oleander</t>
+          <t>what areas in spain have temperatures in celsius greater than 0 degrees?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitT of drive time from the near fire station from my current location in oleander</t>
+          <t>what area in spain have temperature in celsius great than unitN degree ?</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E32" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F32" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>which areas are within a mile of main roads in loudoun county in the us?</t>
+          <t>which areas are accessible within 3 minutes by car from the nearest fire station from my current location in oleander?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>which area be within a mile of main road in loudoun county in the u ?</t>
+          <t>which area be accessible within unitN unitT by car from the near fire station from my current location in oleander ?</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>what areas are not green belt areas in houston</t>
+          <t>what is weighted average coordinates of bank branches in oleander</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>what area be not green belt area in houston</t>
+          <t>what be unitN average coordinate of bank branch in oleander</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>518</v>
+        <v>285</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>what areas have a monthly rainfall of more than 1000 millimeters in the cape peninsula</t>
+          <t>what is the central feature of a fire station in fort worth?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>what area have a monthly rainfall of more than unitN unitL in the cape peninsula</t>
+          <t>what be the central feature of a fire station in fort worth ?</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F35" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>343</v>
+        <v>113</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>which houses are for sale in urban areas in utrecht</t>
+          <t>where are the commercial areas in amsterdam</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>which house be for sale in urban area in utrecht</t>
+          <t>where be the commercial area in amsterdam</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E36" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F36" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>366</v>
+        <v>181</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>where are the rocky areas of spain</t>
+          <t>which schools are not within 3 minutes of driving time from a fire station in fort worth</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>where be the rocky area of spain</t>
+          <t>which school be not within unitN unitT of drive time from a fire station in fort worth</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E37" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>445</v>
+        <v>39</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>show me the median age for each census tract in tarrant county in texas</t>
+          <t>what areas are not flood plain in houston</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>show me the median age for each census tract in tarrant county in texas</t>
+          <t>what area be not flood plain in houston</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>where are the accidents on the slopes in the happy valley?</t>
+          <t>what areas are within 3 minutes of driving time from the nearest fire station (from my current location) in oleander</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>where be the accident on the slope in the happy valley ?</t>
+          <t>what area be within unitN unitT of drive time from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F39" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>395</v>
+        <v>187</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>what areas are accessible within reach of two miles of urban land use in loudoun county in the united states?</t>
+          <t>what areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in oleander</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>what area be accessible within reach of unitN mile of urban land use in loudoun county in the united state ?</t>
+          <t>what area be outside unitN unitT of drive time from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E40" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F40" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance to subway stations in amsterdam</t>
+          <t>what areas are within one mile of main roads in loudoun county in us</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance to subway station in amsterdam</t>
+          <t>what area be within unitN mile of main road in loudoun county in u</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>476</v>
+        <v>127</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>which areas are within 20 minutes driving time from flower stores in oleander?</t>
+          <t>what houses are for sale and within 0.5km from the main roads in utrecht</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>which area be within unitN unitT drive time from flower store in oleander ?</t>
+          <t>what house be for sale and within unitL from the main road in utrecht</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E42" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>what areas are outside 150 meters from hospitals in houston</t>
+          <t>what is the number of high school students for each senior high school district in oleander</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL from hospital in houston</t>
+          <t>what be the number of high school student for each senior high school district in oleander</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>where are the accidents on the ski pistes in the happy valley</t>
+          <t>what are the four fire stations with shortest network-based paths to 1202 twin peaks blvd in san francisco</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>where be the accident on the ski piste in the happy valley</t>
+          <t>what be the unitN fire station with shortest unitN path to unitN twin peak blvd in san francisco</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tell me the number of dwelling units in the flood zones in oleander?</t>
+          <t>tell me the number of elderly people in each neighborhood of amsterdam</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>tell me the number of dwell unit in the flood unitN in oleander ?</t>
+          <t>tell me the number of elderly people in each neighborhood of amsterdam</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E45" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F45" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to green areas in amsterdam</t>
+          <t>show the areas within one quarter mile of the light rail stop in gresham?</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to green area in amsterdam</t>
+          <t>show the area within unitN quarter mile of the light rail stop in gresham ?</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>511</v>
+        <v>268</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>what regions of cape peninsula have a monthly rainfall of more than 1000 millimeters?</t>
+          <t>which houses are for sale outside of the flood zone in utrecht</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>what region of cape peninsula have a monthly rainfall of more than unitN unitL ?</t>
+          <t>which house be for sale outside of the flood unitN in utrecht</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E47" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F47" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>what is the cervix cancer mortality rate of white females for each city in the western usa from 1970 to 1994</t>
+          <t>what is the mean center of crimes in amsterdam in 2019</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>what be the cervix cancer mortality rate of white female for each city in the western usa from unitN to unitN</t>
+          <t>what be the mean center of crime in amsterdam in unitN</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>390</v>
+        <v>28</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>which areas are accessible within two miles of urban land use in loudoun county in the united states?</t>
+          <t>what is the kernel density of crime in surrey in uk</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>which area be accessible within unitN mile of urban land use in loudoun county in the united state ?</t>
+          <t>what be the kernel density of crime in surrey in uk</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>488</v>
+        <v>325</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>what areas in spain have altitudes between 700 and 2000 meters?</t>
+          <t>tell me the number of hispanics for each census block in tarrant county in texas?</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>what area in spain have altitude between unitN and unitN unitL ?</t>
+          <t>tell me the number of hispanic for each census block in tarrant county in texas ?</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E50" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F50" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>what is the mean center of accidents weighted by priority for each alarm territories in fort worth</t>
+          <t>what areas are accessible within reach two miles of urban landuse in loudoun county in us</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>what be the mean center of accident unitN by priority for each alarm territory in fort worth</t>
+          <t>what area be accessible within reach unitN mile of urban landuse in loudoun county in u</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E51" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>what areas are not park in houston</t>
+          <t>what is the proportion of people over 65 for each pc4 area in amsterdam</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>what area be not park in houston</t>
+          <t>what be the proportion of people over unitN for each pc4 area in amsterdam</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort</t>
+          <t>where are the auto accidents in tarrant county texas?</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort</t>
+          <t>where be the auto accident in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>what areas are within 500 meters from religious places in karbala in iraq</t>
+          <t>tell me the euclidean distance to the rivers in crook deschutes and jefferson county</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL from religious place in karbala in iraq</t>
+          <t>tell me the euclidean distance to the river in crook deschutes and jefferson county</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 feet of el cajon parks</t>
+          <t>which areas are within 3 minutes of driving time from the nearest fire station from my current location in oleander?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>what liquor store be within unitN unitL of el cajon park</t>
+          <t>which area be within unitN unitT of drive time from the near fire station from my current location in oleander ?</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E55" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F55" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>tell me the central feature of the bank branches in oleander</t>
+          <t>which liquor stores are within 1000 feet of the parks in el cajon</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>tell me the central feature of the bank branch in oleander</t>
+          <t>which liquor store be within unitN unitL of the park in el cajon</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E56" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F56" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>466</v>
+        <v>339</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tell me the population density in california? why?</t>
+          <t>tell me the median household income for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>tell me the population density in california ? why ?</t>
+          <t>tell me the median household income for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E57" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F57" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>458</v>
+        <v>178</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>what is the point density of cycling destinations in the metro vancouver region of canada?</t>
+          <t>what is the number of buildings within 3 minutes of driving time from fire stations in oleander</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>what be the point density of cycling destination in the metro vancouver region of canada ?</t>
+          <t>what be the number of building within unitN unitT of drive time from fire station in oleander</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E58" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F58" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>485</v>
+        <v>309</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>what areas in spain have a slope of more than 10 percent?</t>
+          <t>which park is the biggest in utrecht?</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>what area in spain have a slope of more than unitN percent ?</t>
+          <t>which park be the big in utrecht ?</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E59" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F59" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>what is the median household income for each census block in tarrant county in texas</t>
+          <t>what is the median population for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>what be the median household income for each census block in tarrant county in texas</t>
+          <t>what be the median population for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1878,40 +1878,40 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>465</v>
+        <v>353</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>what is california's population density?</t>
+          <t>tell me the median population for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>what be california 's population density ?</t>
+          <t>tell me the median population for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E61" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F61" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>where are not protected region in assam in india</t>
+          <t>which park is biggest in utrecht</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>where be not protect region in assam in india</t>
+          <t>which park be big in utrecht</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1926,40 +1926,40 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>438</v>
+        <v>30</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>what's the median population for each census block in tarrant county texas?</t>
+          <t>what is the euclidean distance to hospitals in oleander</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>what 's the median population for each census block in tarrant county texas ?</t>
+          <t>what be the euclidean distance to hospital in oleander</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>542</v>
+        <v>387</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>tell me the number of buildings within 3 minutes of driving time from fire stations in oleander?</t>
+          <t>how many buildings are within 3 minutes of driving time from fire stations in oleander?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>tell me the number of building within unitN unitT of drive time from fire station in oleander ?</t>
+          <t>how many building be within unitN unitT of drive time from fire station in oleander ?</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1974,1696 +1974,1696 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>what areas are within 1000 meters of the schools in oleander</t>
+          <t>which wind farms are proposed in scotland?</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the school in oleander</t>
+          <t>which wind farm be propose in scotland ?</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F65" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>540</v>
+        <v>272</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>which schools are not accessible within 3 minutes of driving time from a fire station in fort worth?</t>
+          <t>where are accidents on the pistes in the happy valley</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>which school be not accessible within unitN unitT of drive time from a fire station in fort worth ?</t>
+          <t>where be accident on the piste in the happy valley</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E66" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>391</v>
+        <v>214</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>what areas are accessible within two miles of urban land use in loudoun county in the united states?</t>
+          <t>what is the literacy rate for each country in africa?</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>what area be accessible within unitN mile of urban land use in loudoun county in the united state ?</t>
+          <t>what be the literacy rate for each country in africa ?</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>what is the number of dwelling units inside the flood zones in oleander?</t>
+          <t>which wind farm is closest to the high way in scotland?</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>what be the number of dwell unit inside the flood unitN in oleander ?</t>
+          <t>which wind farm be closest to the high way in scotland ?</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>403</v>
+        <v>73</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>what areas are within two miles of urban land use in loudoun county in the us?</t>
+          <t>what is the hot spot of house vacancy rate in usa in 2019</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>what area be within unitN mile of urban land use in loudoun county in the u ?</t>
+          <t>what be the hot spot of house vacancy rate in usa in unitN</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E69" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F69" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>363</v>
+        <v>43</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>list the weighted average of library patrons for each district in oleander?</t>
+          <t>what areas are within 300 meters of runways in schiphol airport</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>list the unitN average of library patron for each district in oleander ?</t>
+          <t>what area be within unitN unitL of runway in schiphol airport</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>406</v>
+        <v>189</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 feet of libraries in el cajon?</t>
+          <t>what areas are not wetlands in houston?</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>what liquor store be within unitN unitL of library in el cajon ?</t>
+          <t>what area be not wetland in houston ?</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>489</v>
+        <v>361</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>what areas have an altitude between 700 and 2000 meters in spain?</t>
+          <t>which areas are within 20 minutes of flower shops in oleander?</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>what area have an altitude between unitN and unitN unitL in spain ?</t>
+          <t>which area be within unitN unitT of flower shop in oleander ?</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E72" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F72" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>346</v>
+        <v>248</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>tell me the weighted average coordinates of the bank branches in oleander</t>
+          <t>what areas are within 1000 meters of the major transport routes in amsterdam?</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>tell me the unitN average coordinate of the bank branch in oleander</t>
+          <t>what area be within unitN unitL of the major transport route in amsterdam ?</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>491</v>
+        <v>327</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>what areas in spain have a temperature below 0 degrees celsius?</t>
+          <t>how many elderly people are there in each neighborhood in amsterdam?</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>what area in spain have a temperature below unitN degree celsius ?</t>
+          <t>how many elderly people be there in each neighborhood in amsterdam ?</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E74" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F74" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>what houses are for sale in the flood zone in utrecht</t>
+          <t>what areas are not green belt areas in houston?</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>what house be for sale in the flood unitN in utrecht</t>
+          <t>what area be not green belt area in houston ?</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>what are the vegetation areas larger than 6000 square meters in the cape peninsula</t>
+          <t>what areas are within a quarter mile of a restaurant in gresham</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>what be the vegetation area large than unitN square unitL in the cape peninsula</t>
+          <t>what area be within a quarter mile of a restaurant in gresham</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance from hospitals in oleander?</t>
+          <t>what is the land use in netherlands</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance from hospital in oleander ?</t>
+          <t>what be the land use in netherlands</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>how many buildings are within 3 minutes of driving time from fire stations in oleander</t>
+          <t>what houses are less than 30 square meters and within 1km from the nearest school (from my current location) in utrecht</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>how many building be within unitN unitT of drive time from fire station in oleander</t>
+          <t>what house be less than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E78" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F78" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>118</v>
+        <v>376</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>what areas are accessible within two miles of urban landuse in loudoun county in us</t>
+          <t>which areas in the cape peninsula have an annual rainfall of more than 1000 millimeters</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>what area be accessible within unitN mile of urban landuse in loudoun county in u</t>
+          <t>which area in the cape peninsula have an annual rainfall of more than unitN unitL</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E79" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F79" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>where are the fire stations in utrecht?</t>
+          <t>what is the euclidean distance to subway stations in amsterdam</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>where be the fire station in utrecht ?</t>
+          <t>what be the euclidean distance to subway station in amsterdam</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>which houses are available for sale in utrecht?</t>
+          <t>what areas are within 10 miles of current transmission lines with a voltage greater than 400 in colorado</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>which house be available for sale in utrecht ?</t>
+          <t>what area be within unitN mile of current transmission line with a voltage great than unitN in colorado</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>286</v>
+        <v>137</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>what areas are within a mile of main roads in loudoun county in the united states</t>
+          <t>what is the median household income for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>what area be within a mile of main road in loudoun county in the united state</t>
+          <t>what be the median household income for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F82" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>231</v>
+        <v>354</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>what is the kernel density of crime in surrey in the uk?</t>
+          <t>what is the median population for each census block in tarrant county in texas?</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>what be the kernel density of crime in surrey in the uk ?</t>
+          <t>what be the median population for each census block in tarrant county in texas ?</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>315</v>
+        <v>50</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>which houses are for sale in utrecht flood zone?</t>
+          <t>what areas are outside 150 meters from schools in houston</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>which house be for sale in utrecht flood unitN ?</t>
+          <t>what area be outside unitN unitL from school in houston</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>522</v>
+        <v>301</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>what areas in spain have a temperature in celsius greater than 0 degrees</t>
+          <t>where are hispanic food stores in tarrant county texas?</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>what area in spain have a temperature in celsius great than unitN degree</t>
+          <t>where be hispanic food store in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E85" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F85" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>what houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in utrecht</t>
+          <t>what is the median number of family member for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>what house be large than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
+          <t>what be the median number of family member for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E86" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F86" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>what areas are not conatined as green belt areas in houston</t>
+          <t>which houses are for sale in utrecht flood zone?</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>what area be not conatined a green belt area in houston</t>
+          <t>which house be for sale in utrecht flood unitN ?</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>462</v>
+        <v>163</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>which areas have a population density less than 300 per square kilometer in the uk?</t>
+          <t>what areas do have slope larger than 10 percent in spain</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>which area have a population density less than unitN per square unitL in the uk ?</t>
+          <t>what area do have slope large than unitN percent in spain</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E88" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F88" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>8</v>
+        <v>360</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>what areas are not wetlands in houston</t>
+          <t>which areas are within 60 minutes of the airports in crook deschutes and jefferson counties</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>what area be not wetland in houston</t>
+          <t>which area be within unitN unitT of the airport in crook deschutes and jefferson county</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>475</v>
+        <v>241</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>which areas are within 20 minutes driving time from flower shops in oleander?</t>
+          <t>which areas are within 10 miles of current transmission lines with a voltage greater than 400 in colorado?</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>which area be within unitN unitT drive time from flower shop in oleander ?</t>
+          <t>which area be within unitN mile of current transmission line with a voltage great than unitN in colorado ?</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>where are the accidents on the pistes in happy valley?</t>
+          <t>which areas are within 2000 meters of playgrounds in oleander?</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>where be the accident on the piste in happy valley ?</t>
+          <t>which area be within unitN unitL of playground in oleander ?</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>what houses are greather than 30 square meters in urban areas in utrecht</t>
+          <t>which schools are not reachable within 3 minutes of driving time from a fire station in fort worth</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>what house be greather than unitN square unitL in urban area in utrecht</t>
+          <t>which school be not reachable within unitN unitT of drive time from a fire station in fort worth</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E92" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F92" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>what areas are within a mile of main roads in loudoun county in the us?</t>
+          <t>where are the pistes in happy valley ski resort?</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>what area be within a mile of main road in loudoun county in the u ?</t>
+          <t>where be the piste in happy valley ski resort ?</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F93" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>116</v>
+        <v>332</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>where are not conservation areas in uk</t>
+          <t>how many crimes have been reported in each police district in texas in 2018?</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>where be not conservation area in uk</t>
+          <t>how many crime have be report in each police district in texas in unitN ?</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E94" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F94" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>what are the vote totals of an election for each precinct in dallas?</t>
+          <t>what liquor stores are within 1000 foot of schools in el cajon</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>what be the vote total of an election for each precinct in dallas ?</t>
+          <t>what liquor store be within unitN unitL of school in el cajon</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>what area are within 50 km from family physician services in saskatchewan in canada</t>
+          <t>what areas are within a quarter mile of planned commercial district in gresham</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL from family physician service in saskatchewan in canada</t>
+          <t>what area be within a quarter mile of plan commercial district in gresham</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F96" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>248</v>
+        <v>101</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>what areas in houston are not flood plains?</t>
+          <t>what is the mean center of the fire calls weighted by the priority in fort worth</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>what area in houston be not flood plain ?</t>
+          <t>what be the mean center of the fire call unitN by the priority in fort worth</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>how many luxury hotels are in happy valley ski resort</t>
+          <t>what is the average rating of street pavement for each borough in new york city</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>how many luxury hotel be in happy valley ski resort</t>
+          <t>what be the average rating of street pavement for each borough in new york city</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F98" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>509</v>
+        <v>31</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>which regions of cape peninsula have a monthly rainfall of more than 1000 millimeters</t>
+          <t>what is the euclidean distance to the rivers in crook, deschutes, and jefferson county</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>which region of cape peninsula have a monthly rainfall of more than unitN unitL</t>
+          <t>what be the euclidean distance to the river in crook deschutes and jefferson county</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E99" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>which proposed wind farm is nearest to the high way in scotland?</t>
+          <t>what areas have a population density less than 300 per square kilometer in the uk?</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>which propose wind farm be near to the high way in scotland ?</t>
+          <t>what area have a population density less than unitN per square unitL in the uk ?</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E100" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F100" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>535</v>
+        <v>130</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>which areas have an annual rainfall of more than 1000 millimeters in the cape peninsula?</t>
+          <t>what is the number of hispanics for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>which area have an annual rainfall of more than unitN unitL in the cape peninsula ?</t>
+          <t>what be the number of hispanic for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E101" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F101" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>calculate the weighted average of library patrons for each district in oleander</t>
+          <t>what is the number of households for each precinct in dallas county?</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>calculate the unitN average of library patron for each district in oleander</t>
+          <t>what be the number of household for each precinct in dallas county ?</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E102" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F102" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>what houses are for sale and within 1km from the nearest school (from my current location) in utrecht</t>
+          <t>tell me the literacy rate in africa?</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the near school from my current location in utrecht</t>
+          <t>tell me the literacy rate in africa ?</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>544</v>
+        <v>296</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>what is the number of buildings within 3 minutes of driving time from the fire stations in oleander?</t>
+          <t>calculate the weighted average of library patrons for each district in oleander</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>what be the number of building within unitN unitT of drive time from the fire station in oleander ?</t>
+          <t>calculate the unitN average of library patron for each district in oleander</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E104" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F104" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>which areas are within 300 meters of runways in schiphol airport?</t>
+          <t>what is the number of dwelling units inside the flood zones in oleander</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>which area be within unitN unitL of runway in schiphol airport ?</t>
+          <t>what be the number of dwell unit inside the flood unitN in oleander</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E105" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F105" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>521</v>
+        <v>291</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>what areas in spain have a temperature greater than 0 degrees in celsius?</t>
+          <t>what is the average weighted coordinates of bank branches in oleander?</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>what area in spain have a temperature great than unitN degree in celsius ?</t>
+          <t>what be the average unitN coordinate of bank branch in oleander ?</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E106" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F106" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>tell me the weighted average coordinates of bank branches in oleander</t>
+          <t>tell me the median population age for each census tract in tarrant county texas?</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>tell me the unitN average coordinate of bank branch in oleander</t>
+          <t>tell me the median population age for each census tract in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E107" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F107" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to schools in utrecht</t>
+          <t>what areas have an annual amount of snowfall more than 1000 millimeters in the cape peninsula</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to school in utrecht</t>
+          <t>what area have an annual amount of snowfall more than unitN unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E108" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F108" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>75</v>
+        <v>370</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>what is the interpolation surface of no2 concentration in vancouver</t>
+          <t>what areas have an annual snowfall more than 1000 millimeters in the cape peninsula?</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>what be the interpolation surface of no2 concentration in vancouver</t>
+          <t>what area have an annual snowfall more than unitN unitL in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E109" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F109" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>what is the lung cancer mortality rate of white males for each city in the western usa from 1970 to 1994?</t>
+          <t>tell me the central feature of the bank branches in oleander</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN ?</t>
+          <t>tell me the central feature of the bank branch in oleander</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>which shops are open at 6 pm in happy valley ski resort</t>
+          <t>what's the weighted coordinate average of library patrons for each district in oleander?</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>which shop be open at unitN unitTR in happy valley ski resort</t>
+          <t>what 's the unitN coordinate average of library patron for each district in oleander ?</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>502</v>
+        <v>222</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>what areas have an annual snowfall of more than 1000 millimeters in the cape peninsula</t>
+          <t>tell me the kernel density of traffic accidents in pasadena california</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>what area have an annual snowfall of more than unitN unitL in the cape peninsula</t>
+          <t>tell me the kernel density of traffic accident in pasadena california</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E112" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>563</v>
+        <v>275</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>which areas are within 3 minutes of driving time from the nearest fire station from my current location in oleander?</t>
+          <t>which houses are for sale in utrecht flood zone</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>which area be within unitN unitT of drive time from the near fire station from my current location in oleander ?</t>
+          <t>which house be for sale in utrecht flood unitN</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E113" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F113" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>378</v>
+        <v>16</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>where are the hispanic food stores in tarrant county texas?</t>
+          <t>what is the area of currently mixed use zones in gresham</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>where be the hispanic food store in tarrant county texas ?</t>
+          <t>what be the area of currently mixed use unitN in gresham</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E114" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F114" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>328</v>
+        <v>5</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>tell me the number of dwelling units inside the flood zones in oleander?</t>
+          <t>what areas are not park in houston</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>tell me the number of dwell unit inside the flood unitN in oleander ?</t>
+          <t>what area be not park in houston</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>393</v>
+        <v>96</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>what areas are accessible within two miles of urban land use in loudoun county in the us?</t>
+          <t>tell me weighted average coordinates of bank branches in oleander</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>what area be accessible within unitN mile of urban land use in loudoun county in the u ?</t>
+          <t>tell me unitN average coordinate of bank branch in oleander</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E116" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F116" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>259</v>
+        <v>383</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>tell me not to flood the plains in houston</t>
+          <t>which areas in the cape peninsula have a monthly rainfall of more than 1000 millimeters</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>tell me not to flood the plain in houston</t>
+          <t>which area in the cape peninsula have a monthly rainfall of more than unitN unitL</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E117" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F117" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>69</v>
+        <v>260</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of light rail stop in gresham</t>
+          <t>which wind farms are closest to the roads in scotland?</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of light rail stop in gresham</t>
+          <t>which wind farm be closest to the road in scotland ?</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E118" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F118" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>what houses are for sale outside the flood zone in utrecht</t>
+          <t>which areas are accessible within reach of two miles of urban land use in loudoun county in the us?</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>what house be for sale outside the flood unitN in utrecht</t>
+          <t>which area be accessible within reach of unitN mile of urban land use in loudoun county in the u ?</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E119" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F119" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>what areas are not wetlands in houston?</t>
+          <t>what is the number of households for each precinct in dallas county</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>what area be not wetland in houston ?</t>
+          <t>what be the number of household for each precinct in dallas county</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>478</v>
+        <v>211</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>what areas are within 15 minutes walking distance of a metro station in kochi in india?</t>
+          <t>what is the proportion of people over 65 for each pc4 area in amsterdam?</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>what area be within unitN unitT walk distance of a metro station in kochi in india ?</t>
+          <t>what be the proportion of people over unitN for each pc4 area in amsterdam ?</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>which houses are within 3 minutes driving time from the nearest fire station (from my current location) in oleander</t>
+          <t>what areas are within a mile of main roads in loudoun county in the us?</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>which house be within unitN unitT drive time from the near fire station from my current location in oleander</t>
+          <t>what area be within a mile of main road in loudoun county in the u ?</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E122" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>285</v>
+        <v>379</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>what areas are within a mile of main roads in loudoun county in the united states?</t>
+          <t>which areas in the cape peninsula have an annual rainfall of less than 1000 millimeters?</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>what area be within a mile of main road in loudoun county in the united state ?</t>
+          <t>which area in the cape peninsula have an annual rainfall of less than unitN unitL ?</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E123" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F123" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>what is the number of election votes for each precinct in dallas</t>
+          <t>what areas are outside 250 meters of human settlement in the cape peninsula</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>what be the number of election vote for each precinct in dallas</t>
+          <t>what area be outside unitN unitL of human settlement in the cape peninsula</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E124" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>517</v>
+        <v>152</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>what areas have a monthly rainfall of more than 1000 millimeters in the cape peninsula?</t>
+          <t>what houses are for sale and within 1km from the nearest school (from my current location) in utrecht</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>what area have a monthly rainfall of more than unitN unitL in the cape peninsula ?</t>
+          <t>what house be for sale and within unitL from the near school from my current location in utrecht</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E125" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F125" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>482</v>
+        <v>252</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>what areas have a slope larger than 15 percent and smaller than 60 percent in the cape peninsula?</t>
+          <t>which areas are within a quarter mile of a store in gresham?</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>what area have a slope large than unitN percent and small than unitN percent in the cape peninsula ?</t>
+          <t>which area be within a quarter mile of a store in gresham ?</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E126" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>308</v>
+        <v>36</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>which wind farm proposals are closest to the high road in scotland?</t>
+          <t>what areas are not green belt areas in houston</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>which wind farm proposal be closest to the high road in scotland ?</t>
+          <t>what area be not green belt area in houston</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E127" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F127" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>what are the land use inside the flood zones in oleander</t>
+          <t>which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in utrecht</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>what be the land use inside the flood unitN in oleander</t>
+          <t>which house be large than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E128" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F128" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>163</v>
+        <v>326</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>what areas do have slope larger than 10 percent in spain</t>
+          <t>what is the number of hispanics for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>what area do have slope large than unitN percent in spain</t>
+          <t>what be the number of hispanic for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E129" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F129" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>where are the auto accidents in texas tarrant county?</t>
+          <t>what is the point density of trees in parks in oleander</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>where be the auto accident in texas tarrant county ?</t>
+          <t>what be the point density of tree in park in oleander</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E130" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>541</v>
+        <v>83</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>tell me the number of buildings within 3 minutes of driving time from the fire stations in oleander?</t>
+          <t>what houses are for sale outside flood zone in utrecht</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>tell me the number of building within unitN unitT of drive time from the fire station in oleander ?</t>
+          <t>what house be for sale outside flood unitN in utrecht</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E131" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F131" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>117</v>
+        <v>390</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>what reachable areas are within a quarter mile of planned commercial district in gresham</t>
+          <t>show the areas within a four-minute drive of each fire station at 2 am on tuesday in utrecht?</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>what reachable area be within a quarter mile of plan commercial district in gresham</t>
+          <t>show the area within a unitT drive of each fire station at unitN be on dayofaweek in utrecht ?</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E132" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F132" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>what is the total population for each census block in tarrant county texas?</t>
+          <t>which areas in houston are not considered green belt areas?</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>what be the total population for each census block in tarrant county texas ?</t>
+          <t>which area in houston be not consider green belt area ?</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>410</v>
+        <v>148</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>what liquor stores are within 1000 feet of the parks in el cajon</t>
+          <t>what is the population density in california</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>what liquor store be within unitN unitL of the park in el cajon</t>
+          <t>what be the population density in california</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E134" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F134" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>187</v>
+        <v>393</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>what areas are within 3 minutes of driving time from the nearest fire station (from my current location) in oleander</t>
+          <t>which houses are within 3 minutes of the nearest fire station from my current location in oleander? i</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>what area be within unitN unitT of drive time from the near fire station from my current location in oleander</t>
+          <t>which house be within unitN unitT of the near fire station from my current location in oleander ? i</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3678,119 +3678,119 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>what is the number of luxury hotels in happy valley ski resort</t>
+          <t>which areas are within 500 meters from universities in karbala in iraq?</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>what be the number of luxury hotel in happy valley ski resort</t>
+          <t>which area be within unitN unitL from university in karbala in iraq ?</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F136" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>what is the mean center of the fire calls for each alarm territory in fort worth in 2017</t>
+          <t>what are the two fire stations closest to each school in utrecht</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>what be the mean center of the fire call for each alarm territory in fort worth in unitN</t>
+          <t>what be the unitN fire station closest to each school in utrecht</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E137" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F137" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>what areas have an annual snowfall of more than 1000 millimeters in the cape peninsula?</t>
+          <t>what is the average rating of street pavement for each borough in new york city?</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>what area have an annual snowfall of more than unitN unitL in the cape peninsula ?</t>
+          <t>what be the average rating of street pavement for each borough in new york city ?</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E138" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F138" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>what areas are not classified as flood plains in houston?</t>
+          <t>which areas are within 100 metres of the cameras in salford?</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>what area be not classify a flood plain in houston ?</t>
+          <t>which area be within unitN metre of the camera in salford ?</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E139" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F139" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>what houses are for sale and within 0.5km from the main roads in utrecht</t>
+          <t>what areas are within 2000 meters of the playgrounds in oleander</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the main road in utrecht</t>
+          <t>what area be within unitN unitL of the playground in oleander</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E140" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F140" t="n">
         <v>8</v>
@@ -3798,664 +3798,664 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>which wind farm proposals are closest to roads in scotland?</t>
+          <t>show me the median people age for each census tract in tarrant county in texas</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>which wind farm proposal be closest to road in scotland ?</t>
+          <t>show me the median people age for each census tract in tarrant county in texas</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E141" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F141" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>320</v>
+        <v>49</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>where are the accidents on the slopes in the happy valley</t>
+          <t>what areas are within 100 meters of the hospitals in oleander</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>where be the accident on the slope in the happy valley</t>
+          <t>what area be within unitN unitL of the hospital in oleander</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E142" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F142" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>350</v>
+        <v>55</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>what weighted average coordinates of bank branches in oleander?</t>
+          <t>what areas are outside 300 meters from streams in houston</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>what unitN average coordinate of bank branch in oleander ?</t>
+          <t>what area be outside unitN unitL from stream in houston</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E143" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F143" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>464</v>
+        <v>166</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>what areas have a population density less than 300 per square kilometer in the uk?</t>
+          <t>what areas have an annual snowfall more than 1000 millimeters in the cape peninsula</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>what area have a population density less than unitN per square unitL in the uk ?</t>
+          <t>what area have an annual snowfall more than unitN unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E144" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F144" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>386</v>
+        <v>75</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>where the uk has no conservation areas?</t>
+          <t>what is the interpolated surface of ozone concentration in california</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>where the uk have no conservation area ?</t>
+          <t>what be the interpolate surface of unitN concentration in california</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E145" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F145" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to the subway stations in amsterdam?</t>
+          <t>tell me the total population for each census block in tarrant county texas?</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to the subway station in amsterdam ?</t>
+          <t>tell me the total population for each census block in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F146" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>281</v>
+        <v>6</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>what areas are within 2000 meters of the playgrounds in oleander?</t>
+          <t>which shops are open at 6 pm in happy valley ski resort</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the playground in oleander ?</t>
+          <t>which shop be open at unitN unitTR in happy valley ski resort</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>474</v>
+        <v>270</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>which houses are within 2 minutes of the fire stations from my current location in oleander?</t>
+          <t>what houses are for sale outside the flood zone in utrecht</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>which house be within unitN unitT of the fire station from my current location in oleander ?</t>
+          <t>what house be for sale outside the flood unitN in utrecht</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E148" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F148" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>which areas are within 100 meters of hospitals in oleander?</t>
+          <t>what is the number of high school students for each senior high school district in oleander?</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>which area be within unitN unitL of hospital in oleander ?</t>
+          <t>what be the number of high school student for each senior high school district in oleander ?</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E149" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F149" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>559</v>
+        <v>273</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>what areas are accessible by car from the nearest fire station from my current location in oleander?</t>
+          <t>where are the accidents on the pistes in the happy valley</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>what area be accessible by car from the near fire station from my current location in oleander ?</t>
+          <t>where be the accident on the piste in the happy valley</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E150" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F150" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>555</v>
+        <v>209</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>which house is within 3 minutes driving time from the nearest fire station from my current location in oleander?</t>
+          <t>where are the auto accidents in tarrant county texas</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>which house be within unitN unitT drive time from the near fire station from my current location in oleander ?</t>
+          <t>where be the auto accident in tarrant county texas</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>what areas are within two miles of urban landuse in loudoun county in us</t>
+          <t>calculate the weighted coordinate average of library patrons for each district in oleander</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>what area be within unitN mile of urban landuse in loudoun county in u</t>
+          <t>calculate the unitN coordinate average of library patron for each district in oleander</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E152" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F152" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>58</v>
+        <v>307</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>what areas are within 100 meters of the hospitals in oleander</t>
+          <t>where are luxury hotels with more than 20 bedrooms in happy valley ski resort?</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the hospital in oleander</t>
+          <t>where be luxury hotel with more than unitN bedroom in happy valley ski resort ?</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E153" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F153" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>tell me the density of kernels in traffic accidents in pasadena california</t>
+          <t>tell me the median age for each census tract in tarrant county texas?</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>tell me the density of kernel in traffic accident in pasadena california</t>
+          <t>tell me the median age for each census tract in tarrant county texas ?</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E154" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F154" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>351</v>
+        <v>168</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>what are weighted average coordinates of bank branches in oleander?</t>
+          <t>what areas do have temperature in celsius larger than 0 degrees in spain</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>what be unitN average coordinate of bank branch in oleander ?</t>
+          <t>what area do have temperature in celsius large than unitN degree in spain</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E155" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F155" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>460</v>
+        <v>322</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>what areas in the uk have a population density of less than 300 per square kilometer?</t>
+          <t>tell me the number of households in each precinct of dallas county</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>what area in the uk have a population density of less than unitN per square unitL ?</t>
+          <t>tell me the number of household in each precinct of dallas county</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E156" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F156" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>what is the number of households for each precinct in dallas county</t>
+          <t>what areas are outside 60 meters from water body in houston</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>what be the number of household for each precinct in dallas county</t>
+          <t>what area be outside unitN unitL from water body in houston</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E157" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F157" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>154</v>
+        <v>340</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>what houses are for sale and within 1km from the nearest subway station (from my current location) in utrecht</t>
+          <t>what is the median household income for each census block in tarrant county in texas?</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the near subway station from my current location in utrecht</t>
+          <t>what be the median household income for each census block in tarrant county in texas ?</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E158" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F158" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>453</v>
+        <v>92</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>what is the median household income for each census block in tarrant county in texas?</t>
+          <t>what houses are for sale in urban areas in utrecht</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>what be the median household income for each census block in tarrant county in texas ?</t>
+          <t>what house be for sale in urban area in utrecht</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E159" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F159" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>which houses are to be sold in utrecht</t>
+          <t>which visitor facilities are in the happy valley</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>which house be to be sell in utrecht</t>
+          <t>which visitor facility be in the happy valley</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>52</v>
+        <v>384</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>what areas are outside 60 meters from residence in houston</t>
+          <t>what regions of cape peninsula have a monthly rainfall of more than 1000 millimeters?</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL from residence in houston</t>
+          <t>what region of cape peninsula have a monthly rainfall of more than unitN unitL ?</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E161" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F161" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>456</v>
+        <v>195</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>what is the median age for each census tract in tarrant county in texas?</t>
+          <t>what is the population for each city in aichi prefecture in japan?</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>what be the median age for each census tract in tarrant county in texas ?</t>
+          <t>what be the population for each city in aichi prefecture in japan ?</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>201</v>
+        <v>343</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>in texas where are auto accidents occurring in tarrant county</t>
+          <t>what is the number of pedestrians injured in each census tract in georgia from 2000 to 2007?</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>in texas where be auto accident occur in tarrant county</t>
+          <t>what be the number of pedestrian injured in each census tract in georgia from unitN to unitN ?</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E163" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>87</v>
+        <v>302</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>what houses are larger than 30 square meters in urban areas in utrecht</t>
+          <t>where are the hispanic food stores in tarrant county texas</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>what house be large than unitN square unitL in urban area in utrecht</t>
+          <t>where be the hispanic food store in tarrant county texas</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E164" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F164" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>451</v>
+        <v>120</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>what's the median household income for each census block in tarrant county texas?</t>
+          <t>what reachable areas are within a quarter mile of planned commercial district in gresham</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>what 's the median household income for each census block in tarrant county texas ?</t>
+          <t>what reachable area be within a quarter mile of plan commercial district in gresham</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E165" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F165" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>which proposed wind farm is the closest to the high way in scotland?</t>
+          <t>which areas are within 10 miles of current transmission lines with a voltage greater than 400 in colorado</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>which propose wind farm be the closest to the high way in scotland ?</t>
+          <t>which area be within unitN mile of current transmission line with a voltage great than unitN in colorado</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E166" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F166" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>what areas are within 100 meters of cameras in salford</t>
+          <t>where are the industrial areas in utrecht</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of camera in salford</t>
+          <t>where be the industrial area in utrecht</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E167" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F167" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>which wind farm proposals in scotland are closest to the high way?</t>
+          <t>which wind farm proposals are closest to the high way in scotland?</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>which wind farm proposal in scotland be closest to the high way ?</t>
+          <t>which wind farm proposal be closest to the high way in scotland ?</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -4470,544 +4470,544 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>71</v>
+        <v>386</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>what is the density surface of crape myrtles in oleander</t>
+          <t>how many buildings are within 3 minutes of driving time from the fire stations in oleander?</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>what be the density surface of crape myrtle in oleander</t>
+          <t>how many building be within unitN unitT of drive time from the fire station in oleander ?</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E169" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F169" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>523</v>
+        <v>198</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>what areas in spain have a temperature in celsius greater than 0 degrees?</t>
+          <t>tell me the lung cancer mortality rate for white males in each city in the western us from 1970 to 1994?</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>what area in spain have a temperature in celsius great than unitN degree ?</t>
+          <t>tell me the lung cancer mortality rate for white male in each city in the western u from unitN to unitN ?</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F170" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>457</v>
+        <v>115</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>what density of fire calls in oleander?</t>
+          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>what density of fire call in oleander ?</t>
+          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E171" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F171" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>what is weighted average coordinates of bank branches in oleander?</t>
+          <t>which wind farm proposals are nearest to the high way in scotland</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>what be unitN average coordinate of bank branch in oleander ?</t>
+          <t>which wind farm proposal be near to the high way in scotland</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E172" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F172" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>what areas are within a mile of main roads in loudoun county in the united states of america</t>
+          <t>tell me the population of each city in the aichi prefecture in japan?</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>what area be within a mile of main road in loudoun county in the united state of america</t>
+          <t>tell me the population of each city in the aichi prefecture in japan ?</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>what is the number of hispanics for each census block in tarrant county texas?</t>
+          <t>which wind farm proposals are nearest to the bike lane in scotland</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>what be the number of hispanic for each census block in tarrant county texas ?</t>
+          <t>which wind farm proposal be near to the bike lane in scotland</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E174" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F174" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>531</v>
+        <v>74</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>which regions of cape peninsula have an annual rainfall of more than 1000 millimeters</t>
+          <t>what is the density surface of crape myrtles in oleander</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>which region of cape peninsula have an annual rainfall of more than unitN unitL</t>
+          <t>what be the density surface of crape myrtle in oleander</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E175" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F175" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>480</v>
+        <v>87</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>what areas have a slope greater than 15 percent and less than 60 percent in the cape peninsula?</t>
+          <t>which land use contains meteorological stations in netherlands</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>what area have a slope great than unitN percent and less than unitN percent in the cape peninsula ?</t>
+          <t>which land use contains meteorological station in netherlands</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E176" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F176" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>68</v>
+        <v>363</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>what areas are within 1000 meters of roads in assam in india</t>
+          <t>which areas in spain have a slope greater than 10 percent</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of road in assam in india</t>
+          <t>which area in spain have a slope great than unitN percent</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E177" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F177" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>what is the density surface of temperature measurements in oleander city</t>
+          <t>which proposed wind farm are nearest to the high way in scotland</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>what be the density surface of temperature measurement in oleander city</t>
+          <t>which propose wind farm be near to the high way in scotland</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E178" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F178" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>423</v>
+        <v>303</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>list the number of electoral votes for each precinct in dallas?</t>
+          <t>where are commercial areas in amsterdam?</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>list the number of electoral vote for each precinct in dallas ?</t>
+          <t>where be commercial area in amsterdam ?</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E179" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F179" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>what is the mean center of customers weighted by the number of transactions in oleander city</t>
+          <t>what areas have a slope greater than 15 percent and smaller than 60 percent in the cape peninsula?</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>what be the mean center of customer unitN by the number of transaction in oleander city</t>
+          <t>what area have a slope great than unitN percent and small than unitN percent in the cape peninsula ?</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="F180" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>which areas are accessible within two miles of urban land use in loudoun county in the us?</t>
+          <t>tell me the median household income for each census block in tarrant county texas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>which area be accessible within unitN mile of urban land use in loudoun county in the u ?</t>
+          <t>tell me the median household income for each census block in tarrant county texas</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E181" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F181" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>how many households are there for each precinct in dallas county?</t>
+          <t>which areas in the cape peninsula have an annual rainfall of more than 1000 millimeters?</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>how many household be there for each precinct in dallas county ?</t>
+          <t>which area in the cape peninsula have an annual rainfall of more than unitN unitL ?</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E182" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F182" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>which areas in the cape peninsula have an annual rainfall of more than 1000 millimeters?</t>
+          <t>where are rocky areas in spain?</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>which area in the cape peninsula have an annual rainfall of more than unitN unitL ?</t>
+          <t>where be rocky area in spain ?</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E183" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F183" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>345</v>
+        <v>159</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>tell me the weighted average coordinates of the branches of the oleander bank</t>
+          <t>what areas are within 20 minutes driving time from flower stores in oleander</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>tell me the unitN average coordinate of the branch of the oleander bank</t>
+          <t>what area be within unitN unitT drive time from flower store in oleander</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E184" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F184" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>421</v>
+        <v>204</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>what's the number of households for each precinct in dallas county?</t>
+          <t>what was the number of arson cases in fort worth on february 2004?</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>what 's the number of household for each precinct in dallas county ?</t>
+          <t>what be the number of arson case in fort worth on montInYe unitN ?</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E185" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F185" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>what are the four fire stations within 3 minutes of travel time from a fire in san francisco</t>
+          <t>what areas are not classified as flood plains in houston?</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>what be the unitN fire station within unitN unitT of travel time from a fire in san francisco</t>
+          <t>what area be not classify a flood plain in houston ?</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E186" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F186" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>537</v>
+        <v>98</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>which schools are not accessible in 3 minutes by car from a fire station in fort worth?</t>
+          <t>show me the central feature of bank branches in oleander</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>which school be not accessible in unitN unitT by car from a fire station in fort worth ?</t>
+          <t>show me the central feature of bank branch in oleander</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E187" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F187" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>228</v>
+        <v>357</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>which houses are to be sold in utrecht?</t>
+          <t>what is population density in california?</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>which house be to be sell in utrecht ?</t>
+          <t>what be population density in california ?</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E188" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F188" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>305</v>
+        <v>109</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>which proposed wind farm is closest to the high way in scotland?</t>
+          <t>where are the ski pistes in happy valley ski resort</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>which propose wind farm be closest to the high way in scotland ?</t>
+          <t>where be the ski piste in happy valley ski resort</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E189" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F189" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>which areas are within a mile of main roads in loudoun county in the united states?</t>
+          <t>how many luxury hotels are in happy valley ski resort?</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>which area be within a mile of main road in loudoun county in the united state ?</t>
+          <t>how many luxury hotel be in happy valley ski resort ?</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance to the rivers in crook deschutes and jefferson counties?</t>
+          <t>tell me the euclidean distance from hospitals in oleander</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>tell me the euclidean distance to the river in crook deschutes and jefferson county ?</t>
+          <t>tell me the euclidean distance from hospital in oleander</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -5022,40 +5022,40 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>what is the hot spot of house vacancy rate in usa in 2019</t>
+          <t>what is the density surface of rainfall measurements in the netherlands</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>what be the hot spot of house vacancy rate in usa in unitN</t>
+          <t>what be the density surface of rainfall measurement in the netherlands</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E192" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F192" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>which wind farm is closest to the high way in scotland?</t>
+          <t>which wind farm proposals are closest to the roads in scotland?</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>which wind farm be closest to the high way in scotland ?</t>
+          <t>which wind farm proposal be closest to the road in scotland ?</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -5070,16 +5070,16 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>tell me the central feature of the banks branches in oleander?</t>
+          <t>tell me the central feature of the fire station in fort worth?</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>tell me the central feature of the bank branch in oleander ?</t>
+          <t>tell me the central feature of the fire station in fort worth ?</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -5094,2546 +5094,194 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>what areas do have population density less than 300 per square kilometer in uk</t>
+          <t>what liquor stores are within 1000 feet of parks in el cajon?</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>what area do have population density less than unitN per square unitL in uk</t>
+          <t>what liquor store be within unitN unitL of park in el cajon ?</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E195" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F195" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>what is the population for each city in aichi prefecture in japan?</t>
+          <t>what houses are for sale in flood zone in utrecht</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>what be the population for each city in aichi prefecture in japan ?</t>
+          <t>what house be for sale in flood unitN in utrecht</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>what is the euclidean distance to subway stations in amsterdam</t>
+          <t>what areas have an aspect larger than 45 degree and smaller than 135 degrees in the cape peninsula</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to subway station in amsterdam</t>
+          <t>what area have an aspect large than unitN degree and small than unitN degree in the cape peninsula</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E197" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="F197" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>what is the point density of trees in parks in oleander</t>
+          <t>what is the density surface of temperature measurements in oleander city</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>what be the point density of tree in park in oleander</t>
+          <t>what be the density surface of temperature measurement in oleander city</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E198" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F198" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>what areas are within a quarter mile of a restaurant in gresham?</t>
+          <t>tell me the cervix cancer mortality rate of white females for each city in the western usa from 1970 to 1994?</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of a restaurant in gresham ?</t>
+          <t>tell me the cervix cancer mortality rate of white female for each city in the western usa from unitN to unitN ?</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E199" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F199" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>what are the two fire stations closest to each school in utrecht</t>
+          <t>what areas are within 2000 meters of the playgrounds in oleander?</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>what be the unitN fire station closest to each school in utrecht</t>
+          <t>what area be within unitN unitL of the playground in oleander ?</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E200" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F200" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>what is the median number of family member for each census block in tarrant county in texas</t>
+          <t>what areas are within 3 minutes of by car from the nearest fire station (from my current location) in oleander</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>what be the median number of family member for each census block in tarrant county in texas</t>
+          <t>what area be within unitN unitT of by car from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E201" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F201" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>481</v>
+        <v>371</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>what areas have a slope greater than 15 percent and smaller than 60 percent in the cape peninsula?</t>
+          <t>which areas in the cape peninsula have an annual amount of snowfall more than 1000 millimeters</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>what area have a slope great than unitN percent and small than unitN percent in the cape peninsula ?</t>
+          <t>which area in the cape peninsula have an annual amount of snowfall more than unitN unitL</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E202" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F202" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>what areas are green belt areas in houston</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>what area be green belt area in houston</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>6</v>
-      </c>
-      <c r="E203" t="n">
-        <v>6</v>
-      </c>
-      <c r="F203" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>what was the number of arson cases in fort worth in february 2004?</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>what be the number of arson case in fort worth in montInYe unitN ?</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>2</v>
-      </c>
-      <c r="E204" t="n">
-        <v>2</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>tell me the euclidean distance from recreational sites in utrecht?</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>tell me the euclidean distance from recreational site in utrecht ?</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>5</v>
-      </c>
-      <c r="E205" t="n">
-        <v>5</v>
-      </c>
-      <c r="F205" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>is there a percentage of people over 65 in each pc4 area in amsterdam?</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>be there a percentage of people over unitN in each pc4 area in amsterdam ?</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>2</v>
-      </c>
-      <c r="E206" t="n">
-        <v>2</v>
-      </c>
-      <c r="F206" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>which vacant lots are within 1 mile of a freeway in hillsboro</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>which vacant lot be within unitN mile of a freeway in hillsboro</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>21</v>
-      </c>
-      <c r="E207" t="n">
-        <v>21</v>
-      </c>
-      <c r="F207" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>which proposed wind farm is closest to the high road in scotland?</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>which propose wind farm be closest to the high road in scotland ?</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>13</v>
-      </c>
-      <c r="E208" t="n">
-        <v>13</v>
-      </c>
-      <c r="F208" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>which houses are larger than 30 square meters and within 1km of the nearest school from my current location in utrecht?</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>which house be large than unitN square unitL and within unitL of the near school from my current location in utrecht ?</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>39</v>
-      </c>
-      <c r="E209" t="n">
-        <v>39</v>
-      </c>
-      <c r="F209" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>what is the land use in netherlands</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>what be the land use in netherlands</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0</v>
-      </c>
-      <c r="F210" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>show me the central feature of bank branches in oleander</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>show me the central feature of bank branch in oleander</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
-        <v>15</v>
-      </c>
-      <c r="E211" t="n">
-        <v>15</v>
-      </c>
-      <c r="F211" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>what houses are available for sale outside the flood zone in utrecht?</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>what house be available for sale outside the flood unitN in utrecht ?</t>
-        </is>
-      </c>
-      <c r="D212" t="n">
-        <v>14</v>
-      </c>
-      <c r="E212" t="n">
-        <v>14</v>
-      </c>
-      <c r="F212" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>what areas are at least 3000 meters from the rivers in spain</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>what area be at least unitN unitL from the river in spain</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>8</v>
-      </c>
-      <c r="E213" t="n">
-        <v>8</v>
-      </c>
-      <c r="F213" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>where are the ski pistes in happy valley ski resort</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>where be the ski piste in happy valley ski resort</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>18</v>
-      </c>
-      <c r="E214" t="n">
-        <v>18</v>
-      </c>
-      <c r="F214" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>which vacant lots are located within 1 mile of a freeway in hillsboro?</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>which vacant lot be locate within unitN mile of a freeway in hillsboro ?</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>21</v>
-      </c>
-      <c r="E215" t="n">
-        <v>21</v>
-      </c>
-      <c r="F215" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>what areas are within a quarter mile of the planned commercial district in gresham?</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>what area be within a quarter mile of the plan commercial district in gresham ?</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>19</v>
-      </c>
-      <c r="E216" t="n">
-        <v>19</v>
-      </c>
-      <c r="F216" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>which areas have a monthly rainfall of more than 1000 millimeters in the cape peninsula?</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>which area have a monthly rainfall of more than unitN unitL in the cape peninsula ?</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
         <v>46</v>
-      </c>
-      <c r="E217" t="n">
-        <v>46</v>
-      </c>
-      <c r="F217" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>which areas are not green belt areas in houston?</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>which area be not green belt area in houston ?</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>6</v>
-      </c>
-      <c r="E218" t="n">
-        <v>6</v>
-      </c>
-      <c r="F218" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>where are the luxury hotels with more than 20 bedrooms in the happy valley ski resort</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>where be the luxury hotel with more than unitN bedroom in the happy valley ski resort</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>18</v>
-      </c>
-      <c r="E219" t="n">
-        <v>18</v>
-      </c>
-      <c r="F219" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>list the total number of votes in a dallas election?</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>list the total number of vote in a dallas election ?</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>2</v>
-      </c>
-      <c r="E220" t="n">
-        <v>2</v>
-      </c>
-      <c r="F220" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>what's the number of hispanics for each census block in tarrant county texas?</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>what 's the number of hispanic for each census block in tarrant county texas ?</t>
-        </is>
-      </c>
-      <c r="D221" t="n">
-        <v>27</v>
-      </c>
-      <c r="E221" t="n">
-        <v>27</v>
-      </c>
-      <c r="F221" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>what is the median people age for each census tract in tarrant county in texas</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>what be the median people age for each census tract in tarrant county in texas</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>28</v>
-      </c>
-      <c r="E222" t="n">
-        <v>28</v>
-      </c>
-      <c r="F222" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>which areas are within 1000 feet of schools in el cajon?</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>which area be within unitN unitL of school in el cajon ?</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>8</v>
-      </c>
-      <c r="E223" t="n">
-        <v>8</v>
-      </c>
-      <c r="F223" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>what is the tornado path in oleander in april 2011</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>what be the tornado path in oleander in montInYe unitN</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>2</v>
-      </c>
-      <c r="E224" t="n">
-        <v>2</v>
-      </c>
-      <c r="F224" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>which wind farm proposals are closest to the roads in scotland?</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>which wind farm proposal be closest to the road in scotland ?</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>13</v>
-      </c>
-      <c r="E225" t="n">
-        <v>13</v>
-      </c>
-      <c r="F225" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>what is the number of high school students for each senior high school district in oleander?</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>what be the number of high school student for each senior high school district in oleander ?</t>
-        </is>
-      </c>
-      <c r="D226" t="n">
-        <v>27</v>
-      </c>
-      <c r="E226" t="n">
-        <v>27</v>
-      </c>
-      <c r="F226" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>which areas are within 500 meters of universities in karbala in iraq?</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>which area be within unitN unitL of university in karbala in iraq ?</t>
-        </is>
-      </c>
-      <c r="D227" t="n">
-        <v>8</v>
-      </c>
-      <c r="E227" t="n">
-        <v>8</v>
-      </c>
-      <c r="F227" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>what areas are within 20 minutes driving time from flower stores in oleander</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>what area be within unitN unitT drive time from flower store in oleander</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>42</v>
-      </c>
-      <c r="E228" t="n">
-        <v>42</v>
-      </c>
-      <c r="F228" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>which wind farm proposals are nearest to the high way in scotland</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>which wind farm proposal be near to the high way in scotland</t>
-        </is>
-      </c>
-      <c r="D229" t="n">
-        <v>13</v>
-      </c>
-      <c r="E229" t="n">
-        <v>13</v>
-      </c>
-      <c r="F229" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>what areas are within 800 meter from major highways in houston</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>what area be within unitN unitL from major highway in houston</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>8</v>
-      </c>
-      <c r="E230" t="n">
-        <v>8</v>
-      </c>
-      <c r="F230" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>how many streetlights for each district in san diego</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>how many streetlight for each district in san diego</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>14</v>
-      </c>
-      <c r="E231" t="n">
-        <v>14</v>
-      </c>
-      <c r="F231" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>what is the lung cancer mortality rate of white males for each city in the western usa from 1970 to 1994</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>2</v>
-      </c>
-      <c r="E232" t="n">
-        <v>2</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>what is the number of hispanics for each census block in tarrant county in texas</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>what be the number of hispanic for each census block in tarrant county in texas</t>
-        </is>
-      </c>
-      <c r="D233" t="n">
-        <v>27</v>
-      </c>
-      <c r="E233" t="n">
-        <v>27</v>
-      </c>
-      <c r="F233" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>what liquor stores are within 1000 foot of schools in el cajon</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>what liquor store be within unitN unitL of school in el cajon</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>21</v>
-      </c>
-      <c r="E234" t="n">
-        <v>21</v>
-      </c>
-      <c r="F234" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>what areas are within 1000 feet of schools in el cajon?</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>what area be within unitN unitL of school in el cajon ?</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="n">
-        <v>8</v>
-      </c>
-      <c r="F235" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>where are the luxury hotels with more than 20 rooms in the happy valley ski resort</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>where be the luxury hotel with more than unitN room in the happy valley ski resort</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>18</v>
-      </c>
-      <c r="E236" t="n">
-        <v>18</v>
-      </c>
-      <c r="F236" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>which houses are available in utrecht?</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>which house be available in utrecht ?</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>2</v>
-      </c>
-      <c r="E237" t="n">
-        <v>2</v>
-      </c>
-      <c r="F237" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>what is the median household income for each census block in tarrant county texas?</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>what be the median household income for each census block in tarrant county texas ?</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>28</v>
-      </c>
-      <c r="E238" t="n">
-        <v>28</v>
-      </c>
-      <c r="F238" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>what was the number of arson cases in fort worth on february 2004?</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>what be the number of arson case in fort worth on montInYe unitN ?</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>2</v>
-      </c>
-      <c r="E239" t="n">
-        <v>2</v>
-      </c>
-      <c r="F239" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>what is the mean center of the fire calls weighted by the priority in fort worth</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>what be the mean center of the fire call unitN by the priority in fort worth</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>16</v>
-      </c>
-      <c r="E240" t="n">
-        <v>16</v>
-      </c>
-      <c r="F240" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>where are the fire stations in utrecht</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>where be the fire station in utrecht</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>18</v>
-      </c>
-      <c r="E241" t="n">
-        <v>18</v>
-      </c>
-      <c r="F241" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>what areas are within a quarter mile of a restaurant in gresham</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>what area be within a quarter mile of a restaurant in gresham</t>
-        </is>
-      </c>
-      <c r="D242" t="n">
-        <v>8</v>
-      </c>
-      <c r="E242" t="n">
-        <v>8</v>
-      </c>
-      <c r="F242" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>what areas in spain have temperatures below 0 degrees?</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>what area in spain have temperature below unitN degree ?</t>
-        </is>
-      </c>
-      <c r="D243" t="n">
-        <v>46</v>
-      </c>
-      <c r="E243" t="n">
-        <v>46</v>
-      </c>
-      <c r="F243" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>where are hispanic food stores in tarrant county in texas?</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>where be hispanic food store in tarrant county in texas ?</t>
-        </is>
-      </c>
-      <c r="D244" t="n">
-        <v>18</v>
-      </c>
-      <c r="E244" t="n">
-        <v>18</v>
-      </c>
-      <c r="F244" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>which areas have an annual snowfall more than 1000 millimeters in the cape peninsula?</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>which area have an annual snowfall more than unitN unitL in the cape peninsula ?</t>
-        </is>
-      </c>
-      <c r="D245" t="n">
-        <v>46</v>
-      </c>
-      <c r="E245" t="n">
-        <v>46</v>
-      </c>
-      <c r="F245" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>what areas are not classified as floodplains in houston?</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>what area be not classify a floodplain in houston ?</t>
-        </is>
-      </c>
-      <c r="D246" t="n">
-        <v>6</v>
-      </c>
-      <c r="E246" t="n">
-        <v>6</v>
-      </c>
-      <c r="F246" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>what areas in houston are not green belt areas?</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>what area in houston be not green belt area ?</t>
-        </is>
-      </c>
-      <c r="D247" t="n">
-        <v>6</v>
-      </c>
-      <c r="E247" t="n">
-        <v>6</v>
-      </c>
-      <c r="F247" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>where are the luxury hotels with more than 20 bedrooms in happy valley ski resort?</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort ?</t>
-        </is>
-      </c>
-      <c r="D248" t="n">
-        <v>18</v>
-      </c>
-      <c r="E248" t="n">
-        <v>18</v>
-      </c>
-      <c r="F248" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>what is the number of elderly people for each neighborhood in amsterdam</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>what be the number of elderly people for each neighborhood in amsterdam</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>27</v>
-      </c>
-      <c r="E249" t="n">
-        <v>27</v>
-      </c>
-      <c r="F249" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>what areas have an aspect larger than 45 degree and smaller than 135 degrees in the cape peninsula</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>what area have an aspect large than unitN degree and small than unitN degree in the cape peninsula</t>
-        </is>
-      </c>
-      <c r="D250" t="n">
-        <v>44</v>
-      </c>
-      <c r="E250" t="n">
-        <v>44</v>
-      </c>
-      <c r="F250" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>what's the number of high school students for each senior high school district in oleander?</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>what 's the number of high school student for each senior high school district in oleander ?</t>
-        </is>
-      </c>
-      <c r="D251" t="n">
-        <v>27</v>
-      </c>
-      <c r="E251" t="n">
-        <v>27</v>
-      </c>
-      <c r="F251" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>what is the number of injured pedestrians for each census tract in georgia from 2000 to 2007?</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>what be the number of injured pedestrian for each census tract in georgia from unitN to unitN ?</t>
-        </is>
-      </c>
-      <c r="D252" t="n">
-        <v>28</v>
-      </c>
-      <c r="E252" t="n">
-        <v>28</v>
-      </c>
-      <c r="F252" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>what areas are not designated as green belt areas in houston?</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>what area be not designate a green belt area in houston ?</t>
-        </is>
-      </c>
-      <c r="D253" t="n">
-        <v>6</v>
-      </c>
-      <c r="E253" t="n">
-        <v>6</v>
-      </c>
-      <c r="F253" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>what is the land use in the happy valley resort</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>what be the land use in the happy valley resort</t>
-        </is>
-      </c>
-      <c r="D254" t="n">
-        <v>0</v>
-      </c>
-      <c r="E254" t="n">
-        <v>0</v>
-      </c>
-      <c r="F254" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>which schools are not within 3 minutes of driving time of a fire station in fort worth?</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>which school be not within unitN unitT of drive time of a fire station in fort worth ?</t>
-        </is>
-      </c>
-      <c r="D255" t="n">
-        <v>50</v>
-      </c>
-      <c r="E255" t="n">
-        <v>50</v>
-      </c>
-      <c r="F255" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>where are the hispanic food stores in tarrant county in texas</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>where be the hispanic food store in tarrant county in texas</t>
-        </is>
-      </c>
-      <c r="D256" t="n">
-        <v>18</v>
-      </c>
-      <c r="E256" t="n">
-        <v>18</v>
-      </c>
-      <c r="F256" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>which areas are reachable within 3 minutes by car from the nearest fire station from my current location in oleander?</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>which area be reachable within unitN unitT by car from the near fire station from my current location in oleander ?</t>
-        </is>
-      </c>
-      <c r="D257" t="n">
-        <v>53</v>
-      </c>
-      <c r="E257" t="n">
-        <v>53</v>
-      </c>
-      <c r="F257" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>what is the number of dwelling units in the flood zones in oleander?</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>what be the number of dwell unit in the flood unitN in oleander ?</t>
-        </is>
-      </c>
-      <c r="D258" t="n">
-        <v>14</v>
-      </c>
-      <c r="E258" t="n">
-        <v>14</v>
-      </c>
-      <c r="F258" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>what houses are less than 30 square meters in urban areas in utrecht</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>what house be less than unitN square unitL in urban area in utrecht</t>
-        </is>
-      </c>
-      <c r="D259" t="n">
-        <v>14</v>
-      </c>
-      <c r="E259" t="n">
-        <v>14</v>
-      </c>
-      <c r="F259" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>what areas are not green belts in houston?</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>what area be not green belt in houston ?</t>
-        </is>
-      </c>
-      <c r="D260" t="n">
-        <v>6</v>
-      </c>
-      <c r="E260" t="n">
-        <v>6</v>
-      </c>
-      <c r="F260" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>what areas are within 1000 meters of the schools in oleander?</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>what area be within unitN unitL of the school in oleander ?</t>
-        </is>
-      </c>
-      <c r="D261" t="n">
-        <v>8</v>
-      </c>
-      <c r="E261" t="n">
-        <v>8</v>
-      </c>
-      <c r="F261" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>how much distance is there between schools in utrecht</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>how much distance be there between school in utrecht</t>
-        </is>
-      </c>
-      <c r="D262" t="n">
-        <v>5</v>
-      </c>
-      <c r="E262" t="n">
-        <v>5</v>
-      </c>
-      <c r="F262" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>what is the central feature of fire station in fort worth</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>what be the central feature of fire station in fort worth</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>15</v>
-      </c>
-      <c r="E263" t="n">
-        <v>15</v>
-      </c>
-      <c r="F263" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>which areas are within 100 meters of the hospitals in oleander?</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>which area be within unitN unitL of the hospital in oleander ?</t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>8</v>
-      </c>
-      <c r="E264" t="n">
-        <v>8</v>
-      </c>
-      <c r="F264" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>tell me the euclidean distance to the rivers in crook deschutes and jefferson county</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>tell me the euclidean distance to the river in crook deschutes and jefferson county</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>5</v>
-      </c>
-      <c r="E265" t="n">
-        <v>5</v>
-      </c>
-      <c r="F265" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>what areas in the uk have a population density less than 300 per square kilometer?</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>what area in the uk have a population density less than unitN per square unitL ?</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>33</v>
-      </c>
-      <c r="E266" t="n">
-        <v>33</v>
-      </c>
-      <c r="F266" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>which areas have an annual amount of snowfall more than 1000 millimeters in the cape peninsula?</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>which area have an annual amount of snowfall more than unitN unitL in the cape peninsula ?</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>46</v>
-      </c>
-      <c r="E267" t="n">
-        <v>46</v>
-      </c>
-      <c r="F267" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>what are the total votes of an election for each precinct in dallas?</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>what be the total vote of an election for each precinct in dallas ?</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>2</v>
-      </c>
-      <c r="E268" t="n">
-        <v>2</v>
-      </c>
-      <c r="F268" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>where do cape peninsula areas have an annual amount of snowfall more than 1000 millimeters</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>where do cape peninsula area have an annual amount of snowfall more than unitN unitL</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>46</v>
-      </c>
-      <c r="E269" t="n">
-        <v>46</v>
-      </c>
-      <c r="F269" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>what areas have an annual amount of snowfall more than 1000 millimeters in the cape peninsula</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>what area have an annual amount of snowfall more than unitN unitL in the cape peninsula</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>46</v>
-      </c>
-      <c r="E270" t="n">
-        <v>46</v>
-      </c>
-      <c r="F270" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>where are fire stations in utrecht?</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>where be fire station in utrecht ?</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>18</v>
-      </c>
-      <c r="E271" t="n">
-        <v>18</v>
-      </c>
-      <c r="F271" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>what areas are more than 5000 meters from the roads in spain</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>what area be more than unitN unitL from the road in spain</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>8</v>
-      </c>
-      <c r="E272" t="n">
-        <v>8</v>
-      </c>
-      <c r="F272" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>what is the euclidean distance to the rivers in crook, deschutes, and jefferson county</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>what be the euclidean distance to the river in crook deschutes and jefferson county</t>
-        </is>
-      </c>
-      <c r="D273" t="n">
-        <v>5</v>
-      </c>
-      <c r="E273" t="n">
-        <v>5</v>
-      </c>
-      <c r="F273" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>tell me the median household income for each census block in tarrant county in texas</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>tell me the median household income for each census block in tarrant county in texas</t>
-        </is>
-      </c>
-      <c r="D274" t="n">
-        <v>28</v>
-      </c>
-      <c r="E274" t="n">
-        <v>28</v>
-      </c>
-      <c r="F274" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>what areas in houston are not wetlands?</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>what area in houston be not wetland ?</t>
-        </is>
-      </c>
-      <c r="D275" t="n">
-        <v>0</v>
-      </c>
-      <c r="E275" t="n">
-        <v>0</v>
-      </c>
-      <c r="F275" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>what houses are for sale in utrecht's urban areas</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>what house be for sale in utrecht 's urban area</t>
-        </is>
-      </c>
-      <c r="D276" t="n">
-        <v>14</v>
-      </c>
-      <c r="E276" t="n">
-        <v>14</v>
-      </c>
-      <c r="F276" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>tell me the area within 1000 meters of the arcades in oleander?</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>tell me the area within unitN unitL of the arcade in oleander ?</t>
-        </is>
-      </c>
-      <c r="D277" t="n">
-        <v>8</v>
-      </c>
-      <c r="E277" t="n">
-        <v>8</v>
-      </c>
-      <c r="F277" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>which suggested wind farm are nearest to the high way in scotland</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>which suggest wind farm be near to the high way in scotland</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>13</v>
-      </c>
-      <c r="E278" t="n">
-        <v>13</v>
-      </c>
-      <c r="F278" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>where are the commercial areas in amsterdam</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>where be the commercial area in amsterdam</t>
-        </is>
-      </c>
-      <c r="D279" t="n">
-        <v>18</v>
-      </c>
-      <c r="E279" t="n">
-        <v>18</v>
-      </c>
-      <c r="F279" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>what areas are reachable within 3 minutes by car from the nearest fire station from my current location in oleander?</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>what area be reachable within unitN unitT by car from the near fire station from my current location in oleander ?</t>
-        </is>
-      </c>
-      <c r="D280" t="n">
-        <v>53</v>
-      </c>
-      <c r="E280" t="n">
-        <v>53</v>
-      </c>
-      <c r="F280" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>which schools are not reachable within 3 minutes of driving time from a fire station in fort worth</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>which school be not reachable within unitN unitT of drive time from a fire station in fort worth</t>
-        </is>
-      </c>
-      <c r="D281" t="n">
-        <v>50</v>
-      </c>
-      <c r="E281" t="n">
-        <v>50</v>
-      </c>
-      <c r="F281" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>what areas in houston are not classified as flood plains?</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>what area in houston be not classify a flood plain ?</t>
-        </is>
-      </c>
-      <c r="D282" t="n">
-        <v>6</v>
-      </c>
-      <c r="E282" t="n">
-        <v>6</v>
-      </c>
-      <c r="F282" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>what areas are within 1000 meters of the major transport routes in amsterdam</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>what area be within unitN unitL of the major transport route in amsterdam</t>
-        </is>
-      </c>
-      <c r="D283" t="n">
-        <v>8</v>
-      </c>
-      <c r="E283" t="n">
-        <v>8</v>
-      </c>
-      <c r="F283" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>495</v>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>what areas in the cape peninsula have an annual snowfall of more than 1000 millimeters?</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>what area in the cape peninsula have an annual snowfall of more than unitN unitL ?</t>
-        </is>
-      </c>
-      <c r="D284" t="n">
-        <v>46</v>
-      </c>
-      <c r="E284" t="n">
-        <v>46</v>
-      </c>
-      <c r="F284" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>what areas have an annual rainfall of more than 1000 millimeters in the cape peninsula?</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>what area have an annual rainfall of more than unitN unitL in the cape peninsula ?</t>
-        </is>
-      </c>
-      <c r="D285" t="n">
-        <v>46</v>
-      </c>
-      <c r="E285" t="n">
-        <v>46</v>
-      </c>
-      <c r="F285" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>what areas are accessible by car within 3 minutes of the nearest fire station from my current location in oleander?</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>what area be accessible by car within unitN unitT of the near fire station from my current location in oleander ?</t>
-        </is>
-      </c>
-      <c r="D286" t="n">
-        <v>53</v>
-      </c>
-      <c r="E286" t="n">
-        <v>53</v>
-      </c>
-      <c r="F286" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>what houses are for sale and within 1km from the nearest supermarket (from my current location) in utrecht</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>what house be for sale and within unitL from the near supermarket from my current location in utrecht</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>39</v>
-      </c>
-      <c r="E287" t="n">
-        <v>39</v>
-      </c>
-      <c r="F287" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>show me the median age for each census tract in tarrant county texas</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>show me the median age for each census tract in tarrant county texas</t>
-        </is>
-      </c>
-      <c r="D288" t="n">
-        <v>28</v>
-      </c>
-      <c r="E288" t="n">
-        <v>28</v>
-      </c>
-      <c r="F288" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>which areas are accessible within reach of two miles of urban land use in loudoun county in the us?</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>which area be accessible within reach of unitN mile of urban land use in loudoun county in the u ?</t>
-        </is>
-      </c>
-      <c r="D289" t="n">
-        <v>19</v>
-      </c>
-      <c r="E289" t="n">
-        <v>19</v>
-      </c>
-      <c r="F289" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>what areas are within two miles of urban land use in loudoun county in the united states</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>what area be within unitN mile of urban land use in loudoun county in the united state</t>
-        </is>
-      </c>
-      <c r="D290" t="n">
-        <v>19</v>
-      </c>
-      <c r="E290" t="n">
-        <v>19</v>
-      </c>
-      <c r="F290" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>is there a percentage of people over 65 for each pc4 area in amsterdam?</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>be there a percentage of people over unitN for each pc4 area in amsterdam ?</t>
-        </is>
-      </c>
-      <c r="D291" t="n">
-        <v>2</v>
-      </c>
-      <c r="E291" t="n">
-        <v>2</v>
-      </c>
-      <c r="F291" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>520</v>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>what areas in spain have temperatures greater than 0 degrees?</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>what area in spain have temperature great than unitN degree ?</t>
-        </is>
-      </c>
-      <c r="D292" t="n">
-        <v>46</v>
-      </c>
-      <c r="E292" t="n">
-        <v>46</v>
-      </c>
-      <c r="F292" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>what is the total population for each census block in tarrant county, texas</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>what be the total population for each census block in tarrant county texas</t>
-        </is>
-      </c>
-      <c r="D293" t="n">
-        <v>2</v>
-      </c>
-      <c r="E293" t="n">
-        <v>2</v>
-      </c>
-      <c r="F293" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>what areas are outside 250 meters of human settlement in the cape peninsula</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>what area be outside unitN unitL of human settlement in the cape peninsula</t>
-        </is>
-      </c>
-      <c r="D294" t="n">
-        <v>8</v>
-      </c>
-      <c r="E294" t="n">
-        <v>8</v>
-      </c>
-      <c r="F294" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>which shops are open at 6 pm in happy valley ski resort?</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>which shop be open at unitN unitTR in happy valley ski resort ?</t>
-        </is>
-      </c>
-      <c r="D295" t="n">
-        <v>0</v>
-      </c>
-      <c r="E295" t="n">
-        <v>0</v>
-      </c>
-      <c r="F295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>what is the number of buildings within 3 minutes of driving time from fire stations in oleander</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>what be the number of building within unitN unitT of drive time from fire station in oleander</t>
-        </is>
-      </c>
-      <c r="D296" t="n">
-        <v>50</v>
-      </c>
-      <c r="E296" t="n">
-        <v>50</v>
-      </c>
-      <c r="F296" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>which park is the largest in utrecht?</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>which park be the large in utrecht ?</t>
-        </is>
-      </c>
-      <c r="D297" t="n">
-        <v>18</v>
-      </c>
-      <c r="E297" t="n">
-        <v>18</v>
-      </c>
-      <c r="F297" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>where are the accidents on the pistes in the happy valley</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>where be the accident on the piste in the happy valley</t>
-        </is>
-      </c>
-      <c r="D298" t="n">
-        <v>14</v>
-      </c>
-      <c r="E298" t="n">
-        <v>14</v>
-      </c>
-      <c r="F298" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>what areas have an annual amount of more than 1000 millimeters of snowfall in the cape peninsula?</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>what area have an annual amount of more than unitN unitL of snowfall in the cape peninsula ?</t>
-        </is>
-      </c>
-      <c r="D299" t="n">
-        <v>46</v>
-      </c>
-      <c r="E299" t="n">
-        <v>46</v>
-      </c>
-      <c r="F299" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>which liquor stores are within 1000 feet of parks in el cajon?</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>which liquor store be within unitN unitL of park in el cajon ?</t>
-        </is>
-      </c>
-      <c r="D300" t="n">
-        <v>21</v>
-      </c>
-      <c r="E300" t="n">
-        <v>21</v>
-      </c>
-      <c r="F300" t="n">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/textToOps/data/processed/prediction_vs_actual.xlsx
+++ b/textToOps/data/processed/prediction_vs_actual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,31 +462,31 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
+          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>what be the unitN fire station with shortest unitN path to unitN twin peak blvd in san francisco</t>
+          <t>what be the area within a unitT drive of each fire station at unitN unitTR on dayofaweek in utrecht</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -510,64 +510,64 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>What areas are not flood plain in Houston</t>
+          <t>What are the land use inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>what area be not flood plain in houston</t>
+          <t>what be the land use inside the flood unitN in oleander</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tell me not flood plain area in Houston</t>
+          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>tell me not flood plain area in houston</t>
+          <t>what area be within unitN unitL from family physician service in saskatchewan in canada</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
+          <t>What areas are at least 3000 meters from the rivers in Spain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL from nature reserve district in houston</t>
+          <t>what area be at least unitN unitL from the river in spain</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -582,16 +582,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>What areas are outside 3000 meters of the rivers in Spain</t>
+          <t>What areas are inside 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL of the river in spain</t>
+          <t>what area be inside unitN unitL of school in el cajon</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -606,16 +606,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>What areas are more than 5000 meters from the roads in Spain</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL of the road in spain</t>
+          <t>what area be more than unitN unitL from the road in spain</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -630,136 +630,136 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
+          <t>What areas are green belt areas in Houston</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the major transport route in amsterdam</t>
+          <t>what area be green belt area in houston</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are not classified as flood plain in Houston</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>what area be reachable within unitN unitT of by car from the near fire station from my current location in oleander</t>
+          <t>what area be not classify a flood plain in houston</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>Tell me not flood plain area in Houston</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitT of drive time from the near fire station from my current location in oleander</t>
+          <t>tell me not flood plain area in houston</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>What areas are not park in Houston</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL from religious place in karbala in iraq</t>
+          <t>what area be not park in houston</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>What areas are not wetlands in Houston</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL from university in karbala in iraq</t>
+          <t>what area be not wetland in houston</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What areas are outside 150 meters from schools in Houston</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of a restaurant in gresham</t>
+          <t>what area be outside unitN unitL from school in houston</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -769,21 +769,21 @@
         <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a store in Gresham</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of a store in gresham</t>
+          <t>what area be outside unitN unitL of the road in spain</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -793,21 +793,21 @@
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are outside 60 meters from water body in Houston</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of light rail stop in gresham</t>
+          <t>what area be outside unitN unitL from water body in houston</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -817,549 +817,549 @@
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas are within 1000 meters of roads in Assam in India</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>what area be accessible within unitN mile of urban landuse in loudoun county in u</t>
+          <t>what area be within unitN unitL of road in assam in india</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
+          <t>What areas are within 1000 meters of the schools in Oleander</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>what area do have temperature in celsius less than unitN degree in spain</t>
+          <t>what area be within unitN unitL of the school in oleander</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>what area have an monthly rainfall of more than unitN unitL in the cape peninsula</t>
+          <t>what area be accessible within unitN unitT of by car from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E19" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F19" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>what area have slope large than unitN percent and small than unitN percent in the cape peninsula</t>
+          <t>what area be within unitN unitT of by car from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E20" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the main road in utrecht</t>
+          <t>what area be outside unitN unitT of drive time from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas are within 300 meters of runways in Schiphol airport</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>which house be large than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
+          <t>what area be within unitN unitL of runway in schiphol airport</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>what house be less than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
+          <t>what area be within unitN unitT of airport in crook deschutes and jefferson county</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F23" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>What houses are for sale in flood zone in Utrecht</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>what house be for sale in flood unitN in utrecht</t>
+          <t>what area be within unitN unitL from major highway in houston</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>What houses are for sale in urban areas in Utrecht</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>what house be for sale in urban area in utrecht</t>
+          <t>what area be within a quarter mile of a restaurant in gresham</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>What is the average rating of street pavement for each borough in New York City</t>
+          <t>What areas are within a quarter mile of a store in Gresham</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>what be the average rating of street pavement for each borough in new york city</t>
+          <t>what area be within a quarter mile of a store in gresham</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Show me the central feature of bank branches in Oleander</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>show me the central feature of bank branch in oleander</t>
+          <t>what area be within a quarter mile of light rail stop in gresham</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>What is weighted average coordinates of bank branches in Oleander</t>
+          <t>What areas are accessible within reach two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>what be unitN average coordinate of bank branch in oleander</t>
+          <t>what area be accessible within reach unitN mile of urban landuse in loudoun county in u</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to the river in crook deschutes and jefferson county</t>
+          <t>what area be accessible within unitN mile of urban landuse in loudoun county in u</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to tram station in amsterdam</t>
+          <t>what area have an annual rainfall of less than unitN unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>What is the interpolated surface of ozone concentration in California</t>
+          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>what be the interpolate surface of unitN concentration in california</t>
+          <t>what area have an monthly rainfall of more than unitN unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F31" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
+          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>what be the kernel density of traffic accident in pasadena california</t>
+          <t>what area have an annual rainfall of more than unitN unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>what be the land use in netherlands</t>
+          <t>what area have an aspect large than unitN degree and small than unitN degree in the cape peninsula</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F33" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>what be the literacy rate for each country in africa</t>
+          <t>what area have slope large than unitN percent and small than unitN percent in the cape peninsula</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>what be the mean center of crime unitN by the severity in fort worth</t>
+          <t>what house be large than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F35" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>what be the mean center of the fire call for each alarm territory in fort worth in unitN</t>
+          <t>what house be for sale and within unitL from the near subway station from my current location in utrecht</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E36" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F36" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>What is the median population for each census block in Tarrant County in Texas</t>
+          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>what be the median population for each census block in tarrant county in texas</t>
+          <t>what house be less than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E37" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F37" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>What is the number of crime cases for each police district in Texas in 2018</t>
+          <t>What houses are for sale outside flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>what be the number of crime case for each police district in texas in unitN</t>
+          <t>what house be for sale outside flood unitN in utrecht</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F38" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>What is the number of dwelling units inside the flood zones in Oleander</t>
+          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>what be the number of dwell unit inside the flood unitN in oleander</t>
+          <t>what house be less than unitN square unitL in urban area in utrecht</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1374,112 +1374,112 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>What is the number of high school students for each senior high school district in Oleander</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>what be the number of high school student for each senior high school district in oleander</t>
+          <t>what be the area of currently mixed use unitN in gresham</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What is the point density of fire calls in Oleander</t>
+          <t>Tell me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>what be the point density of fire call in oleander</t>
+          <t>tell me the central feature of bank branch in oleander</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What is the tornado path in Oleander in April 2011</t>
+          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>what be the tornado path in oleander in montInYe unitN</t>
+          <t>tell me unitN average coordinate of bank branch in oleander</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>What is the total area of agriculture in Netherlands</t>
+          <t>What is weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>what be the total area of agriculture in netherlands</t>
+          <t>what be unitN average coordinate of bank branch in oleander</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>What is the total population for each census block in Tarrant County, Texas</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>what be the total population for each census block in tarrant county texas</t>
+          <t>what be the cervix cancer mortality rate of white female for each city in the western usa from unitN to unitN</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1489,196 +1489,196 @@
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What is the density surface of temperature measurements in Oleander city</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>what liquor store be within unitN unitL of park in el cajon</t>
+          <t>what be the density surface of temperature measurement in oleander city</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>where be forestry land in happy valley ski resort</t>
+          <t>what be the euclidean distance to green area in amsterdam</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>where be the commercial area in amsterdam</t>
+          <t>what be the euclidean distance to recreational site in utrecht</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Where are the industrial areas in Utrecht</t>
+          <t>What is the hot spots and cold spots for average loan interest rates in the US</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>where be the industrial area in utrecht</t>
+          <t>what be the hot spot and cold spot for average loan interest rate in the u</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E48" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F48" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>What is the interpolated surface of ozone concentration in California</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort</t>
+          <t>what be the interpolate surface of unitN concentration in california</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E49" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+          <t>What is the kernel density of crime in Surrey in UK</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>which house be within unitN unitT drive time from fire station from my current location in oleander</t>
+          <t>what be the kernel density of crime in surrey in uk</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>which house have construction year between unitN and unitN in utrecht</t>
+          <t>what be the kernel density of traffic accident in pasadena california</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Which park is biggest in Utrecht</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>which park be big in utrecht</t>
+          <t>what be the land use in the happy valley resort</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -1686,73 +1686,841 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>which school be not accessible within unitN unitT by a car from a fire station in fort worth</t>
+          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>which school be not within unitN unitT of drive time from a fire station in fort worth</t>
+          <t>what be the mean center of crime unitN by the severity in fort worth</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>what be the mean center of library patron for each district in oleander</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>16</v>
+      </c>
+      <c r="E55" t="n">
+        <v>16</v>
+      </c>
+      <c r="F55" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>what be the mean center of the fire call for each alarm territory in fort worth in unitN</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>16</v>
+      </c>
+      <c r="E56" t="n">
+        <v>16</v>
+      </c>
+      <c r="F56" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>tell me the median household income for each census block in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>28</v>
+      </c>
+      <c r="E57" t="n">
+        <v>28</v>
+      </c>
+      <c r="F57" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>what be the median number of family member for each census block in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>28</v>
+      </c>
+      <c r="E58" t="n">
+        <v>28</v>
+      </c>
+      <c r="F58" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>What is the median population for each census block in Tarrant County in Texas</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>what be the median population for each census block in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>28</v>
+      </c>
+      <c r="E59" t="n">
+        <v>28</v>
+      </c>
+      <c r="F59" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>what be the median people age for each census tract in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>28</v>
+      </c>
+      <c r="E60" t="n">
+        <v>28</v>
+      </c>
+      <c r="F60" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>What is the number of election votes for each precinct in Dallas</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>what be the number of election vote for each precinct in dallas</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>27</v>
+      </c>
+      <c r="E61" t="n">
+        <v>27</v>
+      </c>
+      <c r="F61" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>What is the number of high school students for each senior high school district in Oleander</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>what be the number of high school student for each senior high school district in oleander</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>27</v>
+      </c>
+      <c r="E62" t="n">
+        <v>27</v>
+      </c>
+      <c r="F62" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>What is the number of inhabitants for each village in Banten province in Indonesia</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>what be the number of inhabitant for each village in unitN province in unitN</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>27</v>
+      </c>
+      <c r="E63" t="n">
+        <v>27</v>
+      </c>
+      <c r="F63" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>What is the point density of cycling destinations in the Metro Vancouver region in Canada</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>what be the point density of cycling destination in the metro vancouver region in canada</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>32</v>
+      </c>
+      <c r="E64" t="n">
+        <v>32</v>
+      </c>
+      <c r="F64" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>What is the point density of fire calls in Oleander</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>what be the point density of fire call in oleander</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>32</v>
+      </c>
+      <c r="E65" t="n">
+        <v>32</v>
+      </c>
+      <c r="F65" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>What is the population density in California</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>what be the population density in california</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>33</v>
+      </c>
+      <c r="E66" t="n">
+        <v>33</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>What is the total area of agriculture in Netherlands</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>what be the total area of agriculture in netherlands</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>33</v>
+      </c>
+      <c r="E67" t="n">
+        <v>33</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>what be the total population within a unitT travel time from fire station in poway</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>50</v>
+      </c>
+      <c r="E68" t="n">
+        <v>50</v>
+      </c>
+      <c r="F68" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>what liquor store be within unitN unitL of library in el cajon</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>21</v>
+      </c>
+      <c r="E69" t="n">
+        <v>21</v>
+      </c>
+      <c r="F69" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>what liquor store be within unitN unitL of park in el cajon</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>21</v>
+      </c>
+      <c r="E70" t="n">
+        <v>21</v>
+      </c>
+      <c r="F70" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Where are not conservation areas in UK</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>where be not conservation area in uk</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>18</v>
+      </c>
+      <c r="E71" t="n">
+        <v>18</v>
+      </c>
+      <c r="F71" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Where are not protected region in Assam in India</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>where be not protect region in assam in india</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>18</v>
+      </c>
+      <c r="E72" t="n">
+        <v>18</v>
+      </c>
+      <c r="F72" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Where are the accidents within ski pistes in the Happy Valley</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>where be the accident within ski piste in the happy valley</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>14</v>
+      </c>
+      <c r="E73" t="n">
+        <v>14</v>
+      </c>
+      <c r="F73" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Where are the auto accidents in Tarrant County in Texas</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>where be the auto accident in tarrant county in texas</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Where are the rocky areas in Spain</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>where be the rocky area in spain</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>18</v>
+      </c>
+      <c r="E75" t="n">
+        <v>18</v>
+      </c>
+      <c r="F75" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>where be the ski piste in happy valley ski resort</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>18</v>
+      </c>
+      <c r="E76" t="n">
+        <v>18</v>
+      </c>
+      <c r="F76" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Which houses are for sale in Utrecht</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>which house be for sale in utrecht</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>which house be within unitN unitT drive time from fire station from my current location in oleander</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>42</v>
+      </c>
+      <c r="E78" t="n">
+        <v>42</v>
+      </c>
+      <c r="F78" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Which land use contains meteorological stations in Netherlands</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>which land use contains meteorological station in netherlands</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>14</v>
+      </c>
+      <c r="E79" t="n">
+        <v>14</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Which park is biggest in Utrecht</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>which park be big in utrecht</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>18</v>
+      </c>
+      <c r="E80" t="n">
+        <v>18</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>which school be not reachable within unitN unitT of drive time from a fire station in fort worth</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>50</v>
+      </c>
+      <c r="E81" t="n">
+        <v>50</v>
+      </c>
+      <c r="F81" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>which shop be open at unitN unitTR in happy valley ski resort</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>which vacant lot be within unitN mile of a freeway in hillsboro</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>21</v>
+      </c>
+      <c r="E83" t="n">
+        <v>21</v>
+      </c>
+      <c r="F83" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Which visitor facilities are in the Happy Valley</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>which visitor facility be in the happy valley</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>which suggest wind farm be near to the high way in scotland</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>13</v>
+      </c>
+      <c r="E85" t="n">
+        <v>13</v>
+      </c>
+      <c r="F85" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>Which proposed wind farm are nearest to the high way in Scotland</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>which propose wind farm be near to the high way in scotland</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D86" t="n">
         <v>13</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E86" t="n">
         <v>13</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F86" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>which wind farm proposal be near to the road in scotland</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>13</v>
+      </c>
+      <c r="E87" t="n">
+        <v>13</v>
+      </c>
+      <c r="F87" t="n">
         <v>13</v>
       </c>
     </row>

--- a/textToOps/data/processed/prediction_vs_actual.xlsx
+++ b/textToOps/data/processed/prediction_vs_actual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
+          <t>What are the land use inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>what be the unitN fire station within unitN unitT of travel time from a fire in san francisco</t>
+          <t>what be the land use inside the flood unitN in oleander</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -514,22 +514,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>What are the land use inside the flood zones in Oleander</t>
+          <t>What are the two fire stations closest to each school in Utrecht</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>what be the land use inside the flood unitN in oleander</t>
+          <t>what be the unitN fire station closest to each school in utrecht</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -538,22 +538,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
+          <t>What areas are green belt areas in Houston</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL from family physician service in saskatchewan in canada</t>
+          <t>what area be green belt area in houston</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>What areas are at least 3000 meters from the rivers in Spain</t>
+          <t>What areas are not conatined as green belt areas in Houston</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>what area be at least unitN unitL from the river in spain</t>
+          <t>what area be not conatined a green belt area in houston</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>What areas are inside 1000 foot of schools in El Cajon</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>what area be inside unitN unitL of school in el cajon</t>
+          <t>what area be not green belt area in houston</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -610,22 +610,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What areas are more than 5000 meters from the roads in Spain</t>
+          <t>What areas are not park in Houston</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>what area be more than unitN unitL from the road in spain</t>
+          <t>what area be not park in houston</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -634,22 +634,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>What areas are green belt areas in Houston</t>
+          <t>What areas are outside 150 meters from hospitals in Houston</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>what area be green belt area in houston</t>
+          <t>what area be outside unitN unitL from hospital in houston</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -658,22 +658,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What areas are not classified as flood plain in Houston</t>
+          <t>What areas are outside 150 meters from schools in Houston</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>what area be not classify a flood plain in houston</t>
+          <t>what area be outside unitN unitL from school in houston</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -682,22 +682,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tell me not flood plain area in Houston</t>
+          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>tell me not flood plain area in houston</t>
+          <t>what area be outside unitN unitL from nature reserve district in houston</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -706,22 +706,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>What areas are not park in Houston</t>
+          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>what area be not park in houston</t>
+          <t>what area be outside unitN unitL of human settlement in the cape peninsula</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -730,22 +730,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>What areas are not wetlands in Houston</t>
+          <t>What areas are outside 3000 meters of the rivers in Spain</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>what area be not wetland in houston</t>
+          <t>what area be outside unitN unitL of the river in spain</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -754,12 +754,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from schools in Houston</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL from school in houston</t>
+          <t>what area be outside unitN unitL of the road in spain</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -778,12 +778,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>What areas are outside 60 meters from residence in Houston</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL of the road in spain</t>
+          <t>what area be outside unitN unitL from residence in houston</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -850,22 +850,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the schools in Oleander</t>
+          <t>What areas are within 15 minutes walking distance of a metro rail station in Kochi in India</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the school in oleander</t>
+          <t>what area be within unitN unitT walk distance of a metro rail station in kochi in india</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -874,22 +874,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>what area be accessible within unitN unitT of by car from the near fire station from my current location in oleander</t>
+          <t>what area be within unitN unitL of the playground in oleander</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -898,12 +898,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>what area be within unitN unitT of by car from the near fire station from my current location in oleander</t>
+          <t>what area be accessible within unitN unitT of by car from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -922,12 +922,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitT of drive time from the near fire station from my current location in oleander</t>
+          <t>what area be within unitN unitT of drive time from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -970,22 +970,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>what area be within unitN unitT of airport in crook deschutes and jefferson county</t>
+          <t>what area be within unitN unitL from university in karbala in iraq</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -994,22 +994,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL from major highway in houston</t>
+          <t>what area be within unitN unitT of airport in crook deschutes and jefferson county</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -1018,12 +1018,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of a restaurant in gresham</t>
+          <t>what area be within a quarter mile of light rail stop in gresham</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1033,7 +1033,7 @@
         <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1042,22 +1042,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a store in Gresham</t>
+          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of a store in gresham</t>
+          <t>what area be within a quarter mile of plan commercial district in gresham</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of light rail stop in gresham</t>
+          <t>what area be within unitN mile of main road in loudoun county in u</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1081,7 +1081,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -1090,12 +1090,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>What areas are accessible within reach two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>what area be accessible within reach unitN mile of urban landuse in loudoun county in u</t>
+          <t>what area be within unitN mile of urban landuse in loudoun county in u</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1114,22 +1114,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>what area be accessible within unitN mile of urban landuse in loudoun county in u</t>
+          <t>what area do have altitude between unitN and unitN unitL in spain</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -1138,22 +1138,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have population density less than 300 per square kilometer in UK</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>what area have an annual rainfall of less than unitN unitL in the cape peninsula</t>
+          <t>what area do have population density less than unitN per square unitL in uk</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E30" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F30" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>what area have an monthly rainfall of more than unitN unitL in the cape peninsula</t>
+          <t>what area do have temperature in celsius large than unitN degree in spain</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1177,7 +1177,7 @@
         <v>46</v>
       </c>
       <c r="F31" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>what area have an annual rainfall of more than unitN unitL in the cape peninsula</t>
+          <t>what area have an annual amount of snowfall more than unitN unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1210,19 +1210,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
+          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>what area have an aspect large than unitN degree and small than unitN degree in the cape peninsula</t>
+          <t>what area have an annual rainfall of more than unitN unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E33" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F33" t="n">
         <v>46</v>
@@ -1234,12 +1234,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>what area have slope large than unitN percent and small than unitN percent in the cape peninsula</t>
+          <t>what area have an aspect large than unitN degree and small than unitN degree in the cape peninsula</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the near subway station from my current location in utrecht</t>
+          <t>what house be for sale and within unitL from the near school from my current location in utrecht</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>what house be less than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
+          <t>what house be for sale and within unitL from the near supermarket from my current location in utrecht</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1330,22 +1330,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>What houses are for sale outside flood zone in Utrecht</t>
+          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>what house be for sale outside flood unitN in utrecht</t>
+          <t>what house be for sale and within unitL from the park in utrecht</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E38" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F38" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
@@ -1378,22 +1378,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>what be the area of currently mixed use unitN in gresham</t>
+          <t>what house be greather than unitN square unitL in urban area in utrecht</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -1402,22 +1402,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tell me the central feature of bank branches in Oleander</t>
+          <t>What houses are for sale in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>tell me the central feature of bank branch in oleander</t>
+          <t>what house be for sale in urban area in utrecht</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -1426,22 +1426,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>tell me unitN average coordinate of bank branch in oleander</t>
+          <t>what be the area of currently mixed use unitN in gresham</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1450,12 +1450,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>What is weighted average coordinates of bank branches in Oleander</t>
+          <t>Tell me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>what be unitN average coordinate of bank branch in oleander</t>
+          <t>tell me the central feature of bank branch in oleander</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1474,22 +1474,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>what be the cervix cancer mortality rate of white female for each city in the western usa from unitN to unitN</t>
+          <t>what be the central feature of bank branch in oleander</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1498,22 +1498,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>What is the central feature of fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>what be the density surface of temperature measurement in oleander city</t>
+          <t>what be the central feature of fire station in fort worth</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>What is the density surface of temperature measurements in Oleander city</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to green area in amsterdam</t>
+          <t>what be the density surface of temperature measurement in oleander city</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to recreational site in utrecht</t>
+          <t>what be the euclidean distance to hospital in oleander</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1570,22 +1570,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>What is the hot spots and cold spots for average loan interest rates in the US</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>what be the hot spot and cold spot for average loan interest rate in the u</t>
+          <t>what be the euclidean distance to recreational site in utrecht</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -1594,22 +1594,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>What is the interpolated surface of ozone concentration in California</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>what be the interpolate surface of unitN concentration in california</t>
+          <t>what be the euclidean distance to school in utrecht</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>what be the kernel density of crime in surrey in uk</t>
+          <t>what be the euclidean distance to subway station in amsterdam</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1642,12 +1642,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
+          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>what be the kernel density of traffic accident in pasadena california</t>
+          <t>what be the euclidean distance to the river in crook deschutes and jefferson county</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1657,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
@@ -1666,22 +1666,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What is the hot spot of house vacancy rate in USA in 2019</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>what be the land use in the happy valley resort</t>
+          <t>what be the hot spot of house vacancy rate in usa in unitN</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -1690,22 +1690,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the interpolation surface of NO2 concentration in Vancouver</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN</t>
+          <t>what be the interpolation surface of no2 concentration in vancouver</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -1714,22 +1714,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>what be the mean center of crime unitN by the severity in fort worth</t>
+          <t>what be the land use in the happy valley resort</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1738,22 +1738,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>What is the mean center of library patrons for each district in Oleander</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>what be the mean center of library patron for each district in oleander</t>
+          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1762,22 +1762,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+          <t>What is the mean center of accidents weighted by priority for each alarm territories in Fort Worth</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>what be the mean center of the fire call for each alarm territory in fort worth in unitN</t>
+          <t>what be the mean center of accident unitN by priority for each alarm territory in fort worth</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E56" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F56" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -1786,22 +1786,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>tell me the median household income for each census block in tarrant county in texas</t>
+          <t>what be the unitN coordinate average of library patron for each district in oleander</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F57" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -1810,22 +1810,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
+          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>what be the median number of family member for each census block in tarrant county in texas</t>
+          <t>what be the mean center of the fire call unitN by the priority in fort worth</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E58" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F58" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -1834,12 +1834,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>What is the median population for each census block in Tarrant County in Texas</t>
+          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>what be the median population for each census block in tarrant county in texas</t>
+          <t>tell me the median household income for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1858,12 +1858,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>what be the median people age for each census tract in tarrant county in texas</t>
+          <t>what be the median household income for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1882,22 +1882,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>What is the number of election votes for each precinct in Dallas</t>
+          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>what be the number of election vote for each precinct in dallas</t>
+          <t>show me the median people age for each census tract in tarrant county in texas</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E61" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F61" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
@@ -1906,22 +1906,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>What is the number of high school students for each senior high school district in Oleander</t>
+          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>what be the number of high school student for each senior high school district in oleander</t>
+          <t>what be the median people age for each census tract in tarrant county in texas</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E62" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F62" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
@@ -1930,12 +1930,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>What is the number of inhabitants for each village in Banten province in Indonesia</t>
+          <t>What is the number of elderly people for each neighborhood in Amsterdam</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>what be the number of inhabitant for each village in unitN province in unitN</t>
+          <t>what be the number of elderly people for each neighborhood in amsterdam</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1954,22 +1954,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>What is the point density of cycling destinations in the Metro Vancouver region in Canada</t>
+          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>what be the point density of cycling destination in the metro vancouver region in canada</t>
+          <t>what be the number of hispanic for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E64" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F64" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -1978,22 +1978,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>What is the point density of fire calls in Oleander</t>
+          <t>What is the number of inhabitants for each village in Banten province in Indonesia</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>what be the point density of fire call in oleander</t>
+          <t>what be the number of inhabitant for each village in unitN province in unitN</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E65" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F65" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
@@ -2002,22 +2002,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>What is the population density in California</t>
+          <t>What is the point density of cycling destinations in the Metro Vancouver region in Canada</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>what be the population density in california</t>
+          <t>what be the point density of cycling destination in the metro vancouver region in canada</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E66" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F66" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -2026,12 +2026,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>What is the total area of agriculture in Netherlands</t>
+          <t>What is the population density in California</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>what be the total area of agriculture in netherlands</t>
+          <t>what be the population density in california</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2041,7 +2041,7 @@
         <v>33</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -2050,22 +2050,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
+          <t>What is the population for each city in Aichi prefecture in Japan</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>what be the total population within a unitT travel time from fire station in poway</t>
+          <t>what be the population for each city in aichi prefecture in japan</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2074,22 +2074,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>What is the proportion of people over 65 for each PC4 area in Amsterdam</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>what liquor store be within unitN unitL of library in el cajon</t>
+          <t>what be the proportion of people over unitN for each pc4 area in amsterdam</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2098,22 +2098,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What is the tornado path in Oleander in April 2011</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>what liquor store be within unitN unitL of park in el cajon</t>
+          <t>what be the tornado path in oleander in montInYe unitN</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2122,22 +2122,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>where be not conservation area in uk</t>
+          <t>what be the total population within a unitT travel time from fire station in poway</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E71" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F71" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72">
@@ -2146,22 +2146,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Where are not protected region in Assam in India</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>where be not protect region in assam in india</t>
+          <t>what liquor store be within unitN unitL of school in el cajon</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E72" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F72" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
@@ -2170,22 +2170,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Where are the accidents within ski pistes in the Happy Valley</t>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>where be the accident within ski piste in the happy valley</t>
+          <t>where be forestry land in happy valley ski resort</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2194,22 +2194,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Where are the auto accidents in Tarrant County in Texas</t>
+          <t>Where are not conservation areas in UK</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>where be the auto accident in tarrant county in texas</t>
+          <t>where be not conservation area in uk</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -2218,19 +2218,19 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>Where are the accidents within ski pistes in the Happy Valley</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>where be the rocky area in spain</t>
+          <t>where be the accident within ski piste in the happy valley</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E75" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F75" t="n">
         <v>18</v>
@@ -2242,22 +2242,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
+          <t>Where are the auto accidents in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>where be the ski piste in happy valley ski resort</t>
+          <t>where be the auto accident in tarrant county in texas</t>
         </is>
       </c>
       <c r="D76" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
         <v>18</v>
-      </c>
-      <c r="E76" t="n">
-        <v>18</v>
-      </c>
-      <c r="F76" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -2266,22 +2266,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>Where are the commercial areas in Amsterdam</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>which house be for sale in utrecht</t>
+          <t>where be the commercial area in amsterdam</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F77" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -2290,22 +2290,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+          <t>Where are the fire stations in Utrecht</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>which house be within unitN unitT drive time from fire station from my current location in oleander</t>
+          <t>where be the fire station in utrecht</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E78" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F78" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -2314,22 +2314,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Which land use contains meteorological stations in Netherlands</t>
+          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>which land use contains meteorological station in netherlands</t>
+          <t>where be the hispanic food store in tarrant county in texas</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E79" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Which park is biggest in Utrecht</t>
+          <t>Where are the industrial areas in Utrecht</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>which park be big in utrecht</t>
+          <t>where be the industrial area in utrecht</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2353,7 +2353,7 @@
         <v>18</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -2362,22 +2362,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>which school be not reachable within unitN unitT of drive time from a fire station in fort worth</t>
+          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E81" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F81" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2386,22 +2386,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>which shop be open at unitN unitTR in happy valley ski resort</t>
+          <t>which house be within unitN unitT drive time from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83">
@@ -2410,22 +2410,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>which vacant lot be within unitN mile of a freeway in hillsboro</t>
+          <t>which school be not accessible within unitN unitT of drive time from a fire station in fort worth</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E83" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F83" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84">
@@ -2434,22 +2434,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>which visitor facility be in the happy valley</t>
+          <t>which school be not reachable within unitN unitT of drive time from a fire station in fort worth</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85">
@@ -2458,22 +2458,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>which suggest wind farm be near to the high way in scotland</t>
+          <t>which shop be open at unitN unitTR in happy valley ski resort</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2482,22 +2482,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
+          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>which propose wind farm be near to the high way in scotland</t>
+          <t>which vacant lot be within unitN mile of a freeway in hillsboro</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E86" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F86" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -2506,12 +2506,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>which wind farm proposal be near to the road in scotland</t>
+          <t>which wind farm proposal be near to the high way in scotland</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2521,6 +2521,30 @@
         <v>13</v>
       </c>
       <c r="F87" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>which wind farm proposal be near to the road in scotland</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>13</v>
+      </c>
+      <c r="E88" t="n">
+        <v>13</v>
+      </c>
+      <c r="F88" t="n">
         <v>13</v>
       </c>
     </row>

--- a/textToOps/data/processed/prediction_vs_actual.xlsx
+++ b/textToOps/data/processed/prediction_vs_actual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
+          <t>How many buildings are within 3 minutes of driving time from fire stations in Oleander</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>what be the area within a unitT drive of each fire station at unitN unitTR on dayofaweek in utrecht</t>
+          <t>how many building be within unitN unitT of drive time from fire station in oleander</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -481,165 +481,165 @@
         <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>What are the land use inside the flood zones in Oleander</t>
+          <t>How many luxury hotels are in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>what be the land use inside the flood unitN in oleander</t>
+          <t>how many luxury hotel be in happy valley ski resort</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>What are the two fire stations closest to each school in Utrecht</t>
+          <t>How many streetlights for each district in San Diego</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>what be the unitN fire station closest to each school in utrecht</t>
+          <t>how many streetlight for each district in san diego</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What areas are green belt areas in Houston</t>
+          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>what area be green belt area in houston</t>
+          <t>what be the unitN fire station with shortest unitN path to unitN twin peak blvd in san francisco</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>What areas are not conatined as green belt areas in Houston</t>
+          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>what area be not conatined a green belt area in houston</t>
+          <t>what be the unitN fire station within unitN unitT of travel time from a fire in san francisco</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>What areas are not green belt areas in Houston</t>
+          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>what area be not green belt area in houston</t>
+          <t>what be the vegetation area large than unitN square unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What areas are not park in Houston</t>
+          <t>What are the vote totals of an election for each precinct in Dallas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>what area be not park in houston</t>
+          <t>what be the vote total of an election for each precinct in dallas</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from hospitals in Houston</t>
+          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL from hospital in houston</t>
+          <t>what area be within unitN unitL from family physician service in saskatchewan in canada</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -654,16 +654,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from schools in Houston</t>
+          <t>What areas are inside 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL from school in houston</t>
+          <t>what area be inside unitN unitL of school in el cajon</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -673,21 +673,21 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
+          <t>What areas are more than 5000 meters from the roads in Spain</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL from nature reserve district in houston</t>
+          <t>what area be more than unitN unitL from the road in spain</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -702,112 +702,112 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
+          <t>What areas are not flood plain in Houston</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL of human settlement in the cape peninsula</t>
+          <t>what area be not flood plain in houston</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>What areas are outside 3000 meters of the rivers in Spain</t>
+          <t>What areas are not classified as flood plain in Houston</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL of the river in spain</t>
+          <t>what area be not classify a flood plain in houston</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL of the road in spain</t>
+          <t>what area be not green belt area in houston</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from residence in Houston</t>
+          <t>What areas are not wetlands in Houston</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL from residence in houston</t>
+          <t>what area be not wetland in houston</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from water body in Houston</t>
+          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>what area be outside unitN unitL from water body in houston</t>
+          <t>what area be outside unitN unitL of human settlement in the cape peninsula</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -822,16 +822,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of roads in Assam in India</t>
+          <t>What areas are outside 300 meters from streams in Houston</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of road in assam in india</t>
+          <t>what area be outside unitN unitL from stream in houston</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -846,40 +846,40 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>What areas are within 15 minutes walking distance of a metro rail station in Kochi in India</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>what area be within unitN unitT walk distance of a metro rail station in kochi in india</t>
+          <t>what area be outside unitN unitL of the road in spain</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>What areas are outside 60 meters from water body in Houston</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of the playground in oleander</t>
+          <t>what area be outside unitN unitL from water body in houston</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -894,64 +894,64 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 100 meters of cameras in Salford</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>what area be accessible within unitN unitT of by car from the near fire station from my current location in oleander</t>
+          <t>what area be within unitN unitL of camera in salford</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 1000 meters of the arcades in Oleander</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>what area be within unitN unitT of drive time from the near fire station from my current location in oleander</t>
+          <t>what area be within unitN unitL of the arcade in oleander</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>What areas are within 1000 meters of the schools in Oleander</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL of runway in schiphol airport</t>
+          <t>what area be within unitN unitL of the school in oleander</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -966,64 +966,64 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>what area be within unitN unitL from university in karbala in iraq</t>
+          <t>what area be reachable within unitN unitT of by car from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
+          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>what area be within unitN unitT of airport in crook deschutes and jefferson county</t>
+          <t>what area be within unitN unitT of by car from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F24" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of light rail stop in gresham</t>
+          <t>what area be within unitN unitL from religious place in karbala in iraq</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1038,23 +1038,23 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>what area be within a quarter mile of plan commercial district in gresham</t>
+          <t>what area be within unitN unitL from major highway in houston</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>8</v>
@@ -1062,16 +1062,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>What areas are within one mile of main roads in Loudoun County in US</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>what area be within unitN mile of main road in loudoun county in u</t>
+          <t>what area be within a quarter mile of light rail stop in gresham</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1081,21 +1081,21 @@
         <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
+          <t>What reachable areas are within a quarter mile of planned commercial district in Gresham</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>what area be within unitN mile of urban landuse in loudoun county in u</t>
+          <t>what reachable area be within a quarter mile of plan commercial district in gresham</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1110,64 +1110,64 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>what area do have altitude between unitN and unitN unitL in spain</t>
+          <t>what area be within unitN mile of main road in loudoun county in u</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>What areas do have population density less than 300 per square kilometer in UK</t>
+          <t>What areas are accessible within reach two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>what area do have population density less than unitN per square unitL in uk</t>
+          <t>what area be accessible within reach unitN mile of urban landuse in loudoun county in u</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E30" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F30" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
+          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>what area do have temperature in celsius large than unitN degree in spain</t>
+          <t>what area do have temperature in celsius less than unitN degree in spain</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1177,21 +1177,21 @@
         <v>46</v>
       </c>
       <c r="F31" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>what area have an annual amount of snowfall more than unitN unitL in the cape peninsula</t>
+          <t>what area have an annual rainfall of less than unitN unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1206,16 +1206,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>what area have an annual rainfall of more than unitN unitL in the cape peninsula</t>
+          <t>what area have an annual amount of snowfall more than unitN unitL in the cape peninsula</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1230,40 +1230,40 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>what area have an aspect large than unitN degree and small than unitN degree in the cape peninsula</t>
+          <t>what house be for sale and within unitL from the main road in utrecht</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E34" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F34" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>what house be large than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
+          <t>which house be large than unitN square unitL and within unitL from the near school from my current location in utrecht</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1278,16 +1278,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the near school from my current location in utrecht</t>
+          <t>what house be for sale and within unitL from the near subway station from my current location in utrecht</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1302,7 +1302,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1326,31 +1326,31 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>What houses are for sale outside flood zone in Utrecht</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>what house be for sale and within unitL from the park in utrecht</t>
+          <t>what house be for sale outside flood unitN in utrecht</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F38" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1374,16 +1374,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>What houses are greather than 30 square meters in urban areas in Utrecht</t>
+          <t>What houses are for sale in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>what house be greather than unitN square unitL in urban area in utrecht</t>
+          <t>what house be for sale in urban area in utrecht</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1398,64 +1398,64 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What houses are for sale in urban areas in Utrecht</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>what house be for sale in urban area in utrecht</t>
+          <t>what be the average rating of street pavement for each borough in new york city</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E41" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F41" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>Show me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>what be the area of currently mixed use unitN in gresham</t>
+          <t>show me the central feature of bank branch in oleander</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tell me the central feature of bank branches in Oleander</t>
+          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>tell me the central feature of bank branch in oleander</t>
+          <t>tell me unitN average coordinate of bank branch in oleander</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1470,16 +1470,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>What is the central feature of bank branches in Oleander</t>
+          <t>What is the central feature of fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>what be the central feature of bank branch in oleander</t>
+          <t>what be the central feature of fire station in fort worth</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1489,69 +1489,69 @@
         <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>What is the central feature of fire station in Fort Worth</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>what be the central feature of fire station in fort worth</t>
+          <t>what be the cervix cancer mortality rate of white female for each city in the western usa from unitN to unitN</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>What is the density surface of crape myrtles in Oleander</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>what be the density surface of temperature measurement in oleander city</t>
+          <t>what be the density surface of crape myrtle in oleander</t>
         </is>
       </c>
       <c r="D46" t="n">
+        <v>11</v>
+      </c>
+      <c r="E46" t="n">
+        <v>11</v>
+      </c>
+      <c r="F46" t="n">
         <v>5</v>
-      </c>
-      <c r="E46" t="n">
-        <v>5</v>
-      </c>
-      <c r="F46" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to hospital in oleander</t>
+          <t>what be the density surface of rainfall measurement in the netherlands</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1566,16 +1566,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to recreational site in utrecht</t>
+          <t>what be the euclidean distance to green area in amsterdam</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1590,16 +1590,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to school in utrecht</t>
+          <t>what be the euclidean distance to recreational site in utrecht</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1614,16 +1614,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to subway station in amsterdam</t>
+          <t>what be the euclidean distance to the river in crook deschutes and jefferson county</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1638,16 +1638,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>what be the euclidean distance to the river in crook deschutes and jefferson county</t>
+          <t>what be the euclidean distance to tram station in amsterdam</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1657,21 +1657,21 @@
         <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>What is the hot spot of house vacancy rate in USA in 2019</t>
+          <t>What is the hot spots and cold spots for average loan interest rates in the US</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>what be the hot spot of house vacancy rate in usa in unitN</t>
+          <t>what be the hot spot and cold spot for average loan interest rate in the u</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1686,112 +1686,112 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>What is the interpolation surface of NO2 concentration in Vancouver</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>what be the interpolation surface of no2 concentration in vancouver</t>
+          <t>what be the land use in the happy valley resort</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>what be the land use in the happy valley resort</t>
+          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>what be the lung cancer mortality rate of white male for each city in the western usa from unitN to unitN</t>
+          <t>what be the mean center of customer unitN by the number of transaction in oleander city</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>What is the mean center of accidents weighted by priority for each alarm territories in Fort Worth</t>
+          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>what be the mean center of accident unitN by priority for each alarm territory in fort worth</t>
+          <t>calculate the unitN coordinate average of library patron for each district in oleander</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F56" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>what be the unitN coordinate average of library patron for each district in oleander</t>
+          <t>what be the mean center of library patron for each district in oleander</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1806,40 +1806,40 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls weighted by the priority in Fort Worth</t>
+          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>what be the mean center of the fire call unitN by the priority in fort worth</t>
+          <t>what be the median number of family member for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E58" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F58" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>tell me the median household income for each census block in tarrant county in texas</t>
+          <t>what be the median household income for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1854,71 +1854,71 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>What is the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the number of crime cases for each police district in Texas in 2018</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>what be the median household income for each census block in tarrant county in texas</t>
+          <t>what be the number of crime case for each police district in texas in unitN</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F60" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the number of election votes for each precinct in Dallas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>show me the median people age for each census tract in tarrant county in texas</t>
+          <t>what be the number of election vote for each precinct in dallas</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E61" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F61" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>What is the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>what be the median people age for each census tract in tarrant county in texas</t>
+          <t>what be the number of hispanic for each census block in tarrant county in texas</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E62" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F62" t="n">
         <v>28</v>
@@ -1926,23 +1926,23 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>What is the number of elderly people for each neighborhood in Amsterdam</t>
+          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>what be the number of elderly people for each neighborhood in amsterdam</t>
+          <t>what be the number of injured pedestrian for each census tract in georgia from unitN to unitN</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E63" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F63" t="n">
         <v>27</v>
@@ -1950,112 +1950,112 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>What is the number of Hispanics for each census block in Tarrant County in Texas</t>
+          <t>What is the tornado path in Oleander in April 2011</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>what be the number of hispanic for each census block in tarrant county in texas</t>
+          <t>what be the tornado path in oleander in montInYe unitN</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>What is the number of inhabitants for each village in Banten province in Indonesia</t>
+          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>what be the number of inhabitant for each village in unitN province in unitN</t>
+          <t>what be the total population within a unitT travel time from fire station in poway</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E65" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F65" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>What is the point density of cycling destinations in the Metro Vancouver region in Canada</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>what be the point density of cycling destination in the metro vancouver region in canada</t>
+          <t>what liquor store be within unitN unitL of library in el cajon</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E66" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F66" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>What is the population density in California</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>what be the population density in california</t>
+          <t>what liquor store be within unitN unitL of school in el cajon</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E67" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F67" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>What is the population for each city in Aichi prefecture in Japan</t>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>what be the population for each city in aichi prefecture in japan</t>
+          <t>where be forestry land in happy valley ski resort</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2070,136 +2070,136 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>What is the proportion of people over 65 for each PC4 area in Amsterdam</t>
+          <t>Where are not protected region in Assam in India</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>what be the proportion of people over unitN for each pc4 area in amsterdam</t>
+          <t>where be not protect region in assam in india</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>What is the tornado path in Oleander in April 2011</t>
+          <t>Where are the accidents within ski pistes in the Happy Valley</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>what be the tornado path in oleander in montInYe unitN</t>
+          <t>where be the accident within ski piste in the happy valley</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>What is the total population within a four-minute travel time from fire stations in Poway</t>
+          <t>Where are the auto accidents in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>what be the total population within a unitT travel time from fire station in poway</t>
+          <t>where be the auto accident in tarrant county in texas</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>Where are the fire stations in Utrecht</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>what liquor store be within unitN unitL of school in el cajon</t>
+          <t>where be the fire station in utrecht</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E72" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F72" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>where be forestry land in happy valley ski resort</t>
+          <t>where be the unitN star hotel in the happy valley ski resort</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>Where are the industrial areas in Utrecht</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>where be not conservation area in uk</t>
+          <t>where be the industrial area in utrecht</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2214,23 +2214,23 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Where are the accidents within ski pistes in the Happy Valley</t>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>where be the accident within ski piste in the happy valley</t>
+          <t>where be the ski piste in happy valley ski resort</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E75" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F75" t="n">
         <v>18</v>
@@ -2238,313 +2238,121 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Where are the auto accidents in Tarrant County in Texas</t>
+          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>where be the auto accident in tarrant county in texas</t>
+          <t>which house be within unitN unitT drive time from the near fire station from my current location in oleander</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F76" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>where be the commercial area in amsterdam</t>
+          <t>which school be not reachable within unitN unitT of drive time from a fire station in fort worth</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E77" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F77" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Where are the fire stations in Utrecht</t>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>where be the fire station in utrecht</t>
+          <t>which shop be open at unitN unitTR in happy valley ski resort</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
+          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>where be the hispanic food store in tarrant county in texas</t>
+          <t>which suggest wind farm be near to the high way in scotland</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E79" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F79" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Where are the industrial areas in Utrecht</t>
+          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>where be the industrial area in utrecht</t>
+          <t>which wind farm proposal be near to the high way in scotland</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E80" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F80" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>where be the luxury hotel with more than unitN bedroom in happy valley ski resort</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>18</v>
-      </c>
-      <c r="E81" t="n">
-        <v>18</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>which house be within unitN unitT drive time from the near fire station from my current location in oleander</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>53</v>
-      </c>
-      <c r="E82" t="n">
-        <v>53</v>
-      </c>
-      <c r="F82" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>which school be not accessible within unitN unitT of drive time from a fire station in fort worth</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>50</v>
-      </c>
-      <c r="E83" t="n">
-        <v>50</v>
-      </c>
-      <c r="F83" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>which school be not reachable within unitN unitT of drive time from a fire station in fort worth</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>50</v>
-      </c>
-      <c r="E84" t="n">
-        <v>50</v>
-      </c>
-      <c r="F84" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>which shop be open at unitN unitTR in happy valley ski resort</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>which vacant lot be within unitN mile of a freeway in hillsboro</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>21</v>
-      </c>
-      <c r="E86" t="n">
-        <v>21</v>
-      </c>
-      <c r="F86" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>which wind farm proposal be near to the high way in scotland</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>13</v>
-      </c>
-      <c r="E87" t="n">
-        <v>13</v>
-      </c>
-      <c r="F87" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Which wind farm proposals are nearest to the roads in Scotland</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>which wind farm proposal be near to the road in scotland</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>13</v>
-      </c>
-      <c r="E88" t="n">
-        <v>13</v>
-      </c>
-      <c r="F88" t="n">
         <v>13</v>
       </c>
     </row>
